--- a/content/api/trials.xlsx
+++ b/content/api/trials.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,31 +485,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-03-29T11:19:37</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Spinal Cord Lesion Detection in Multiple Sclerosis Using Novel MRI Sequences</t>
+          <t>Evaluation of New MRI Sequences Including 3D-FGAPSIR for the Optimization of Inflammatory Spinal Cord Lesions Research</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: SC MRI;   Other: patient questionnaire&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Basel, Switzerland;   Freie Akademische Gesellschaft Basel&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Estimate the Number of Spinal Cord Lesions Detected With the 3D FGAPSIR Sequence That Were Not Detected With the 3D PSIR Sequence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04819737?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04906928?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2021-03-29T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -525,31 +525,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-03-29T11:19:36</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Study of the Mechanisms of Action of Cladribine in Multiple Sclerosis</t>
+          <t>Next-Gen MS: Feed-forward PRO Data for MS Research</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: biological collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Rouen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    EMD Serono Research &amp; Development Institute, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04821596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04907305?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2021-03-29T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,31 +565,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-03-26T13:30:35</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botulinum Toxin A vs Anticholinergic Treatment of Neurogenic Overactive Bladder in Patients With Multiple Sclerosis</t>
+          <t>The Therapeutic Effects of Forced Aerobic Exercise in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Urinary Bladder, Neurogenic;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: VESIcare 10Mg Tablet;   Drug: Botox 100 UNT Injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Brigitte Schürch;   Centre Hospitalier Universitaire Vaudois&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Forced Aerobic Exercise (FE);   Behavioral: Voluntary Aerobic Exercise (VE)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Cleveland Clinic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04819360?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04906057?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2021-03-26T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -605,31 +605,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-03-26T13:30:35</t>
+          <t>2021-05-27T12:09:08</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The Effect of the Arabic Otago Exercise Program on Falls in People With Multiple Sclerosis</t>
+          <t>Pilot Investigation to Evaluate FlowOx2.0™ for Experimental Treatment of Spasticity</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Otago Exercise Program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Jordan&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Spasticity, Muscle;   Pain&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: FlowOx™&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Otivio AS;   Haukeland University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04818008?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04904016?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2021-03-26T16:00:00.000Z</t>
+          <t>2021-05-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -645,31 +645,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-03-25T11:16:53</t>
+          <t>2021-05-26T15:30:08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Efficacy and Safety Study of MYOBLOC® in the Treatment of Adult Upper Limb Spasticity</t>
+          <t>The Possible Neuroprotective Effect of Ocrelizumab Via VEGF Protein Expression in Relapsing Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spasticity;   Cerebrovascular Accident;   Multiple Sclerosis;   Traumatic Brain Injury;   Cervical Spinal Cord Injury;   Cerebral Palsy&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: rimabotulinumtoxinB;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Supernus Pharmaceuticals, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Relapse&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    IRCCS National Neurological Institute "C. Mondino" Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04815967?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04902690?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2021-03-25T16:00:00.000Z</t>
+          <t>2021-05-26T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -685,31 +685,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-05-20T11:40:26</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Neuroplasticity of Cortical Areas Induced by Cognitive Training in Patients With Multiple Sclerosis MS-NEUROPLAST</t>
+          <t>Swiss Study of the Impact of Mayzent on SPMS Patients in a Long-term Non-interventional Study</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Decline&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Cognitive Training&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Aristotle University Of Thessaloniki;   King Fahad Medical City&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis With Inflammatory Disease Activity&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04806568?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04895202?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-05-20T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -725,31 +725,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-05-19T11:05:28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Virtual Reality in Physical Therapy in Multiple Sclerosis</t>
+          <t>Adapting mHealth Technology to Improve Patient Activation</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Neuroproprioceptive "facilitation and inhibition" in virtual reality;   Other: Neuroproprioceptive "facilitation and inhibition"&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Fatigue self-management SMS intervention&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Washington University School of Medicine;   The Foundation for Barnes-Jewish Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04807738?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04893590?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-05-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -765,31 +765,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-05-19T11:05:27</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nature of the Link Between Executive Functions and Theory of Mind in Multiple Sclerosis</t>
+          <t>Evaluation of Clinical, Morphologic and Biochemical Markers in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Theory of Mind&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: blood sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Graz&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04806217?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04892134?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-05-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -805,31 +805,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-03-18T11:23:53</t>
+          <t>2021-05-18T10:30:26</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Emotions in Multiple Sclerosis</t>
+          <t>Investigation of the Effects of Technology Supported Different Physiotherapy Approaches on Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Carrying out a tests and questionnaires battery&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Technology Supported Task-Oriented Circuit Training;   Other: Home-based Telerehabilitation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04804787?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04891341?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2021-03-18T16:00:00.000Z</t>
+          <t>2021-05-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -845,31 +845,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-03-15T14:45:21</t>
+          <t>2021-05-17T17:47:26</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pathogenicity of B and CD4 T Cell Subsets in Multiple Sclerosis</t>
+          <t>Holter of Movement in Patients With Multiple Sclerosis in Controlled Environment.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: blood sample;   Biological: cerebro-spinal fluid&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   University of Bordeaux&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Actimyo°;   Device: IMU&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04798651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04888689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2021-03-15T16:00:00.000Z</t>
+          <t>2021-05-17T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -885,31 +885,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-03-15T14:45:21</t>
+          <t>2021-05-14T12:06:26</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Efficacy of COVID-19 Vaccination in Patients With Multiple Sclerosis Treated With Immune Modulating Medication</t>
+          <t>The Effects of Respiratory-based Telerehabilitaion in Patients With MS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of cell-mediated and antibody-mediated immunity to SARS-CoV-2 virus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Providence Health &amp; Services&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Telerehabilitation;   Compliance, Patient&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: pulmonory based home exercises&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Anıl Tosun;   Trakya University&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04796584?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04887051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2021-03-15T16:00:00.000Z</t>
+          <t>2021-05-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -925,31 +925,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-03-12T14:58:20</t>
+          <t>2021-05-13T16:26:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Role of Individualized Versus Traditional Exercise in Combating Fatigue in Fatigued Multiple Sclerosis Patients</t>
+          <t>Exploring the Immune Response to SARS-CoV-2 COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Adapted and individualized physical training program;   Other: traditional training program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Saint Etienne&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04796272?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2021-03-12T17:00:00.000Z</t>
+          <t>2021-05-03T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -965,31 +965,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:31</t>
+          <t>2021-05-13T10:18:31</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Post-COntrast 3D SE T1 Versus Coronal SE T1-WI MRI in Detecting Optic Neuritis (COCON)</t>
+          <t>An Examination of Cognitive Fatigue Using Functional Neuroimaging</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Zeposia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Celgene;   Hackensack Meridian Health;   St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04793087?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04885894?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-05-13T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1005,31 +1005,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:31</t>
+          <t>2021-05-12T10:42:31</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3D FLAIR Versus Coronal T2-WI MRI in Detecting Optic Neuritis (FLACON)</t>
+          <t>Holter of Movement in Patients With Multiple Sclerosis in Uncontrolled Environment.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis;   Encephalopathy&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Actimyo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04792866?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04882891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-05-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1045,31 +1045,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:30</t>
+          <t>2021-05-11T11:06:31</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2 modRNA Vaccines in Patients With Secondary Progressive Multiple Sclerosis (AMA-VACC)</t>
+          <t>Sport, Rehabilitation and Nutrition in Multiple Sclerosis: The LINUS Project</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: BAF312;   Drug: Baseline disease modifying therapies (DMTs)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: B-HIPE (Brief High Impact Preparatory Experience)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04792567?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04881422?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-05-11T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1085,31 +1085,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-03-09T14:59:53</t>
+          <t>2021-05-10T12:29:31</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Open Label Randomized Multicenter to Assess Efficacy &amp;amp; Tolerability of Ofatumumab 20mg vs. First Line DMT in RMS</t>
+          <t>Tenofovir Alafenamide for Treatment of Symptoms and Neuroprotection in Relapsing Remitting Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Drug: First line DMT&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Fatigue&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: TENOFOVIR ALAFENAMIDE FUMARATE 25 Mg ORAL TABLET [VEMLIDY];   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Harvard Medical School;   Gilead Sciences&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04788615?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04880577?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2021-03-09T17:00:00.000Z</t>
+          <t>2021-05-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1125,31 +1125,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-03-09T14:59:53</t>
+          <t>2021-05-10T12:29:31</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T Cell Profiling in Patients With Multiple Sclerosis</t>
+          <t>Proof-of-concept Study for SAR441344 in Relapsing Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood Sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Boston Children's Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: SAR441344 IV;   Drug: placebo IV;   Drug: SAR441344 SC;   Drug: placebo SC;   Drug: MRI contrast-enhancing preparations&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04789551?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04879628?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2021-03-09T17:00:00.000Z</t>
+          <t>2021-05-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1165,31 +1165,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-07T11:43:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Behavioral Intervention for Physical Activity and Sexual Dysfunction in Multiple Sclerosis</t>
+          <t>Prevention of Clinical Multiple Sclerosis in Individuals With Radiologically Isolated Disease.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Sexual Dysfunction&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Behavioural intervention for physical activity for multiple sclerosis (BIPAMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alabama at Birmingham;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Radiologically Isolated Syndrome;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ocrelizumab;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Yale University;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04768777?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04877457?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2021-02-24T17:00:00.000Z</t>
+          <t>2021-05-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1205,31 +1205,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-07T11:43:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>miRNA Biomarkers in Multiple Sclerosis</t>
+          <t>A Open-label Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   miRNA;   Epigenetic;   Biomarker&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Genetic: miRNA&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Gaziantep&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis (RMS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Biological: mRNA COVID-19 vaccine;   Drug: interferon or glatiramer acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04772495?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04878211?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2021-02-26T17:00:00.000Z</t>
+          <t>2021-05-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1245,31 +1245,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-06T11:08:31</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Comparing the Safety and Benefit of Natalizumab (Tysabri®) At-home Infusion vs At-hospital Infusion in Multiple Sclerosis</t>
+          <t>Sonification Techniques for Gait Training</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: At-home natalizumab treated MS patient&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Nantes University Hospital;   Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Parkinson Disease;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Gait rehabilitation with "sonification";   Other: Standard gait rehabilitation (without sonification)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istituti Clinici Scientifici Maugeri SpA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04777539?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04876339?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2021-03-02T17:00:00.000Z</t>
+          <t>2021-05-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1285,31 +1285,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-06T11:08:31</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ATOMIC (Active Teens Multiple Sclerosis) Physical Activity Research Program</t>
+          <t>EMDR for Depressed People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Pediatric Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Physical Activity (PA) Intervention;   Behavioral: Waitlist attention-control&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    The Hospital for Sick Children;   Children's Hospital of Philadelphia;   University of Alabama at Birmingham;   Queen's University;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Depression&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Eye Movement Desensitization and Reprocessing - EMDR&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus;   EMDR Europe;   Catholic University of the Sacred Heart&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04782466?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04875832?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2021-03-04T17:00:00.000Z</t>
+          <t>2021-05-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1325,31 +1325,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Digital Gait Analysis in the Home Environment of Patients With Multiple Sclerosis</t>
+          <t>Sensor-based Assessment and Rehabilitation of Balance in Neurological Diseases</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Medical Valley Digital Health Application Center GmbH;   Celgene Corporation;   NeuroSys GmbH;   Fraunhofer Institute for Integrated Circuits IIS;   Portabiles HealthCare Technologies GmbH;   University of Regensburg&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Stroke;   Multiple Sclerosis;   Parkinson Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Experimental Group;   Other: Control Group&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    IRCCS San Camillo, Venezia, Italy;   IRCCS San Raffaele;   Istituti Clinici Scientifici Maugeri SpA;   IRCCS National Neurological Institute "C. Mondino" Foundation;   I.R.C.C.S. Fondazione Santa Lucia&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04771858?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04874051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2021-02-25T17:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1365,31 +1365,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Acceptability of Exoskeleton Assisted Walking for Persons With Mobility Issues Due to Multiple Sclerosis</t>
+          <t>Investigation of the Effect of Ocrelizumab on Peripheral Lymphocyte Immunophenotypes With Suppressive Capacity in MS</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Pathologic Processes;   Sclerosis;   Autoimmune Diseases of the Nervous System;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Standard Exercise Training;   Device: Phoenix Exoskeleton suit&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sheffield Teaching Hospitals NHS Foundation Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr Recai Turkoglu;   Health Sciences University Istanbul Haydarpaşa Numune Training and Research Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04786821?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04874597?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2021-03-08T17:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1405,31 +1405,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Addition of Belimumab to B-cell Depletion in Relapsing-remitting Multiple Sclerosis</t>
+          <t>From Genetics to Transcriptomics to Unravel the Mechanisms Behind a Poor Outcome in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Belimumab;   Drug: Short-course Ocrelizumab;   Drug: Continued Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Johns Hopkins University;   GlaxoSmithKline&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Biological sample collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04767698?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04873492?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2021-02-23T17:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1445,31 +1445,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-03T11:30:09</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The Effect of Extra Virgin Olive Oil in People With Multiple Sclerosis</t>
+          <t>Exploring the Immune Response to SARS-CoV-2&amp;#x2F;COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Dietary Supplement: High Phenolic Extra Virgin Olive Oil&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Cyprus;   World Olive Center for Health;   Ellis-Farm, Eliama Daily Value&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04787497?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2021-03-08T17:00:00.000Z</t>
+          <t>2021-05-03T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1485,31 +1485,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-03-08T12:17:02</t>
+          <t>2021-04-30T10:48:20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Extension to the MAGNIFY MS Trial on Mavenclad® (Magnify MS Extension)</t>
+          <t>Validation of a Novel Instrument Task for Assessing Upper Limb</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Assessment of Arm and Hand Sensorimotor Functions in Multiple Sclerosis Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Assessment of the upper limb (VPIT + PPIT)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Swiss Federal Institute of Technology;   Kliniken Valens&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04783935?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04868370?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2021-03-05T17:00:00.000Z</t>
+          <t>2021-04-30T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1525,31 +1525,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-03-08T12:17:02</t>
+          <t>2021-04-29T20:44:18</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cognition and HRQoL in Adults With Highly-active RMS in Year 3 and 4 After Initial Mavenclad® Dose (CLARIFY MS Extension)</t>
+          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04776213?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2021-03-01T17:00:00.000Z</t>
+          <t>2021-04-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1565,31 +1565,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-03-02T14:12:09</t>
+          <t>2021-04-28T12:01:02</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COVID-19: SARS Vaccination</t>
+          <t>COVID-19 and Multiple Sclerosis Disease Modifying Therapies</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Covid19;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04863586?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2021-02-21T17:00:00.000Z</t>
+          <t>2021-04-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1605,31 +1605,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-04-27T12:25:02</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Antibody Response to COVID-19 Vaccines in Liver Disease Patients</t>
+          <t>Validation of the French Adaptation of the MSWDQ-23 Questionnaire</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Chronic Liver Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Biological: CoronaVac;   Biological: AZD1222&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Humanity &amp; Health Medical Group Limited&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: questionnaires&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Nice&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04775069?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04860791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2021-03-01T17:00:00.000Z</t>
+          <t>2021-04-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1645,31 +1645,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-04-27T12:25:02</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Study to Evaluate the Safety, Tolerability, and Immunogenicity of SARS CoV-2 RNA Vaccine Candidate (BNT162b2) Against COVID-19 in Healthy Pregnant Women 18 Years of Age and Older</t>
+          <t>Assessment of sNfL Levels, Atrophy of the Macula GCC by OCT and Whole Brain Atrophy by MRI to Predict Evolution of Neurological Disability in MS Patients</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV-2 Infection;   COVID-19;   Maternal Immunization&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    BioNTech SE;   Pfizer&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Diagnostic Test: Brain MRI;   Diagnostic Test: Spinal Cord MRI;   Diagnostic Test: Retinal imaging&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centre Hospitalier Universitaire de Nīmes;   Institut de Recherches en Biothérapie&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04754594?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04860947?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2021-02-15T17:00:00.000Z</t>
+          <t>2021-04-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1685,31 +1685,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-04-26T12:49:02</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>National Cohort Study of Effectiveness and Safety of SARS-CoV-2&amp;#x2F;COVID-19 Vaccines (ENFORCE)</t>
+          <t>MS Relapses During COVID-19 Pandemic</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    SARS-CoV Infection&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: COMIRNATY - BioNTech Manufacturing GmbH;   Biological: COVID-19 Vaccine Moderna dispersion for injection - MODERNA BIOTECH;   Biological: COVID-19 Vaccine AstraZeneca suspension for injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jens D Lundgren, MD;   Ministry of the Interior and Health, Denmark&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19;   Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: No Intervention&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04760132?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04858763?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2021-02-18T17:00:00.000Z</t>
+          <t>2021-04-26T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1725,31 +1725,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-04-23T20:54:01</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>COVID-19: SARS Vaccination Reactions</t>
+          <t>Effect of Variance on Error Correction During Coupling</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: synchronisation abilities&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   National MS Center Melsbroek;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04856384?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2021-02-21T17:00:00.000Z</t>
+          <t>2021-04-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1760,7 +1760,2167 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>54</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021-04-23T20:54:01</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Running Title: Walking to Music and in Silence on a Treadmill</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Walking with music with synchronisation;   Other: Walking with music without synchronisation;   Other: walking without music&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04856345?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2021-04-23T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>53</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021-04-23T20:54:01</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Deficient T Regulatory Cell (Treg) Function in Patients With Relapsing Remitting Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapse Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Thomas Jefferson University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04857489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2021-04-23T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>52</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021-04-22T20:19:01</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Investigating the Effects of Wearable Robotic Exoskeleton for Improving Mobility and Cognition in Persons With MS</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Gait Disorders, Neurologic;   Motility Disorder;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Robotic Exoskeleton Rehabilitation;   Other: Conventional Gait Therapy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Kessler Institute for Rehabilitation&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855825?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2021-04-22T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>51</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021-04-22T20:19:01</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis. A Two-center, Prospective Observational Study</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2021-04-22T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>50</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021-04-21T10:57:40</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Investigation of the Effects of Selective Exercise Training in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanko University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04853654?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2021-04-21T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>49</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-04-19T11:50:37</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GentleCath Air (Urinary Self-catheterization) - Pain in Female Patients With Neurological Vesico-sphincter Disorders</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Multiple Sclerosis;   Parkinsonian Disorders;   Allodynia&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: GentleCath™ Air catheter&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ConvaTec Inc.;   ClinSearch&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04847609?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2021-04-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>48</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021-04-19T11:50:37</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A Multicenter Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Ofatumumab;   Other: Covid-19 vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04847596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2021-04-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>47</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021-04-14T10:53:38</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Study of the Humoral Response to SARS-CoV-2 Variants and of the Cellular Response After Vaccination Against COVID-19 in Immunocompromised People</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Autoimmune or Autoinflammatory Diseases;   HIV;   Multiple Sclerosis;   Solid Tumors or Cancers;   Solid Organ Transplant&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood samples for the study of the humoral response to SARS-CoV-2 variants and of the cellular response after vaccination against COVID-19&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Assistance Publique - Hôpitaux de Paris&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04844489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2021-04-14T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>46</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021-04-14T10:53:38</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Effects of Lutein Supplementation on Cognition and MPOD in Multiple Sclerosis Patients-</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Dietary Supplement: Lutein;   Dietary Supplement: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Illinois at Urbana-Champaign;   Division of Nutritional Sciences, University of Illinois at Urbana-Champaign&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04843813?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2021-04-14T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>45</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021-04-14T10:53:38</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Covid19 Multiple Sclerosis Vaccine Biospecimen Study</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SARS-COV-2 mRNA Vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04843774?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2021-04-14T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>44</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021-04-09T13:11:11</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>The Effect of Telerehabilitation Based Pilates Training in Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Telerehabilitation-based Pilates Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Gazi University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838886?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2021-04-09T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021-04-09T13:11:11</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TELEMS: Feasibility of Remote Patient Visits in MS</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: EDSS;   Other: Discussion of symptoms&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Vienna&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838990?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2021-04-09T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>42</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Comparing the Antibody Response to COVID-19 Vaccination in Multiple Sclerosis Patients Treated With Ocrelizumab or Natalizumab</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases of the Nervous System;   Nervous System Diseases;   Demyelinating Diseases;   Autoimmune Diseases;   Immune System Diseases;   Pathologic Processes&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Elecsys semi-quantitative Anti-SARS-CoV-2 antibody test&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dragonfly Research, LLC&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>41</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Retrospective Study on Registry Data to Evaluate the Impact of Ocrelizumab Used in Routine Care in Patients With RRMS</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Strasbourg, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838015?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Effect of Disease Modifying Therapy on Antibody Response to COVID19 Vaccination in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04834401?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2021-04-07T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>39</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Impact of Neuropsychological Disorders in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Three dimensional gait analysis with eyetracking&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837365?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>38</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Therapeutic Adherence of Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Study of the role of sociocognitive factors&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837352?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>37</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021-04-06T11:14:24</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>The Effects of Relaxation Techniques on Pain, Fatigue and Kinesiophobia in Multiple Sclerosis Patients: A Three Arms Randomized Trial</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Pain, Chronic;   Fatigue Syndrome, Chronic;   Kinesiophobia&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: PMR: Progressive Muscle Relaxation;   Behavioral: BRT:Benson Relaxation Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04833673?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2021-04-06T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>36</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2021-04-05T11:38:24</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Study of Tysabri in Early Relapsing Remitting Multiple Sclerosis Participants</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Biogen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04832399?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2021-04-05T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>35</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2021-04-05T11:38:24</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Effects of a Multiple Sclerosis Relapse Therapy on Offspring Neurocognitive Development and Behaviour</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Exposure to methylprednisolone during pregnancy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jena University Hospital;   Ruhr University of Bochum;   Interdisciplinary Center of Clinical Research of the Medical Faculty Jena;   Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04832269?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2021-04-05T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>34</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021-03-30T11:05:24</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Imaging Evaluation of Central Nervous Autoimmune Diseases</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    MS (Multiple Sclerosis);   NMO Spectrum Disorder&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Qilu Hospital of Shandong University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04822623?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>33</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2021-03-30T11:05:24</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Effects of Repeated Mesenchymal Stem Cells (MSC) in Patients With Progressive Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Mesenchymal Stem Cells (MSC)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hadassah Medical Organization&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04823000?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>32</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2021-03-29T11:19:37</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Spinal Cord Lesion Detection in Multiple Sclerosis Using Novel MRI Sequences</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: SC MRI;   Other: patient questionnaire&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Basel, Switzerland;   Freie Akademische Gesellschaft Basel&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04819737?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2021-03-29T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>31</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2021-03-29T11:19:36</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Study of the Mechanisms of Action of Cladribine in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: biological collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Rouen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04821596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2021-03-29T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>30</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2021-03-26T13:30:35</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Botulinum Toxin A vs Anticholinergic Treatment of Neurogenic Overactive Bladder in Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Urinary Bladder, Neurogenic;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: VESIcare 10Mg Tablet;   Drug: Botox 100 UNT Injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Brigitte Schürch;   Centre Hospitalier Universitaire Vaudois&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04819360?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2021-03-26T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>29</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2021-03-26T13:30:35</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>The Effect of the Arabic Otago Exercise Program on Falls in People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Otago Exercise Program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Jordan&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04818008?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2021-03-26T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>28</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2021-03-25T11:16:53</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Efficacy and Safety Study of MYOBLOC® in the Treatment of Adult Upper Limb Spasticity</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spasticity;   Cerebrovascular Accident;   Multiple Sclerosis;   Traumatic Brain Injury;   Cervical Spinal Cord Injury;   Cerebral Palsy&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: rimabotulinumtoxinB;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Supernus Pharmaceuticals, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04815967?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2021-03-25T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>27</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Neuroplasticity of Cortical Areas Induced by Cognitive Training in Patients With Multiple Sclerosis MS-NEUROPLAST</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Decline&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Cognitive Training&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Aristotle University Of Thessaloniki;   King Fahad Medical City&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04806568?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>26</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Virtual Reality in Physical Therapy in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Neuroproprioceptive "facilitation and inhibition" in virtual reality;   Other: Neuroproprioceptive "facilitation and inhibition"&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04807738?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>25</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Nature of the Link Between Executive Functions and Theory of Mind in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Theory of Mind&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04806217?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>24</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2021-03-18T11:23:53</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Emotions in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Carrying out a tests and questionnaires battery&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04804787?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2021-03-18T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>23</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2021-03-15T14:45:21</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Pathogenicity of B and CD4 T Cell Subsets in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: blood sample;   Biological: cerebro-spinal fluid&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   University of Bordeaux&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04798651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2021-03-15T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>22</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2021-03-15T14:45:21</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Efficacy of COVID-19 Vaccination in Patients With Multiple Sclerosis Treated With Immune Modulating Medication</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of cell-mediated and antibody-mediated immunity to SARS-CoV-2 virus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Providence Health &amp; Services&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04796584?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2021-03-15T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>21</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2021-03-12T14:58:20</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Role of Individualized Versus Traditional Exercise in Combating Fatigue in Fatigued Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Adapted and individualized physical training program;   Other: traditional training program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Saint Etienne&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04796272?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2021-03-12T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:31</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Post-COntrast 3D SE T1 Versus Coronal SE T1-WI MRI in Detecting Optic Neuritis (COCON)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04793087?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:31</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3D FLAIR Versus Coronal T2-WI MRI in Detecting Optic Neuritis (FLACON)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis;   Encephalopathy&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04792866?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>18</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:30</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Exploring the Immune Response to SARS-CoV-2 modRNA Vaccines in Patients With Secondary Progressive Multiple Sclerosis (AMA-VACC)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: BAF312;   Drug: Baseline disease modifying therapies (DMTs)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04792567?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>17</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2021-03-09T14:59:53</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Open Label Randomized Multicenter to Assess Efficacy &amp;amp; Tolerability of Ofatumumab 20mg vs. First Line DMT in RMS</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Drug: First line DMT&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04788615?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2021-03-09T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>16</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2021-03-09T14:59:53</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>T Cell Profiling in Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood Sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Boston Children's Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04789551?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2021-03-09T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>15</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Behavioral Intervention for Physical Activity and Sexual Dysfunction in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Sexual Dysfunction&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Behavioural intervention for physical activity for multiple sclerosis (BIPAMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alabama at Birmingham;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04768777?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2021-02-24T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>14</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>miRNA Biomarkers in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   miRNA;   Epigenetic;   Biomarker&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Genetic: miRNA&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Gaziantep&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04772495?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2021-02-26T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>13</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Comparing the Safety and Benefit of Natalizumab (Tysabri®) At-home Infusion vs At-hospital Infusion in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: At-home natalizumab treated MS patient&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Nantes University Hospital;   Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04777539?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2021-03-02T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>12</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ATOMIC (Active Teens Multiple Sclerosis) Physical Activity Research Program</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Pediatric Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Physical Activity (PA) Intervention;   Behavioral: Waitlist attention-control&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    The Hospital for Sick Children;   Children's Hospital of Philadelphia;   University of Alabama at Birmingham;   Queen's University;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04782466?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2021-03-04T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Digital Gait Analysis in the Home Environment of Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Medical Valley Digital Health Application Center GmbH;   Celgene Corporation;   NeuroSys GmbH;   Fraunhofer Institute for Integrated Circuits IIS;   Portabiles HealthCare Technologies GmbH;   University of Regensburg&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04771858?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2021-02-25T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Acceptability of Exoskeleton Assisted Walking for Persons With Mobility Issues Due to Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Pathologic Processes;   Sclerosis;   Autoimmune Diseases of the Nervous System;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Standard Exercise Training;   Device: Phoenix Exoskeleton suit&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sheffield Teaching Hospitals NHS Foundation Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04786821?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2021-03-08T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Addition of Belimumab to B-cell Depletion in Relapsing-remitting Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Belimumab;   Drug: Short-course Ocrelizumab;   Drug: Continued Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Johns Hopkins University;   GlaxoSmithKline&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04767698?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2021-02-23T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>The Effect of Extra Virgin Olive Oil in People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Dietary Supplement: High Phenolic Extra Virgin Olive Oil&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Cyprus;   World Olive Center for Health;   Ellis-Farm, Eliama Daily Value&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04787497?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2021-03-08T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2021-03-08T12:17:02</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Extension to the MAGNIFY MS Trial on Mavenclad® (Magnify MS Extension)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04783935?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2021-03-05T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2021-03-08T12:17:02</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Cognition and HRQoL in Adults With Highly-active RMS in Year 3 and 4 After Initial Mavenclad® Dose (CLARIFY MS Extension)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04776213?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2021-03-01T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2021-03-02T14:12:09</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>COVID-19: SARS Vaccination</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2021-02-21T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Antibody Response to COVID-19 Vaccines in Liver Disease Patients</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Chronic Liver Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Biological: CoronaVac;   Biological: AZD1222&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Humanity &amp; Health Medical Group Limited&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04775069?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2021-03-01T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Study to Evaluate the Safety, Tolerability, and Immunogenicity of SARS CoV-2 RNA Vaccine Candidate (BNT162b2) Against COVID-19 in Healthy Pregnant Women 18 Years of Age and Older</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV-2 Infection;   COVID-19;   Maternal Immunization&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    BioNTech SE;   Pfizer&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04754594?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2021-02-15T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>National Cohort Study of Effectiveness and Safety of SARS-CoV-2&amp;#x2F;COVID-19 Vaccines (ENFORCE)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    SARS-CoV Infection&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: COMIRNATY - BioNTech Manufacturing GmbH;   Biological: COVID-19 Vaccine Moderna dispersion for injection - MODERNA BIOTECH;   Biological: COVID-19 Vaccine AstraZeneca suspension for injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jens D Lundgren, MD;   Ministry of the Interior and Health, Denmark&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04760132?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2021-02-18T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>COVID-19: SARS Vaccination Reactions</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2021-02-21T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/content/api/trials.xlsx
+++ b/content/api/trials.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,31 +485,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-03-29T11:19:37</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Spinal Cord Lesion Detection in Multiple Sclerosis Using Novel MRI Sequences</t>
+          <t>Evaluation of New MRI Sequences Including 3D-FGAPSIR for the Optimization of Inflammatory Spinal Cord Lesions Research</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: SC MRI;   Other: patient questionnaire&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Basel, Switzerland;   Freie Akademische Gesellschaft Basel&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Estimate the Number of Spinal Cord Lesions Detected With the 3D FGAPSIR Sequence That Were Not Detected With the 3D PSIR Sequence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04819737?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04906928?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2021-03-29T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -525,31 +525,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-03-29T11:19:36</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Study of the Mechanisms of Action of Cladribine in Multiple Sclerosis</t>
+          <t>Next-Gen MS: Feed-forward PRO Data for MS Research</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: biological collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Rouen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    EMD Serono Research &amp; Development Institute, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04821596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04907305?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2021-03-29T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,31 +565,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-03-26T13:30:35</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botulinum Toxin A vs Anticholinergic Treatment of Neurogenic Overactive Bladder in Patients With Multiple Sclerosis</t>
+          <t>The Therapeutic Effects of Forced Aerobic Exercise in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Urinary Bladder, Neurogenic;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: VESIcare 10Mg Tablet;   Drug: Botox 100 UNT Injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Brigitte Schürch;   Centre Hospitalier Universitaire Vaudois&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Forced Aerobic Exercise (FE);   Behavioral: Voluntary Aerobic Exercise (VE)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Cleveland Clinic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04819360?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04906057?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2021-03-26T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -605,31 +605,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-03-26T13:30:35</t>
+          <t>2021-05-27T12:09:08</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The Effect of the Arabic Otago Exercise Program on Falls in People With Multiple Sclerosis</t>
+          <t>Pilot Investigation to Evaluate FlowOx2.0™ for Experimental Treatment of Spasticity</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Otago Exercise Program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Jordan&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Spasticity, Muscle;   Pain&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: FlowOx™&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Otivio AS;   Haukeland University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04818008?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04904016?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2021-03-26T16:00:00.000Z</t>
+          <t>2021-05-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -645,31 +645,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-03-25T11:16:53</t>
+          <t>2021-05-26T15:30:08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Efficacy and Safety Study of MYOBLOC® in the Treatment of Adult Upper Limb Spasticity</t>
+          <t>The Possible Neuroprotective Effect of Ocrelizumab Via VEGF Protein Expression in Relapsing Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spasticity;   Cerebrovascular Accident;   Multiple Sclerosis;   Traumatic Brain Injury;   Cervical Spinal Cord Injury;   Cerebral Palsy&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: rimabotulinumtoxinB;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Supernus Pharmaceuticals, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Relapse&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    IRCCS National Neurological Institute "C. Mondino" Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04815967?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04902690?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2021-03-25T16:00:00.000Z</t>
+          <t>2021-05-26T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -685,31 +685,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-05-20T11:40:26</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Neuroplasticity of Cortical Areas Induced by Cognitive Training in Patients With Multiple Sclerosis MS-NEUROPLAST</t>
+          <t>Swiss Study of the Impact of Mayzent on SPMS Patients in a Long-term Non-interventional Study</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Decline&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Cognitive Training&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Aristotle University Of Thessaloniki;   King Fahad Medical City&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis With Inflammatory Disease Activity&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04806568?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04895202?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-05-20T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -725,31 +725,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-05-19T11:05:28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Virtual Reality in Physical Therapy in Multiple Sclerosis</t>
+          <t>Adapting mHealth Technology to Improve Patient Activation</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Neuroproprioceptive "facilitation and inhibition" in virtual reality;   Other: Neuroproprioceptive "facilitation and inhibition"&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Fatigue self-management SMS intervention&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Washington University School of Medicine;   The Foundation for Barnes-Jewish Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04807738?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04893590?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-05-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -765,31 +765,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-05-19T11:05:27</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nature of the Link Between Executive Functions and Theory of Mind in Multiple Sclerosis</t>
+          <t>Evaluation of Clinical, Morphologic and Biochemical Markers in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Theory of Mind&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: blood sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Graz&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04806217?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04892134?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-05-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -805,31 +805,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-03-18T11:23:53</t>
+          <t>2021-05-18T10:30:26</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Emotions in Multiple Sclerosis</t>
+          <t>Investigation of the Effects of Technology Supported Different Physiotherapy Approaches on Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Carrying out a tests and questionnaires battery&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Technology Supported Task-Oriented Circuit Training;   Other: Home-based Telerehabilitation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04804787?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04891341?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2021-03-18T16:00:00.000Z</t>
+          <t>2021-05-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -845,31 +845,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-03-15T14:45:21</t>
+          <t>2021-05-17T17:47:26</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pathogenicity of B and CD4 T Cell Subsets in Multiple Sclerosis</t>
+          <t>Holter of Movement in Patients With Multiple Sclerosis in Controlled Environment.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: blood sample;   Biological: cerebro-spinal fluid&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   University of Bordeaux&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Actimyo°;   Device: IMU&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04798651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04888689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2021-03-15T16:00:00.000Z</t>
+          <t>2021-05-17T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -885,31 +885,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-03-15T14:45:21</t>
+          <t>2021-05-14T12:06:26</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Efficacy of COVID-19 Vaccination in Patients With Multiple Sclerosis Treated With Immune Modulating Medication</t>
+          <t>The Effects of Respiratory-based Telerehabilitaion in Patients With MS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of cell-mediated and antibody-mediated immunity to SARS-CoV-2 virus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Providence Health &amp; Services&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Telerehabilitation;   Compliance, Patient&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: pulmonory based home exercises&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Anıl Tosun;   Trakya University&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04796584?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04887051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2021-03-15T16:00:00.000Z</t>
+          <t>2021-05-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -925,31 +925,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-03-12T14:58:20</t>
+          <t>2021-05-13T16:26:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Role of Individualized Versus Traditional Exercise in Combating Fatigue in Fatigued Multiple Sclerosis Patients</t>
+          <t>Exploring the Immune Response to SARS-CoV-2 COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Adapted and individualized physical training program;   Other: traditional training program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Saint Etienne&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04796272?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2021-03-12T17:00:00.000Z</t>
+          <t>2021-05-03T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -965,31 +965,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:31</t>
+          <t>2021-05-13T10:18:31</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Post-COntrast 3D SE T1 Versus Coronal SE T1-WI MRI in Detecting Optic Neuritis (COCON)</t>
+          <t>An Examination of Cognitive Fatigue Using Functional Neuroimaging</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Zeposia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Celgene;   Hackensack Meridian Health;   St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04793087?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04885894?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-05-13T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1005,31 +1005,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:31</t>
+          <t>2021-05-12T10:42:31</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3D FLAIR Versus Coronal T2-WI MRI in Detecting Optic Neuritis (FLACON)</t>
+          <t>Holter of Movement in Patients With Multiple Sclerosis in Uncontrolled Environment.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis;   Encephalopathy&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Actimyo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04792866?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04882891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-05-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1045,31 +1045,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:30</t>
+          <t>2021-05-11T11:06:31</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2 modRNA Vaccines in Patients With Secondary Progressive Multiple Sclerosis (AMA-VACC)</t>
+          <t>Sport, Rehabilitation and Nutrition in Multiple Sclerosis: The LINUS Project</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: BAF312;   Drug: Baseline disease modifying therapies (DMTs)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: B-HIPE (Brief High Impact Preparatory Experience)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04792567?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04881422?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-05-11T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1085,31 +1085,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-03-09T14:59:53</t>
+          <t>2021-05-10T12:29:31</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Open Label Randomized Multicenter to Assess Efficacy &amp;amp; Tolerability of Ofatumumab 20mg vs. First Line DMT in RMS</t>
+          <t>Tenofovir Alafenamide for Treatment of Symptoms and Neuroprotection in Relapsing Remitting Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Drug: First line DMT&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Fatigue&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: TENOFOVIR ALAFENAMIDE FUMARATE 25 Mg ORAL TABLET [VEMLIDY];   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Harvard Medical School;   Gilead Sciences&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04788615?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04880577?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2021-03-09T17:00:00.000Z</t>
+          <t>2021-05-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1125,31 +1125,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-03-09T14:59:53</t>
+          <t>2021-05-10T12:29:31</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T Cell Profiling in Patients With Multiple Sclerosis</t>
+          <t>Proof-of-concept Study for SAR441344 in Relapsing Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood Sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Boston Children's Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: SAR441344 IV;   Drug: placebo IV;   Drug: SAR441344 SC;   Drug: placebo SC;   Drug: MRI contrast-enhancing preparations&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04789551?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04879628?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2021-03-09T17:00:00.000Z</t>
+          <t>2021-05-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1165,31 +1165,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-07T11:43:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Behavioral Intervention for Physical Activity and Sexual Dysfunction in Multiple Sclerosis</t>
+          <t>Prevention of Clinical Multiple Sclerosis in Individuals With Radiologically Isolated Disease.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Sexual Dysfunction&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Behavioural intervention for physical activity for multiple sclerosis (BIPAMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alabama at Birmingham;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Radiologically Isolated Syndrome;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ocrelizumab;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Yale University;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04768777?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04877457?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2021-02-24T17:00:00.000Z</t>
+          <t>2021-05-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1205,31 +1205,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-07T11:43:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>miRNA Biomarkers in Multiple Sclerosis</t>
+          <t>A Open-label Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   miRNA;   Epigenetic;   Biomarker&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Genetic: miRNA&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Gaziantep&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis (RMS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Biological: mRNA COVID-19 vaccine;   Drug: interferon or glatiramer acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04772495?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04878211?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2021-02-26T17:00:00.000Z</t>
+          <t>2021-05-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1245,31 +1245,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-06T11:08:31</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Comparing the Safety and Benefit of Natalizumab (Tysabri®) At-home Infusion vs At-hospital Infusion in Multiple Sclerosis</t>
+          <t>Sonification Techniques for Gait Training</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: At-home natalizumab treated MS patient&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Nantes University Hospital;   Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Parkinson Disease;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Gait rehabilitation with "sonification";   Other: Standard gait rehabilitation (without sonification)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istituti Clinici Scientifici Maugeri SpA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04777539?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04876339?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2021-03-02T17:00:00.000Z</t>
+          <t>2021-05-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1285,31 +1285,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-06T11:08:31</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ATOMIC (Active Teens Multiple Sclerosis) Physical Activity Research Program</t>
+          <t>EMDR for Depressed People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Pediatric Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Physical Activity (PA) Intervention;   Behavioral: Waitlist attention-control&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    The Hospital for Sick Children;   Children's Hospital of Philadelphia;   University of Alabama at Birmingham;   Queen's University;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Depression&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Eye Movement Desensitization and Reprocessing - EMDR&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus;   EMDR Europe;   Catholic University of the Sacred Heart&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04782466?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04875832?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2021-03-04T17:00:00.000Z</t>
+          <t>2021-05-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1325,31 +1325,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Digital Gait Analysis in the Home Environment of Patients With Multiple Sclerosis</t>
+          <t>Sensor-based Assessment and Rehabilitation of Balance in Neurological Diseases</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Medical Valley Digital Health Application Center GmbH;   Celgene Corporation;   NeuroSys GmbH;   Fraunhofer Institute for Integrated Circuits IIS;   Portabiles HealthCare Technologies GmbH;   University of Regensburg&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Stroke;   Multiple Sclerosis;   Parkinson Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Experimental Group;   Other: Control Group&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    IRCCS San Camillo, Venezia, Italy;   IRCCS San Raffaele;   Istituti Clinici Scientifici Maugeri SpA;   IRCCS National Neurological Institute "C. Mondino" Foundation;   I.R.C.C.S. Fondazione Santa Lucia&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04771858?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04874051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2021-02-25T17:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1365,31 +1365,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Acceptability of Exoskeleton Assisted Walking for Persons With Mobility Issues Due to Multiple Sclerosis</t>
+          <t>Investigation of the Effect of Ocrelizumab on Peripheral Lymphocyte Immunophenotypes With Suppressive Capacity in MS</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Pathologic Processes;   Sclerosis;   Autoimmune Diseases of the Nervous System;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Standard Exercise Training;   Device: Phoenix Exoskeleton suit&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sheffield Teaching Hospitals NHS Foundation Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr Recai Turkoglu;   Health Sciences University Istanbul Haydarpaşa Numune Training and Research Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04786821?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04874597?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2021-03-08T17:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1405,31 +1405,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Addition of Belimumab to B-cell Depletion in Relapsing-remitting Multiple Sclerosis</t>
+          <t>From Genetics to Transcriptomics to Unravel the Mechanisms Behind a Poor Outcome in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Belimumab;   Drug: Short-course Ocrelizumab;   Drug: Continued Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Johns Hopkins University;   GlaxoSmithKline&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Biological sample collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04767698?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04873492?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2021-02-23T17:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1445,31 +1445,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-05-03T11:30:09</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The Effect of Extra Virgin Olive Oil in People With Multiple Sclerosis</t>
+          <t>Exploring the Immune Response to SARS-CoV-2&amp;#x2F;COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Dietary Supplement: High Phenolic Extra Virgin Olive Oil&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Cyprus;   World Olive Center for Health;   Ellis-Farm, Eliama Daily Value&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04787497?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2021-03-08T17:00:00.000Z</t>
+          <t>2021-05-03T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1485,31 +1485,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-03-08T12:17:02</t>
+          <t>2021-04-30T10:48:20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Extension to the MAGNIFY MS Trial on Mavenclad® (Magnify MS Extension)</t>
+          <t>Validation of a Novel Instrument Task for Assessing Upper Limb</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Assessment of Arm and Hand Sensorimotor Functions in Multiple Sclerosis Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Assessment of the upper limb (VPIT + PPIT)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Swiss Federal Institute of Technology;   Kliniken Valens&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04783935?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04868370?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2021-03-05T17:00:00.000Z</t>
+          <t>2021-04-30T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1525,31 +1525,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-03-08T12:17:02</t>
+          <t>2021-04-29T20:44:18</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cognition and HRQoL in Adults With Highly-active RMS in Year 3 and 4 After Initial Mavenclad® Dose (CLARIFY MS Extension)</t>
+          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04776213?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2021-03-01T17:00:00.000Z</t>
+          <t>2021-04-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1565,31 +1565,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-03-02T14:12:09</t>
+          <t>2021-04-28T12:01:02</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COVID-19: SARS Vaccination</t>
+          <t>COVID-19 and Multiple Sclerosis Disease Modifying Therapies</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Covid19;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04863586?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2021-02-21T17:00:00.000Z</t>
+          <t>2021-04-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1605,31 +1605,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-04-27T12:25:02</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Antibody Response to COVID-19 Vaccines in Liver Disease Patients</t>
+          <t>Validation of the French Adaptation of the MSWDQ-23 Questionnaire</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Chronic Liver Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Biological: CoronaVac;   Biological: AZD1222&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Humanity &amp; Health Medical Group Limited&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: questionnaires&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Nice&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04775069?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04860791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2021-03-01T17:00:00.000Z</t>
+          <t>2021-04-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1645,31 +1645,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-04-27T12:25:02</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Study to Evaluate the Safety, Tolerability, and Immunogenicity of SARS CoV-2 RNA Vaccine Candidate (BNT162b2) Against COVID-19 in Healthy Pregnant Women 18 Years of Age and Older</t>
+          <t>Assessment of sNfL Levels, Atrophy of the Macula GCC by OCT and Whole Brain Atrophy by MRI to Predict Evolution of Neurological Disability in MS Patients</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV-2 Infection;   COVID-19;   Maternal Immunization&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    BioNTech SE;   Pfizer&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Diagnostic Test: Brain MRI;   Diagnostic Test: Spinal Cord MRI;   Diagnostic Test: Retinal imaging&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centre Hospitalier Universitaire de Nīmes;   Institut de Recherches en Biothérapie&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04754594?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04860947?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2021-02-15T17:00:00.000Z</t>
+          <t>2021-04-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1685,31 +1685,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-04-26T12:49:02</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>National Cohort Study of Effectiveness and Safety of SARS-CoV-2&amp;#x2F;COVID-19 Vaccines (ENFORCE)</t>
+          <t>MS Relapses During COVID-19 Pandemic</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    SARS-CoV Infection&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: COMIRNATY - BioNTech Manufacturing GmbH;   Biological: COVID-19 Vaccine Moderna dispersion for injection - MODERNA BIOTECH;   Biological: COVID-19 Vaccine AstraZeneca suspension for injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jens D Lundgren, MD;   Ministry of the Interior and Health, Denmark&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19;   Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: No Intervention&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04760132?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04858763?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2021-02-18T17:00:00.000Z</t>
+          <t>2021-04-26T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1725,31 +1725,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-04-23T20:54:01</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>COVID-19: SARS Vaccination Reactions</t>
+          <t>Effect of Variance on Error Correction During Coupling</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: synchronisation abilities&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   National MS Center Melsbroek;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04856384?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2021-02-21T17:00:00.000Z</t>
+          <t>2021-04-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1759,6 +1759,2166 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>54</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021-04-23T20:54:01</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Running Title: Walking to Music and in Silence on a Treadmill</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Walking with music with synchronisation;   Other: Walking with music without synchronisation;   Other: walking without music&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04856345?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2021-04-23T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>53</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021-04-23T20:54:01</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Deficient T Regulatory Cell (Treg) Function in Patients With Relapsing Remitting Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapse Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Thomas Jefferson University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04857489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2021-04-23T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>52</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021-04-22T20:19:01</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Investigating the Effects of Wearable Robotic Exoskeleton for Improving Mobility and Cognition in Persons With MS</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Gait Disorders, Neurologic;   Motility Disorder;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Robotic Exoskeleton Rehabilitation;   Other: Conventional Gait Therapy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Kessler Institute for Rehabilitation&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855825?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2021-04-22T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>51</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021-04-22T20:19:01</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis. A Two-center, Prospective Observational Study</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2021-04-22T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>50</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021-04-21T10:57:40</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Investigation of the Effects of Selective Exercise Training in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanko University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04853654?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2021-04-21T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>49</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-04-19T11:50:37</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GentleCath Air (Urinary Self-catheterization) - Pain in Female Patients With Neurological Vesico-sphincter Disorders</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Multiple Sclerosis;   Parkinsonian Disorders;   Allodynia&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: GentleCath™ Air catheter&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ConvaTec Inc.;   ClinSearch&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04847609?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2021-04-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>48</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021-04-19T11:50:37</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A Multicenter Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Ofatumumab;   Other: Covid-19 vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04847596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2021-04-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>47</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021-04-14T10:53:38</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Study of the Humoral Response to SARS-CoV-2 Variants and of the Cellular Response After Vaccination Against COVID-19 in Immunocompromised People</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Autoimmune or Autoinflammatory Diseases;   HIV;   Multiple Sclerosis;   Solid Tumors or Cancers;   Solid Organ Transplant&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood samples for the study of the humoral response to SARS-CoV-2 variants and of the cellular response after vaccination against COVID-19&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Assistance Publique - Hôpitaux de Paris&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04844489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2021-04-14T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>46</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021-04-14T10:53:38</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Effects of Lutein Supplementation on Cognition and MPOD in Multiple Sclerosis Patients-</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Dietary Supplement: Lutein;   Dietary Supplement: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Illinois at Urbana-Champaign;   Division of Nutritional Sciences, University of Illinois at Urbana-Champaign&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04843813?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2021-04-14T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>45</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021-04-14T10:53:38</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Covid19 Multiple Sclerosis Vaccine Biospecimen Study</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SARS-COV-2 mRNA Vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04843774?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2021-04-14T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>44</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021-04-09T13:11:11</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>The Effect of Telerehabilitation Based Pilates Training in Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Telerehabilitation-based Pilates Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Gazi University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838886?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2021-04-09T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021-04-09T13:11:11</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TELEMS: Feasibility of Remote Patient Visits in MS</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: EDSS;   Other: Discussion of symptoms&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Vienna&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838990?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2021-04-09T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>42</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Comparing the Antibody Response to COVID-19 Vaccination in Multiple Sclerosis Patients Treated With Ocrelizumab or Natalizumab</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases of the Nervous System;   Nervous System Diseases;   Demyelinating Diseases;   Autoimmune Diseases;   Immune System Diseases;   Pathologic Processes&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Elecsys semi-quantitative Anti-SARS-CoV-2 antibody test&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dragonfly Research, LLC&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>41</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Retrospective Study on Registry Data to Evaluate the Impact of Ocrelizumab Used in Routine Care in Patients With RRMS</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Strasbourg, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838015?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Effect of Disease Modifying Therapy on Antibody Response to COVID19 Vaccination in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04834401?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2021-04-07T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>39</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Impact of Neuropsychological Disorders in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Three dimensional gait analysis with eyetracking&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837365?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>38</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Therapeutic Adherence of Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Study of the role of sociocognitive factors&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837352?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>37</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021-04-06T11:14:24</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>The Effects of Relaxation Techniques on Pain, Fatigue and Kinesiophobia in Multiple Sclerosis Patients: A Three Arms Randomized Trial</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Pain, Chronic;   Fatigue Syndrome, Chronic;   Kinesiophobia&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: PMR: Progressive Muscle Relaxation;   Behavioral: BRT:Benson Relaxation Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04833673?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2021-04-06T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>36</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2021-04-05T11:38:24</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Study of Tysabri in Early Relapsing Remitting Multiple Sclerosis Participants</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Biogen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04832399?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2021-04-05T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>35</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2021-04-05T11:38:24</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Effects of a Multiple Sclerosis Relapse Therapy on Offspring Neurocognitive Development and Behaviour</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Exposure to methylprednisolone during pregnancy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jena University Hospital;   Ruhr University of Bochum;   Interdisciplinary Center of Clinical Research of the Medical Faculty Jena;   Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04832269?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2021-04-05T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>34</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021-03-30T11:05:24</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Imaging Evaluation of Central Nervous Autoimmune Diseases</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    MS (Multiple Sclerosis);   NMO Spectrum Disorder&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Qilu Hospital of Shandong University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04822623?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>33</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2021-03-30T11:05:24</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Effects of Repeated Mesenchymal Stem Cells (MSC) in Patients With Progressive Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Mesenchymal Stem Cells (MSC)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hadassah Medical Organization&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04823000?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>32</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2021-03-29T11:19:37</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Spinal Cord Lesion Detection in Multiple Sclerosis Using Novel MRI Sequences</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: SC MRI;   Other: patient questionnaire&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Basel, Switzerland;   Freie Akademische Gesellschaft Basel&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04819737?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2021-03-29T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>31</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2021-03-29T11:19:36</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Study of the Mechanisms of Action of Cladribine in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: biological collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Rouen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04821596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2021-03-29T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>30</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2021-03-26T13:30:35</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Botulinum Toxin A vs Anticholinergic Treatment of Neurogenic Overactive Bladder in Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Urinary Bladder, Neurogenic;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: VESIcare 10Mg Tablet;   Drug: Botox 100 UNT Injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Brigitte Schürch;   Centre Hospitalier Universitaire Vaudois&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04819360?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2021-03-26T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>29</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2021-03-26T13:30:35</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>The Effect of the Arabic Otago Exercise Program on Falls in People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Otago Exercise Program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Jordan&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04818008?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2021-03-26T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>28</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2021-03-25T11:16:53</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Efficacy and Safety Study of MYOBLOC® in the Treatment of Adult Upper Limb Spasticity</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spasticity;   Cerebrovascular Accident;   Multiple Sclerosis;   Traumatic Brain Injury;   Cervical Spinal Cord Injury;   Cerebral Palsy&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: rimabotulinumtoxinB;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Supernus Pharmaceuticals, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04815967?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2021-03-25T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>27</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Neuroplasticity of Cortical Areas Induced by Cognitive Training in Patients With Multiple Sclerosis MS-NEUROPLAST</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Decline&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Cognitive Training&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Aristotle University Of Thessaloniki;   King Fahad Medical City&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04806568?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>26</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Virtual Reality in Physical Therapy in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Neuroproprioceptive "facilitation and inhibition" in virtual reality;   Other: Neuroproprioceptive "facilitation and inhibition"&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04807738?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>25</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Nature of the Link Between Executive Functions and Theory of Mind in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Theory of Mind&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04806217?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>24</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2021-03-18T11:23:53</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Emotions in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Carrying out a tests and questionnaires battery&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04804787?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2021-03-18T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>23</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2021-03-15T14:45:21</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Pathogenicity of B and CD4 T Cell Subsets in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: blood sample;   Biological: cerebro-spinal fluid&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   University of Bordeaux&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04798651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2021-03-15T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>22</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2021-03-15T14:45:21</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Efficacy of COVID-19 Vaccination in Patients With Multiple Sclerosis Treated With Immune Modulating Medication</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of cell-mediated and antibody-mediated immunity to SARS-CoV-2 virus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Providence Health &amp; Services&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04796584?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2021-03-15T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>21</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2021-03-12T14:58:20</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Role of Individualized Versus Traditional Exercise in Combating Fatigue in Fatigued Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Adapted and individualized physical training program;   Other: traditional training program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Saint Etienne&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04796272?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2021-03-12T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:31</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Post-COntrast 3D SE T1 Versus Coronal SE T1-WI MRI in Detecting Optic Neuritis (COCON)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04793087?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:31</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3D FLAIR Versus Coronal T2-WI MRI in Detecting Optic Neuritis (FLACON)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis;   Encephalopathy&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04792866?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>18</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:30</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Exploring the Immune Response to SARS-CoV-2 modRNA Vaccines in Patients With Secondary Progressive Multiple Sclerosis (AMA-VACC)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: BAF312;   Drug: Baseline disease modifying therapies (DMTs)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04792567?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>17</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2021-03-09T14:59:53</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Open Label Randomized Multicenter to Assess Efficacy &amp;amp; Tolerability of Ofatumumab 20mg vs. First Line DMT in RMS</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Drug: First line DMT&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04788615?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2021-03-09T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>16</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2021-03-09T14:59:53</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>T Cell Profiling in Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood Sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Boston Children's Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04789551?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2021-03-09T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>15</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Behavioral Intervention for Physical Activity and Sexual Dysfunction in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Sexual Dysfunction&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Behavioural intervention for physical activity for multiple sclerosis (BIPAMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alabama at Birmingham;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04768777?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2021-02-24T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>14</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>miRNA Biomarkers in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   miRNA;   Epigenetic;   Biomarker&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Genetic: miRNA&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Gaziantep&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04772495?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2021-02-26T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>13</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Comparing the Safety and Benefit of Natalizumab (Tysabri®) At-home Infusion vs At-hospital Infusion in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: At-home natalizumab treated MS patient&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Nantes University Hospital;   Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04777539?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2021-03-02T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>12</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ATOMIC (Active Teens Multiple Sclerosis) Physical Activity Research Program</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Pediatric Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Physical Activity (PA) Intervention;   Behavioral: Waitlist attention-control&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    The Hospital for Sick Children;   Children's Hospital of Philadelphia;   University of Alabama at Birmingham;   Queen's University;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04782466?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2021-03-04T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Digital Gait Analysis in the Home Environment of Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Medical Valley Digital Health Application Center GmbH;   Celgene Corporation;   NeuroSys GmbH;   Fraunhofer Institute for Integrated Circuits IIS;   Portabiles HealthCare Technologies GmbH;   University of Regensburg&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04771858?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2021-02-25T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Acceptability of Exoskeleton Assisted Walking for Persons With Mobility Issues Due to Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Pathologic Processes;   Sclerosis;   Autoimmune Diseases of the Nervous System;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Standard Exercise Training;   Device: Phoenix Exoskeleton suit&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sheffield Teaching Hospitals NHS Foundation Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04786821?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2021-03-08T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Addition of Belimumab to B-cell Depletion in Relapsing-remitting Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Belimumab;   Drug: Short-course Ocrelizumab;   Drug: Continued Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Johns Hopkins University;   GlaxoSmithKline&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04767698?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2021-02-23T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>The Effect of Extra Virgin Olive Oil in People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Dietary Supplement: High Phenolic Extra Virgin Olive Oil&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Cyprus;   World Olive Center for Health;   Ellis-Farm, Eliama Daily Value&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04787497?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2021-03-08T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2021-03-08T12:17:02</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Extension to the MAGNIFY MS Trial on Mavenclad® (Magnify MS Extension)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04783935?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2021-03-05T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2021-03-08T12:17:02</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Cognition and HRQoL in Adults With Highly-active RMS in Year 3 and 4 After Initial Mavenclad® Dose (CLARIFY MS Extension)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04776213?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2021-03-01T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2021-03-02T14:12:09</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>COVID-19: SARS Vaccination</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2021-02-21T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Antibody Response to COVID-19 Vaccines in Liver Disease Patients</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Chronic Liver Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Biological: CoronaVac;   Biological: AZD1222&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Humanity &amp; Health Medical Group Limited&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04775069?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2021-03-01T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Study to Evaluate the Safety, Tolerability, and Immunogenicity of SARS CoV-2 RNA Vaccine Candidate (BNT162b2) Against COVID-19 in Healthy Pregnant Women 18 Years of Age and Older</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV-2 Infection;   COVID-19;   Maternal Immunization&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    BioNTech SE;   Pfizer&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04754594?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2021-02-15T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>National Cohort Study of Effectiveness and Safety of SARS-CoV-2&amp;#x2F;COVID-19 Vaccines (ENFORCE)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    SARS-CoV Infection&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: COMIRNATY - BioNTech Manufacturing GmbH;   Biological: COVID-19 Vaccine Moderna dispersion for injection - MODERNA BIOTECH;   Biological: COVID-19 Vaccine AstraZeneca suspension for injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jens D Lundgren, MD;   Ministry of the Interior and Health, Denmark&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04760132?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2021-02-18T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>COVID-19: SARS Vaccination Reactions</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2021-02-21T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/content/api/trials.xlsx
+++ b/content/api/trials.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,31 +485,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-05-28T12:44:08</t>
+          <t>2021-06-16T18:08:49</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Evaluation of New MRI Sequences Including 3D-FGAPSIR for the Optimization of Inflammatory Spinal Cord Lesions Research</t>
+          <t>Multiple Sclerosis and Voiding Symptoms: How to Assess?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Estimate the Number of Spinal Cord Lesions Detected With the 3D FGAPSIR Sequence That Were Not Detected With the 3D PSIR Sequence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Lower Urinary Tract Symptoms;   Voiding Disorders&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: voiding phase evaluation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pierre and Marie Curie University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04906928?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04928716?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2021-05-28T16:00:00.000Z</t>
+          <t>2021-06-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -525,31 +525,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-05-28T12:44:08</t>
+          <t>2021-06-16T18:08:49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Next-Gen MS: Feed-forward PRO Data for MS Research</t>
+          <t>Safety and Effectiveness of Cinnomer® (Glatiramer Acetate) in Multiple Sclerosis (MS) Treatment in Iran</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    EMD Serono Research &amp; Development Institute, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Glatiramer Acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cinnagen&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04907305?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04928313?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2021-05-28T16:00:00.000Z</t>
+          <t>2021-06-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,31 +565,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-05-28T12:44:08</t>
+          <t>2021-06-15T16:34:48</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The Therapeutic Effects of Forced Aerobic Exercise in Multiple Sclerosis</t>
+          <t>Efficacy and Safety of Ofatumumab and Siponimod Compared to Fingolimod in Pediatric Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Forced Aerobic Exercise (FE);   Behavioral: Voluntary Aerobic Exercise (VE)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Cleveland Clinic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Fingolimod;   Drug: Ofatumumab;   Drug: Siponimod;   Other: Fingolimod placebo;   Other: Siponimod placebo;   Other: Ofatumumab placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04906057?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04926818?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2021-05-28T16:00:00.000Z</t>
+          <t>2021-06-15T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -605,31 +605,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-05-27T12:09:08</t>
+          <t>2021-06-14T17:57:48</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pilot Investigation to Evaluate FlowOx2.0™ for Experimental Treatment of Spasticity</t>
+          <t>Study to Assess the Efficacy of Mayzent on Microglia in Secondary Progressive Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Spasticity, Muscle;   Pain&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: FlowOx™&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Otivio AS;   Haukeland University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary-progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Mayzent;   Drug: Ocrevus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Robert Zivadinov, MD, PhD&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04904016?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04925557?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2021-05-27T16:00:00.000Z</t>
+          <t>2021-06-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -645,31 +645,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-05-26T15:30:08</t>
+          <t>2021-06-14T17:57:48</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The Possible Neuroprotective Effect of Ocrelizumab Via VEGF Protein Expression in Relapsing Multiple Sclerosis Patients</t>
+          <t>Observational Study in Patients With Relapsing-Remitting Multiple Sclerosis Switched to Bafiertam® From Dimethyl Fumarate</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Relapse&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    IRCCS National Neurological Institute "C. Mondino" Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: monomethyl fumarate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Banner Life Sciences LLC&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04902690?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04925778?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2021-05-26T16:00:00.000Z</t>
+          <t>2021-06-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -685,31 +685,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-05-20T11:40:26</t>
+          <t>2021-06-08T15:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Swiss Study of the Impact of Mayzent on SPMS Patients in a Long-term Non-interventional Study</t>
+          <t>EEG and TMS-based Biomarkers of ALS, MS and FTD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis With Inflammatory Disease Activity&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Amyotrophic Lateral Sclerosis;   Frontotemporal Dementia;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: 128 electrode electroencephalography (EEG);   Procedure: Transcranial magnetic stimulation (TMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Dublin, Trinity College;   Motor Neurone Disease Association, UK;   Irish Research Council, IE;   Health Research Board, IE;   Research Motor Neurone, IE;   Thierry Latran Foundation, FR;   ALS Association, USA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04895202?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04918251?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2021-05-20T16:00:00.000Z</t>
+          <t>2021-06-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -725,31 +725,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-05-19T11:05:28</t>
+          <t>2021-06-08T15:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Adapting mHealth Technology to Improve Patient Activation</t>
+          <t>Motor Asymmetry in Progressive Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Fatigue self-management SMS intervention&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Washington University School of Medicine;   The Foundation for Barnes-Jewish Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Primary Progressive;   Multiple Sclerosis, Secondary Progressive&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Radiation: Magnetic Resonance Imaging;   Diagnostic Test: Neurological examination;   Diagnostic Test: Multiple Sclerosis Functional Composite;   Diagnostic Test: Physiotherapist examination&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04893590?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04918225?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2021-05-19T16:00:00.000Z</t>
+          <t>2021-06-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -765,31 +765,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-05-19T11:05:27</t>
+          <t>2021-06-03T15:01:28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Evaluation of Clinical, Morphologic and Biochemical Markers in Multiple Sclerosis</t>
+          <t>Exercise Booster Sessions in People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: blood sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Graz&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Combination Product: Systematic aerobic training;   Combination Product: Systematic resistance training;   Combination Product: Aerobic training booster sessions;   Combination Product: Resistance training booster sessions&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Aarhus;   Oxford Brookes University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04892134?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04913012?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2021-05-19T16:00:00.000Z</t>
+          <t>2021-06-03T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -805,31 +805,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-05-18T10:30:26</t>
+          <t>2021-06-01T17:47:28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Investigation of the Effects of Technology Supported Different Physiotherapy Approaches on Patients With Multiple Sclerosis</t>
+          <t>A Comprehensive Assessment of Trunk, Scapula and Upper Limb in Neurological Patients. Reliability, Validity and Interrelatedness</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Technology Supported Task-Oriented Circuit Training;   Other: Home-based Telerehabilitation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Stroke&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Clinical Scapular protocol (ClinScaP);   Other: the prevalence of trunk, scapula and upper limb impairments.;   Other: the interaction between trunk, scapula and upper limb impairments.&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Revalidatie &amp; MS Centrum Overpelt;   Ziekenhuis Oost-Limburg;   National MS Center Melsbroek;   Jessa Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04891341?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04908891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2021-05-18T16:00:00.000Z</t>
+          <t>2021-05-31T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -845,31 +845,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-05-17T17:47:26</t>
+          <t>2021-06-01T17:47:28</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Holter of Movement in Patients With Multiple Sclerosis in Controlled Environment.</t>
+          <t>Evaluation of Safety, Tolerability and Preliminary Efficacy of EHP-101 in Relapsing Forms of Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Actimyo°;   Device: IMU&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Forms of Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: EHP-101 25 mg OD;   Drug: EHP-101 25 mg BID;   Drug: EHP-101 50 mg OD;   Drug: EHP-101 50 mg BID&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Emerald Health Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04888689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04909502?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2021-05-17T16:00:00.000Z</t>
+          <t>2021-05-31T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -885,31 +885,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-05-14T12:06:26</t>
+          <t>2021-06-01T17:47:28</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The Effects of Respiratory-based Telerehabilitaion in Patients With MS</t>
+          <t>Creating Satisfying Engagement in Daily Life Through Coaching for People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Telerehabilitation;   Compliance, Patient&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: pulmonory based home exercises&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Anıl Tosun;   Trakya University&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Quality of Life&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Occupational Performance Coaching&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Queen's University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04887051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04908085?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2021-05-14T16:00:00.000Z</t>
+          <t>2021-05-31T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -925,31 +925,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-05-13T16:26:30</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2 COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
+          <t>Evaluation of New MRI Sequences Including 3D-FGAPSIR for the Optimization of Inflammatory Spinal Cord Lesions Research</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Estimate the Number of Spinal Cord Lesions Detected With the 3D FGAPSIR Sequence That Were Not Detected With the 3D PSIR Sequence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04906928?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2021-05-03T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -965,31 +965,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-05-13T10:18:31</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>An Examination of Cognitive Fatigue Using Functional Neuroimaging</t>
+          <t>Next-Gen MS: Feed-forward PRO Data for MS Research</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Zeposia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Celgene;   Hackensack Meridian Health;   St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    EMD Serono Research &amp; Development Institute, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04885894?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04907305?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2021-05-13T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1005,31 +1005,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-05-12T10:42:31</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Holter of Movement in Patients With Multiple Sclerosis in Uncontrolled Environment.</t>
+          <t>The Therapeutic Effects of Forced Aerobic Exercise in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Actimyo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Forced Aerobic Exercise (FE);   Behavioral: Voluntary Aerobic Exercise (VE)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Cleveland Clinic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04882891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04906057?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2021-05-12T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1045,31 +1045,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-05-11T11:06:31</t>
+          <t>2021-05-27T12:09:08</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sport, Rehabilitation and Nutrition in Multiple Sclerosis: The LINUS Project</t>
+          <t>Pilot Investigation to Evaluate FlowOx2.0™ for Experimental Treatment of Spasticity</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: B-HIPE (Brief High Impact Preparatory Experience)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Spasticity, Muscle;   Pain&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: FlowOx™&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Otivio AS;   Haukeland University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04881422?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04904016?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2021-05-11T16:00:00.000Z</t>
+          <t>2021-05-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1085,31 +1085,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-05-10T12:29:31</t>
+          <t>2021-05-26T15:30:08</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tenofovir Alafenamide for Treatment of Symptoms and Neuroprotection in Relapsing Remitting Multiple Sclerosis</t>
+          <t>The Possible Neuroprotective Effect of Ocrelizumab Via VEGF Protein Expression in Relapsing Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Fatigue&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: TENOFOVIR ALAFENAMIDE FUMARATE 25 Mg ORAL TABLET [VEMLIDY];   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Harvard Medical School;   Gilead Sciences&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Relapse&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    IRCCS National Neurological Institute "C. Mondino" Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04880577?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04902690?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2021-05-10T16:00:00.000Z</t>
+          <t>2021-05-26T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1125,31 +1125,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-05-10T12:29:31</t>
+          <t>2021-05-20T11:40:26</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Proof-of-concept Study for SAR441344 in Relapsing Multiple Sclerosis</t>
+          <t>Swiss Study of the Impact of Mayzent on SPMS Patients in a Long-term Non-interventional Study</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: SAR441344 IV;   Drug: placebo IV;   Drug: SAR441344 SC;   Drug: placebo SC;   Drug: MRI contrast-enhancing preparations&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis With Inflammatory Disease Activity&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04879628?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04895202?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2021-05-10T16:00:00.000Z</t>
+          <t>2021-05-20T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1165,31 +1165,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-05-07T11:43:30</t>
+          <t>2021-05-19T11:05:28</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Prevention of Clinical Multiple Sclerosis in Individuals With Radiologically Isolated Disease.</t>
+          <t>Adapting mHealth Technology to Improve Patient Activation</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Radiologically Isolated Syndrome;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ocrelizumab;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Yale University;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Fatigue self-management SMS intervention&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Washington University School of Medicine;   The Foundation for Barnes-Jewish Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04877457?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04893590?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2021-05-07T16:00:00.000Z</t>
+          <t>2021-05-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1205,31 +1205,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-05-07T11:43:30</t>
+          <t>2021-05-19T11:05:27</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A Open-label Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
+          <t>Evaluation of Clinical, Morphologic and Biochemical Markers in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis (RMS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Biological: mRNA COVID-19 vaccine;   Drug: interferon or glatiramer acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: blood sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Graz&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04878211?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04892134?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2021-05-07T16:00:00.000Z</t>
+          <t>2021-05-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1245,31 +1245,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-05-06T11:08:31</t>
+          <t>2021-05-18T10:30:26</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sonification Techniques for Gait Training</t>
+          <t>Investigation of the Effects of Technology Supported Different Physiotherapy Approaches on Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Parkinson Disease;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Gait rehabilitation with "sonification";   Other: Standard gait rehabilitation (without sonification)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istituti Clinici Scientifici Maugeri SpA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Technology Supported Task-Oriented Circuit Training;   Other: Home-based Telerehabilitation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04876339?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04891341?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2021-05-06T16:00:00.000Z</t>
+          <t>2021-05-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1285,31 +1285,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-05-06T11:08:31</t>
+          <t>2021-05-17T17:47:26</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EMDR for Depressed People With Multiple Sclerosis</t>
+          <t>Holter of Movement in Patients With Multiple Sclerosis in Controlled Environment.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Depression&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Eye Movement Desensitization and Reprocessing - EMDR&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus;   EMDR Europe;   Catholic University of the Sacred Heart&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Actimyo°;   Device: IMU&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04875832?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04888689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2021-05-06T16:00:00.000Z</t>
+          <t>2021-05-17T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1325,31 +1325,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-05-05T10:42:09</t>
+          <t>2021-05-14T12:06:26</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sensor-based Assessment and Rehabilitation of Balance in Neurological Diseases</t>
+          <t>The Effects of Respiratory-based Telerehabilitaion in Patients With MS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Stroke;   Multiple Sclerosis;   Parkinson Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Experimental Group;   Other: Control Group&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    IRCCS San Camillo, Venezia, Italy;   IRCCS San Raffaele;   Istituti Clinici Scientifici Maugeri SpA;   IRCCS National Neurological Institute "C. Mondino" Foundation;   I.R.C.C.S. Fondazione Santa Lucia&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Telerehabilitation;   Compliance, Patient&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: pulmonory based home exercises&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Anıl Tosun;   Trakya University&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04874051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04887051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2021-05-05T16:00:00.000Z</t>
+          <t>2021-05-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1365,31 +1365,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-05-05T10:42:09</t>
+          <t>2021-05-13T16:26:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Investigation of the Effect of Ocrelizumab on Peripheral Lymphocyte Immunophenotypes With Suppressive Capacity in MS</t>
+          <t>Exploring the Immune Response to SARS-CoV-2 COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr Recai Turkoglu;   Health Sciences University Istanbul Haydarpaşa Numune Training and Research Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04874597?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2021-05-05T16:00:00.000Z</t>
+          <t>2021-05-03T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1405,31 +1405,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-05-05T10:42:09</t>
+          <t>2021-05-13T10:18:31</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>From Genetics to Transcriptomics to Unravel the Mechanisms Behind a Poor Outcome in Multiple Sclerosis</t>
+          <t>An Examination of Cognitive Fatigue Using Functional Neuroimaging</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Biological sample collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Zeposia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Celgene;   Hackensack Meridian Health;   St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04873492?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04885894?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2021-05-05T16:00:00.000Z</t>
+          <t>2021-05-13T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1445,31 +1445,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-05-03T11:30:09</t>
+          <t>2021-05-12T10:42:31</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2&amp;#x2F;COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
+          <t>Holter of Movement in Patients With Multiple Sclerosis in Uncontrolled Environment.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Actimyo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04882891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2021-05-03T16:00:00.000Z</t>
+          <t>2021-05-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1485,31 +1485,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-04-30T10:48:20</t>
+          <t>2021-05-11T11:06:31</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Validation of a Novel Instrument Task for Assessing Upper Limb</t>
+          <t>Sport, Rehabilitation and Nutrition in Multiple Sclerosis: The LINUS Project</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Assessment of Arm and Hand Sensorimotor Functions in Multiple Sclerosis Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Assessment of the upper limb (VPIT + PPIT)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Swiss Federal Institute of Technology;   Kliniken Valens&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: B-HIPE (Brief High Impact Preparatory Experience)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04868370?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04881422?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2021-04-30T16:00:00.000Z</t>
+          <t>2021-05-11T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1525,31 +1525,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-04-29T20:44:18</t>
+          <t>2021-05-10T12:29:31</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis</t>
+          <t>Tenofovir Alafenamide for Treatment of Symptoms and Neuroprotection in Relapsing Remitting Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Fatigue&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: TENOFOVIR ALAFENAMIDE FUMARATE 25 Mg ORAL TABLET [VEMLIDY];   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Harvard Medical School;   Gilead Sciences&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04880577?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2021-04-22T16:00:00.000Z</t>
+          <t>2021-05-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1565,31 +1565,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-04-28T12:01:02</t>
+          <t>2021-05-10T12:29:31</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COVID-19 and Multiple Sclerosis Disease Modifying Therapies</t>
+          <t>Proof-of-concept Study for SAR441344 in Relapsing Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Covid19;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: SAR441344 IV;   Drug: placebo IV;   Drug: SAR441344 SC;   Drug: placebo SC;   Drug: MRI contrast-enhancing preparations&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04863586?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04879628?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2021-04-28T16:00:00.000Z</t>
+          <t>2021-05-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1605,31 +1605,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-04-27T12:25:02</t>
+          <t>2021-05-07T11:43:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Validation of the French Adaptation of the MSWDQ-23 Questionnaire</t>
+          <t>Prevention of Clinical Multiple Sclerosis in Individuals With Radiologically Isolated Disease.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: questionnaires&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Nice&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Radiologically Isolated Syndrome;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ocrelizumab;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Yale University;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04860791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04877457?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2021-04-27T16:00:00.000Z</t>
+          <t>2021-05-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1645,31 +1645,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-04-27T12:25:02</t>
+          <t>2021-05-07T11:43:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Assessment of sNfL Levels, Atrophy of the Macula GCC by OCT and Whole Brain Atrophy by MRI to Predict Evolution of Neurological Disability in MS Patients</t>
+          <t>A Open-label Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Diagnostic Test: Brain MRI;   Diagnostic Test: Spinal Cord MRI;   Diagnostic Test: Retinal imaging&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centre Hospitalier Universitaire de Nīmes;   Institut de Recherches en Biothérapie&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis (RMS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Biological: mRNA COVID-19 vaccine;   Drug: interferon or glatiramer acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04860947?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04878211?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2021-04-27T16:00:00.000Z</t>
+          <t>2021-05-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1685,31 +1685,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-04-26T12:49:02</t>
+          <t>2021-05-06T11:08:31</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MS Relapses During COVID-19 Pandemic</t>
+          <t>Sonification Techniques for Gait Training</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19;   Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: No Intervention&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Parkinson Disease;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Gait rehabilitation with "sonification";   Other: Standard gait rehabilitation (without sonification)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istituti Clinici Scientifici Maugeri SpA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04858763?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04876339?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2021-04-26T16:00:00.000Z</t>
+          <t>2021-05-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1725,31 +1725,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-04-23T20:54:01</t>
+          <t>2021-05-06T11:08:31</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Effect of Variance on Error Correction During Coupling</t>
+          <t>EMDR for Depressed People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: synchronisation abilities&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   National MS Center Melsbroek;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Depression&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Eye Movement Desensitization and Reprocessing - EMDR&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus;   EMDR Europe;   Catholic University of the Sacred Heart&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04856384?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04875832?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2021-04-23T16:00:00.000Z</t>
+          <t>2021-05-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1765,31 +1765,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-04-23T20:54:01</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Running Title: Walking to Music and in Silence on a Treadmill</t>
+          <t>Sensor-based Assessment and Rehabilitation of Balance in Neurological Diseases</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Walking with music with synchronisation;   Other: Walking with music without synchronisation;   Other: walking without music&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Stroke;   Multiple Sclerosis;   Parkinson Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Experimental Group;   Other: Control Group&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    IRCCS San Camillo, Venezia, Italy;   IRCCS San Raffaele;   Istituti Clinici Scientifici Maugeri SpA;   IRCCS National Neurological Institute "C. Mondino" Foundation;   I.R.C.C.S. Fondazione Santa Lucia&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04856345?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04874051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2021-04-23T16:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1805,31 +1805,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-04-23T20:54:01</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Deficient T Regulatory Cell (Treg) Function in Patients With Relapsing Remitting Multiple Sclerosis</t>
+          <t>Investigation of the Effect of Ocrelizumab on Peripheral Lymphocyte Immunophenotypes With Suppressive Capacity in MS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapse Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Thomas Jefferson University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr Recai Turkoglu;   Health Sciences University Istanbul Haydarpaşa Numune Training and Research Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04857489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04874597?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2021-04-23T16:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1845,31 +1845,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-04-22T20:19:01</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Investigating the Effects of Wearable Robotic Exoskeleton for Improving Mobility and Cognition in Persons With MS</t>
+          <t>From Genetics to Transcriptomics to Unravel the Mechanisms Behind a Poor Outcome in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Gait Disorders, Neurologic;   Motility Disorder;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Robotic Exoskeleton Rehabilitation;   Other: Conventional Gait Therapy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Kessler Institute for Rehabilitation&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Biological sample collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04855825?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04873492?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2021-04-22T16:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1885,31 +1885,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-04-22T20:19:01</t>
+          <t>2021-05-03T11:30:09</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis. A Two-center, Prospective Observational Study</t>
+          <t>Exploring the Immune Response to SARS-CoV-2&amp;#x2F;COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2021-04-22T16:00:00.000Z</t>
+          <t>2021-05-03T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1925,31 +1925,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-04-21T10:57:40</t>
+          <t>2021-04-30T10:48:20</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Investigation of the Effects of Selective Exercise Training in Multiple Sclerosis</t>
+          <t>Validation of a Novel Instrument Task for Assessing Upper Limb</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanko University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Assessment of Arm and Hand Sensorimotor Functions in Multiple Sclerosis Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Assessment of the upper limb (VPIT + PPIT)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Swiss Federal Institute of Technology;   Kliniken Valens&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04853654?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04868370?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2021-04-21T16:00:00.000Z</t>
+          <t>2021-04-30T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1965,31 +1965,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-04-19T11:50:37</t>
+          <t>2021-04-29T20:44:18</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GentleCath Air (Urinary Self-catheterization) - Pain in Female Patients With Neurological Vesico-sphincter Disorders</t>
+          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Multiple Sclerosis;   Parkinsonian Disorders;   Allodynia&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: GentleCath™ Air catheter&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ConvaTec Inc.;   ClinSearch&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04847609?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2021-04-19T16:00:00.000Z</t>
+          <t>2021-04-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2005,31 +2005,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2021-04-19T11:50:37</t>
+          <t>2021-04-28T12:01:02</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A Multicenter Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
+          <t>COVID-19 and Multiple Sclerosis Disease Modifying Therapies</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Ofatumumab;   Other: Covid-19 vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Covid19;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04847596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04863586?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2021-04-19T16:00:00.000Z</t>
+          <t>2021-04-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2045,31 +2045,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-04-14T10:53:38</t>
+          <t>2021-04-27T12:25:02</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Study of the Humoral Response to SARS-CoV-2 Variants and of the Cellular Response After Vaccination Against COVID-19 in Immunocompromised People</t>
+          <t>Validation of the French Adaptation of the MSWDQ-23 Questionnaire</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Autoimmune or Autoinflammatory Diseases;   HIV;   Multiple Sclerosis;   Solid Tumors or Cancers;   Solid Organ Transplant&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood samples for the study of the humoral response to SARS-CoV-2 variants and of the cellular response after vaccination against COVID-19&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Assistance Publique - Hôpitaux de Paris&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: questionnaires&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Nice&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04844489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04860791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2021-04-14T16:00:00.000Z</t>
+          <t>2021-04-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2085,31 +2085,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2021-04-14T10:53:38</t>
+          <t>2021-04-27T12:25:02</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Effects of Lutein Supplementation on Cognition and MPOD in Multiple Sclerosis Patients-</t>
+          <t>Assessment of sNfL Levels, Atrophy of the Macula GCC by OCT and Whole Brain Atrophy by MRI to Predict Evolution of Neurological Disability in MS Patients</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Dietary Supplement: Lutein;   Dietary Supplement: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Illinois at Urbana-Champaign;   Division of Nutritional Sciences, University of Illinois at Urbana-Champaign&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Diagnostic Test: Brain MRI;   Diagnostic Test: Spinal Cord MRI;   Diagnostic Test: Retinal imaging&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centre Hospitalier Universitaire de Nīmes;   Institut de Recherches en Biothérapie&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04843813?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04860947?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2021-04-14T16:00:00.000Z</t>
+          <t>2021-04-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2125,31 +2125,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2021-04-14T10:53:38</t>
+          <t>2021-04-26T12:49:02</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Covid19 Multiple Sclerosis Vaccine Biospecimen Study</t>
+          <t>MS Relapses During COVID-19 Pandemic</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SARS-COV-2 mRNA Vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19;   Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: No Intervention&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04843774?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04858763?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2021-04-14T16:00:00.000Z</t>
+          <t>2021-04-26T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2165,31 +2165,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2021-04-09T13:11:11</t>
+          <t>2021-04-23T20:54:01</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The Effect of Telerehabilitation Based Pilates Training in Multiple Sclerosis Patients</t>
+          <t>Effect of Variance on Error Correction During Coupling</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Telerehabilitation-based Pilates Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Gazi University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: synchronisation abilities&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   National MS Center Melsbroek;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04838886?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04856384?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2021-04-09T16:00:00.000Z</t>
+          <t>2021-04-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2205,31 +2205,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2021-04-09T13:11:11</t>
+          <t>2021-04-23T20:54:01</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TELEMS: Feasibility of Remote Patient Visits in MS</t>
+          <t>Running Title: Walking to Music and in Silence on a Treadmill</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: EDSS;   Other: Discussion of symptoms&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Vienna&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Walking with music with synchronisation;   Other: Walking with music without synchronisation;   Other: walking without music&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04838990?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04856345?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2021-04-09T16:00:00.000Z</t>
+          <t>2021-04-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2245,31 +2245,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-04-23T20:54:01</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Comparing the Antibody Response to COVID-19 Vaccination in Multiple Sclerosis Patients Treated With Ocrelizumab or Natalizumab</t>
+          <t>Deficient T Regulatory Cell (Treg) Function in Patients With Relapsing Remitting Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases of the Nervous System;   Nervous System Diseases;   Demyelinating Diseases;   Autoimmune Diseases;   Immune System Diseases;   Pathologic Processes&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Elecsys semi-quantitative Anti-SARS-CoV-2 antibody test&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dragonfly Research, LLC&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapse Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Thomas Jefferson University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04837651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04857489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-04-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2285,31 +2285,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-04-22T20:19:01</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Retrospective Study on Registry Data to Evaluate the Impact of Ocrelizumab Used in Routine Care in Patients With RRMS</t>
+          <t>Investigating the Effects of Wearable Robotic Exoskeleton for Improving Mobility and Cognition in Persons With MS</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Strasbourg, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Gait Disorders, Neurologic;   Motility Disorder;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Robotic Exoskeleton Rehabilitation;   Other: Conventional Gait Therapy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Kessler Institute for Rehabilitation&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04838015?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855825?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-04-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2325,31 +2325,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-04-22T20:19:01</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Effect of Disease Modifying Therapy on Antibody Response to COVID19 Vaccination in Multiple Sclerosis</t>
+          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis. A Two-center, Prospective Observational Study</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04834401?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2021-04-07T16:00:00.000Z</t>
+          <t>2021-04-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2365,31 +2365,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-04-21T10:57:40</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Impact of Neuropsychological Disorders in Multiple Sclerosis</t>
+          <t>Investigation of the Effects of Selective Exercise Training in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Three dimensional gait analysis with eyetracking&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanko University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04837365?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04853654?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-04-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2405,31 +2405,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-04-19T11:50:37</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Therapeutic Adherence of Multiple Sclerosis Patients</t>
+          <t>GentleCath Air (Urinary Self-catheterization) - Pain in Female Patients With Neurological Vesico-sphincter Disorders</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Study of the role of sociocognitive factors&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Multiple Sclerosis;   Parkinsonian Disorders;   Allodynia&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: GentleCath™ Air catheter&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ConvaTec Inc.;   ClinSearch&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04837352?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04847609?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-04-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2445,31 +2445,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2021-04-06T11:14:24</t>
+          <t>2021-04-19T11:50:37</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>The Effects of Relaxation Techniques on Pain, Fatigue and Kinesiophobia in Multiple Sclerosis Patients: A Three Arms Randomized Trial</t>
+          <t>A Multicenter Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Pain, Chronic;   Fatigue Syndrome, Chronic;   Kinesiophobia&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: PMR: Progressive Muscle Relaxation;   Behavioral: BRT:Benson Relaxation Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Ofatumumab;   Other: Covid-19 vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04833673?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04847596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2021-04-06T16:00:00.000Z</t>
+          <t>2021-04-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2485,31 +2485,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2021-04-05T11:38:24</t>
+          <t>2021-04-14T10:53:38</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Study of Tysabri in Early Relapsing Remitting Multiple Sclerosis Participants</t>
+          <t>Study of the Humoral Response to SARS-CoV-2 Variants and of the Cellular Response After Vaccination Against COVID-19 in Immunocompromised People</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Biogen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Autoimmune or Autoinflammatory Diseases;   HIV;   Multiple Sclerosis;   Solid Tumors or Cancers;   Solid Organ Transplant&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood samples for the study of the humoral response to SARS-CoV-2 variants and of the cellular response after vaccination against COVID-19&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Assistance Publique - Hôpitaux de Paris&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04832399?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04844489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2021-04-05T16:00:00.000Z</t>
+          <t>2021-04-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2525,31 +2525,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021-04-05T11:38:24</t>
+          <t>2021-04-14T10:53:38</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Effects of a Multiple Sclerosis Relapse Therapy on Offspring Neurocognitive Development and Behaviour</t>
+          <t>Effects of Lutein Supplementation on Cognition and MPOD in Multiple Sclerosis Patients-</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Exposure to methylprednisolone during pregnancy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jena University Hospital;   Ruhr University of Bochum;   Interdisciplinary Center of Clinical Research of the Medical Faculty Jena;   Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Dietary Supplement: Lutein;   Dietary Supplement: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Illinois at Urbana-Champaign;   Division of Nutritional Sciences, University of Illinois at Urbana-Champaign&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04832269?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04843813?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2021-04-05T16:00:00.000Z</t>
+          <t>2021-04-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2565,31 +2565,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2021-03-30T11:05:24</t>
+          <t>2021-04-14T10:53:38</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Imaging Evaluation of Central Nervous Autoimmune Diseases</t>
+          <t>Covid19 Multiple Sclerosis Vaccine Biospecimen Study</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    MS (Multiple Sclerosis);   NMO Spectrum Disorder&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Qilu Hospital of Shandong University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SARS-COV-2 mRNA Vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04822623?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04843774?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2021-03-30T16:00:00.000Z</t>
+          <t>2021-04-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2605,31 +2605,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2021-03-30T11:05:24</t>
+          <t>2021-04-09T13:11:11</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Effects of Repeated Mesenchymal Stem Cells (MSC) in Patients With Progressive Multiple Sclerosis</t>
+          <t>The Effect of Telerehabilitation Based Pilates Training in Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Mesenchymal Stem Cells (MSC)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hadassah Medical Organization&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Telerehabilitation-based Pilates Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Gazi University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04823000?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838886?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2021-03-30T16:00:00.000Z</t>
+          <t>2021-04-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2645,31 +2645,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2021-03-29T11:19:37</t>
+          <t>2021-04-09T13:11:11</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Spinal Cord Lesion Detection in Multiple Sclerosis Using Novel MRI Sequences</t>
+          <t>TELEMS: Feasibility of Remote Patient Visits in MS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: SC MRI;   Other: patient questionnaire&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Basel, Switzerland;   Freie Akademische Gesellschaft Basel&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: EDSS;   Other: Discussion of symptoms&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Vienna&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04819737?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838990?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2021-03-29T16:00:00.000Z</t>
+          <t>2021-04-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2685,31 +2685,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2021-03-29T11:19:36</t>
+          <t>2021-04-08T11:57:29</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Study of the Mechanisms of Action of Cladribine in Multiple Sclerosis</t>
+          <t>Comparing the Antibody Response to COVID-19 Vaccination in Multiple Sclerosis Patients Treated With Ocrelizumab or Natalizumab</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: biological collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Rouen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases of the Nervous System;   Nervous System Diseases;   Demyelinating Diseases;   Autoimmune Diseases;   Immune System Diseases;   Pathologic Processes&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Elecsys semi-quantitative Anti-SARS-CoV-2 antibody test&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dragonfly Research, LLC&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04821596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2021-03-29T16:00:00.000Z</t>
+          <t>2021-04-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2725,31 +2725,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2021-03-26T13:30:35</t>
+          <t>2021-04-08T11:57:29</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Botulinum Toxin A vs Anticholinergic Treatment of Neurogenic Overactive Bladder in Patients With Multiple Sclerosis</t>
+          <t>Retrospective Study on Registry Data to Evaluate the Impact of Ocrelizumab Used in Routine Care in Patients With RRMS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Urinary Bladder, Neurogenic;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: VESIcare 10Mg Tablet;   Drug: Botox 100 UNT Injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Brigitte Schürch;   Centre Hospitalier Universitaire Vaudois&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Strasbourg, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04819360?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838015?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2021-03-26T16:00:00.000Z</t>
+          <t>2021-04-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2765,31 +2765,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2021-03-26T13:30:35</t>
+          <t>2021-04-08T11:57:29</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>The Effect of the Arabic Otago Exercise Program on Falls in People With Multiple Sclerosis</t>
+          <t>Effect of Disease Modifying Therapy on Antibody Response to COVID19 Vaccination in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Otago Exercise Program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Jordan&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04818008?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04834401?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2021-03-26T16:00:00.000Z</t>
+          <t>2021-04-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2805,31 +2805,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2021-03-25T11:16:53</t>
+          <t>2021-04-08T11:57:29</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Efficacy and Safety Study of MYOBLOC® in the Treatment of Adult Upper Limb Spasticity</t>
+          <t>Impact of Neuropsychological Disorders in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spasticity;   Cerebrovascular Accident;   Multiple Sclerosis;   Traumatic Brain Injury;   Cervical Spinal Cord Injury;   Cerebral Palsy&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: rimabotulinumtoxinB;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Supernus Pharmaceuticals, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Three dimensional gait analysis with eyetracking&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04815967?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837365?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2021-03-25T16:00:00.000Z</t>
+          <t>2021-04-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2845,31 +2845,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-04-08T11:57:29</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Neuroplasticity of Cortical Areas Induced by Cognitive Training in Patients With Multiple Sclerosis MS-NEUROPLAST</t>
+          <t>Therapeutic Adherence of Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Decline&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Cognitive Training&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Aristotle University Of Thessaloniki;   King Fahad Medical City&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Study of the role of sociocognitive factors&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04806568?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837352?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-04-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2885,31 +2885,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-04-06T11:14:24</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Virtual Reality in Physical Therapy in Multiple Sclerosis</t>
+          <t>The Effects of Relaxation Techniques on Pain, Fatigue and Kinesiophobia in Multiple Sclerosis Patients: A Three Arms Randomized Trial</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Neuroproprioceptive "facilitation and inhibition" in virtual reality;   Other: Neuroproprioceptive "facilitation and inhibition"&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Pain, Chronic;   Fatigue Syndrome, Chronic;   Kinesiophobia&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: PMR: Progressive Muscle Relaxation;   Behavioral: BRT:Benson Relaxation Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04807738?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04833673?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-04-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2925,31 +2925,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-04-05T11:38:24</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Nature of the Link Between Executive Functions and Theory of Mind in Multiple Sclerosis</t>
+          <t>Study of Tysabri in Early Relapsing Remitting Multiple Sclerosis Participants</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Theory of Mind&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Biogen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04806217?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04832399?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-04-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2965,31 +2965,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2021-03-18T11:23:53</t>
+          <t>2021-04-05T11:38:24</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Emotions in Multiple Sclerosis</t>
+          <t>Effects of a Multiple Sclerosis Relapse Therapy on Offspring Neurocognitive Development and Behaviour</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Carrying out a tests and questionnaires battery&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Exposure to methylprednisolone during pregnancy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jena University Hospital;   Ruhr University of Bochum;   Interdisciplinary Center of Clinical Research of the Medical Faculty Jena;   Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04804787?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04832269?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2021-03-18T16:00:00.000Z</t>
+          <t>2021-04-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3005,31 +3005,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2021-03-15T14:45:21</t>
+          <t>2021-03-30T11:05:24</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Pathogenicity of B and CD4 T Cell Subsets in Multiple Sclerosis</t>
+          <t>Imaging Evaluation of Central Nervous Autoimmune Diseases</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: blood sample;   Biological: cerebro-spinal fluid&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   University of Bordeaux&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    MS (Multiple Sclerosis);   NMO Spectrum Disorder&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Qilu Hospital of Shandong University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04798651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04822623?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2021-03-15T16:00:00.000Z</t>
+          <t>2021-03-30T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3045,31 +3045,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2021-03-15T14:45:21</t>
+          <t>2021-03-30T11:05:24</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Efficacy of COVID-19 Vaccination in Patients With Multiple Sclerosis Treated With Immune Modulating Medication</t>
+          <t>Effects of Repeated Mesenchymal Stem Cells (MSC) in Patients With Progressive Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of cell-mediated and antibody-mediated immunity to SARS-CoV-2 virus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Providence Health &amp; Services&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Mesenchymal Stem Cells (MSC)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hadassah Medical Organization&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04796584?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04823000?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2021-03-15T16:00:00.000Z</t>
+          <t>2021-03-30T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3085,31 +3085,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2021-03-12T14:58:20</t>
+          <t>2021-03-29T11:19:37</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Role of Individualized Versus Traditional Exercise in Combating Fatigue in Fatigued Multiple Sclerosis Patients</t>
+          <t>Spinal Cord Lesion Detection in Multiple Sclerosis Using Novel MRI Sequences</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Adapted and individualized physical training program;   Other: traditional training program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Saint Etienne&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: SC MRI;   Other: patient questionnaire&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Basel, Switzerland;   Freie Akademische Gesellschaft Basel&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04796272?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04819737?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2021-03-12T17:00:00.000Z</t>
+          <t>2021-03-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3125,31 +3125,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:31</t>
+          <t>2021-03-29T11:19:36</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Post-COntrast 3D SE T1 Versus Coronal SE T1-WI MRI in Detecting Optic Neuritis (COCON)</t>
+          <t>Study of the Mechanisms of Action of Cladribine in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: biological collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Rouen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04793087?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04821596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-03-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3165,31 +3165,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:31</t>
+          <t>2021-03-26T13:30:35</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3D FLAIR Versus Coronal T2-WI MRI in Detecting Optic Neuritis (FLACON)</t>
+          <t>Botulinum Toxin A vs Anticholinergic Treatment of Neurogenic Overactive Bladder in Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis;   Encephalopathy&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Urinary Bladder, Neurogenic;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: VESIcare 10Mg Tablet;   Drug: Botox 100 UNT Injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Brigitte Schürch;   Centre Hospitalier Universitaire Vaudois&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04792866?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04819360?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-03-26T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3205,31 +3205,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:30</t>
+          <t>2021-03-26T13:30:35</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2 modRNA Vaccines in Patients With Secondary Progressive Multiple Sclerosis (AMA-VACC)</t>
+          <t>The Effect of the Arabic Otago Exercise Program on Falls in People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: BAF312;   Drug: Baseline disease modifying therapies (DMTs)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Otago Exercise Program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Jordan&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04792567?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04818008?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-03-26T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3245,31 +3245,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2021-03-09T14:59:53</t>
+          <t>2021-03-25T11:16:53</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Open Label Randomized Multicenter to Assess Efficacy &amp;amp; Tolerability of Ofatumumab 20mg vs. First Line DMT in RMS</t>
+          <t>Efficacy and Safety Study of MYOBLOC® in the Treatment of Adult Upper Limb Spasticity</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Drug: First line DMT&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spasticity;   Cerebrovascular Accident;   Multiple Sclerosis;   Traumatic Brain Injury;   Cervical Spinal Cord Injury;   Cerebral Palsy&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: rimabotulinumtoxinB;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Supernus Pharmaceuticals, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04788615?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04815967?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2021-03-09T17:00:00.000Z</t>
+          <t>2021-03-25T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3285,31 +3285,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2021-03-09T14:59:53</t>
+          <t>2021-03-19T11:55:20</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>T Cell Profiling in Patients With Multiple Sclerosis</t>
+          <t>Neuroplasticity of Cortical Areas Induced by Cognitive Training in Patients With Multiple Sclerosis MS-NEUROPLAST</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood Sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Boston Children's Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Decline&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Cognitive Training&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Aristotle University Of Thessaloniki;   King Fahad Medical City&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04789551?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04806568?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2021-03-09T17:00:00.000Z</t>
+          <t>2021-03-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3325,31 +3325,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-03-19T11:55:20</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Behavioral Intervention for Physical Activity and Sexual Dysfunction in Multiple Sclerosis</t>
+          <t>Virtual Reality in Physical Therapy in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Sexual Dysfunction&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Behavioural intervention for physical activity for multiple sclerosis (BIPAMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alabama at Birmingham;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Neuroproprioceptive "facilitation and inhibition" in virtual reality;   Other: Neuroproprioceptive "facilitation and inhibition"&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04768777?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04807738?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2021-02-24T17:00:00.000Z</t>
+          <t>2021-03-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3365,31 +3365,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-03-19T11:55:20</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>miRNA Biomarkers in Multiple Sclerosis</t>
+          <t>Nature of the Link Between Executive Functions and Theory of Mind in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   miRNA;   Epigenetic;   Biomarker&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Genetic: miRNA&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Gaziantep&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Theory of Mind&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04772495?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04806217?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2021-02-26T17:00:00.000Z</t>
+          <t>2021-03-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3405,31 +3405,31 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-03-18T11:23:53</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Comparing the Safety and Benefit of Natalizumab (Tysabri®) At-home Infusion vs At-hospital Infusion in Multiple Sclerosis</t>
+          <t>Emotions in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: At-home natalizumab treated MS patient&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Nantes University Hospital;   Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Carrying out a tests and questionnaires battery&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04777539?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04804787?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2021-03-02T17:00:00.000Z</t>
+          <t>2021-03-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3445,31 +3445,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-03-15T14:45:21</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ATOMIC (Active Teens Multiple Sclerosis) Physical Activity Research Program</t>
+          <t>Pathogenicity of B and CD4 T Cell Subsets in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Pediatric Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Physical Activity (PA) Intervention;   Behavioral: Waitlist attention-control&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    The Hospital for Sick Children;   Children's Hospital of Philadelphia;   University of Alabama at Birmingham;   Queen's University;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: blood sample;   Biological: cerebro-spinal fluid&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   University of Bordeaux&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04782466?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04798651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2021-03-04T17:00:00.000Z</t>
+          <t>2021-03-15T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3485,31 +3485,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-03-15T14:45:21</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Digital Gait Analysis in the Home Environment of Patients With Multiple Sclerosis</t>
+          <t>Efficacy of COVID-19 Vaccination in Patients With Multiple Sclerosis Treated With Immune Modulating Medication</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Medical Valley Digital Health Application Center GmbH;   Celgene Corporation;   NeuroSys GmbH;   Fraunhofer Institute for Integrated Circuits IIS;   Portabiles HealthCare Technologies GmbH;   University of Regensburg&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of cell-mediated and antibody-mediated immunity to SARS-CoV-2 virus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Providence Health &amp; Services&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04771858?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04796584?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2021-02-25T17:00:00.000Z</t>
+          <t>2021-03-15T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3525,31 +3525,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-03-12T14:58:20</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Acceptability of Exoskeleton Assisted Walking for Persons With Mobility Issues Due to Multiple Sclerosis</t>
+          <t>Role of Individualized Versus Traditional Exercise in Combating Fatigue in Fatigued Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Pathologic Processes;   Sclerosis;   Autoimmune Diseases of the Nervous System;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Standard Exercise Training;   Device: Phoenix Exoskeleton suit&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sheffield Teaching Hospitals NHS Foundation Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Adapted and individualized physical training program;   Other: traditional training program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Saint Etienne&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04786821?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04796272?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2021-03-08T17:00:00.000Z</t>
+          <t>2021-03-12T17:00:00.000Z</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3565,31 +3565,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-03-11T12:25:31</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Addition of Belimumab to B-cell Depletion in Relapsing-remitting Multiple Sclerosis</t>
+          <t>Post-COntrast 3D SE T1 Versus Coronal SE T1-WI MRI in Detecting Optic Neuritis (COCON)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Belimumab;   Drug: Short-course Ocrelizumab;   Drug: Continued Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Johns Hopkins University;   GlaxoSmithKline&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04767698?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04793087?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2021-02-23T17:00:00.000Z</t>
+          <t>2021-03-11T17:00:00.000Z</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3605,31 +3605,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-03-11T12:25:31</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>The Effect of Extra Virgin Olive Oil in People With Multiple Sclerosis</t>
+          <t>3D FLAIR Versus Coronal T2-WI MRI in Detecting Optic Neuritis (FLACON)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Dietary Supplement: High Phenolic Extra Virgin Olive Oil&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Cyprus;   World Olive Center for Health;   Ellis-Farm, Eliama Daily Value&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis;   Encephalopathy&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04787497?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04792866?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2021-03-08T17:00:00.000Z</t>
+          <t>2021-03-11T17:00:00.000Z</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3645,31 +3645,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2021-03-08T12:17:02</t>
+          <t>2021-03-11T12:25:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Extension to the MAGNIFY MS Trial on Mavenclad® (Magnify MS Extension)</t>
+          <t>Exploring the Immune Response to SARS-CoV-2 modRNA Vaccines in Patients With Secondary Progressive Multiple Sclerosis (AMA-VACC)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: BAF312;   Drug: Baseline disease modifying therapies (DMTs)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04783935?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04792567?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2021-03-05T17:00:00.000Z</t>
+          <t>2021-03-11T17:00:00.000Z</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3685,31 +3685,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2021-03-08T12:17:02</t>
+          <t>2021-03-09T14:59:53</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Cognition and HRQoL in Adults With Highly-active RMS in Year 3 and 4 After Initial Mavenclad® Dose (CLARIFY MS Extension)</t>
+          <t>Open Label Randomized Multicenter to Assess Efficacy &amp;amp; Tolerability of Ofatumumab 20mg vs. First Line DMT in RMS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Drug: First line DMT&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04776213?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04788615?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2021-03-01T17:00:00.000Z</t>
+          <t>2021-03-09T17:00:00.000Z</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3725,31 +3725,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2021-03-02T14:12:09</t>
+          <t>2021-03-09T14:59:53</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>COVID-19: SARS Vaccination</t>
+          <t>T Cell Profiling in Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood Sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Boston Children's Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04789551?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2021-02-21T17:00:00.000Z</t>
+          <t>2021-03-09T17:00:00.000Z</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3765,31 +3765,31 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-03-08T13:43:03</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Antibody Response to COVID-19 Vaccines in Liver Disease Patients</t>
+          <t>Behavioral Intervention for Physical Activity and Sexual Dysfunction in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Chronic Liver Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Biological: CoronaVac;   Biological: AZD1222&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Humanity &amp; Health Medical Group Limited&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Sexual Dysfunction&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Behavioural intervention for physical activity for multiple sclerosis (BIPAMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alabama at Birmingham;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04775069?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04768777?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2021-03-01T17:00:00.000Z</t>
+          <t>2021-02-24T17:00:00.000Z</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3805,31 +3805,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-03-08T13:43:03</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Study to Evaluate the Safety, Tolerability, and Immunogenicity of SARS CoV-2 RNA Vaccine Candidate (BNT162b2) Against COVID-19 in Healthy Pregnant Women 18 Years of Age and Older</t>
+          <t>miRNA Biomarkers in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV-2 Infection;   COVID-19;   Maternal Immunization&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    BioNTech SE;   Pfizer&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   miRNA;   Epigenetic;   Biomarker&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Genetic: miRNA&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Gaziantep&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04754594?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04772495?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2021-02-15T17:00:00.000Z</t>
+          <t>2021-02-26T17:00:00.000Z</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3845,31 +3845,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-03-08T13:43:03</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>National Cohort Study of Effectiveness and Safety of SARS-CoV-2&amp;#x2F;COVID-19 Vaccines (ENFORCE)</t>
+          <t>Comparing the Safety and Benefit of Natalizumab (Tysabri®) At-home Infusion vs At-hospital Infusion in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    SARS-CoV Infection&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: COMIRNATY - BioNTech Manufacturing GmbH;   Biological: COVID-19 Vaccine Moderna dispersion for injection - MODERNA BIOTECH;   Biological: COVID-19 Vaccine AstraZeneca suspension for injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jens D Lundgren, MD;   Ministry of the Interior and Health, Denmark&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: At-home natalizumab treated MS patient&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Nantes University Hospital;   Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04760132?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04777539?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2021-02-18T17:00:00.000Z</t>
+          <t>2021-03-02T17:00:00.000Z</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3885,31 +3885,31 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-03-08T13:43:03</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>COVID-19: SARS Vaccination Reactions</t>
+          <t>ATOMIC (Active Teens Multiple Sclerosis) Physical Activity Research Program</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Pediatric Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Physical Activity (PA) Intervention;   Behavioral: Waitlist attention-control&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    The Hospital for Sick Children;   Children's Hospital of Philadelphia;   University of Alabama at Birmingham;   Queen's University;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04782466?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2021-02-21T17:00:00.000Z</t>
+          <t>2021-03-04T17:00:00.000Z</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3920,7 +3920,447 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
     </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>11</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Digital Gait Analysis in the Home Environment of Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Medical Valley Digital Health Application Center GmbH;   Celgene Corporation;   NeuroSys GmbH;   Fraunhofer Institute for Integrated Circuits IIS;   Portabiles HealthCare Technologies GmbH;   University of Regensburg&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04771858?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2021-02-25T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>10</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Acceptability of Exoskeleton Assisted Walking for Persons With Mobility Issues Due to Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Pathologic Processes;   Sclerosis;   Autoimmune Diseases of the Nervous System;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Standard Exercise Training;   Device: Phoenix Exoskeleton suit&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sheffield Teaching Hospitals NHS Foundation Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04786821?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2021-03-08T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>9</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Addition of Belimumab to B-cell Depletion in Relapsing-remitting Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Belimumab;   Drug: Short-course Ocrelizumab;   Drug: Continued Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Johns Hopkins University;   GlaxoSmithKline&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04767698?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2021-02-23T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>The Effect of Extra Virgin Olive Oil in People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Dietary Supplement: High Phenolic Extra Virgin Olive Oil&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Cyprus;   World Olive Center for Health;   Ellis-Farm, Eliama Daily Value&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04787497?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2021-03-08T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2021-03-08T12:17:02</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Extension to the MAGNIFY MS Trial on Mavenclad® (Magnify MS Extension)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04783935?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2021-03-05T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2021-03-08T12:17:02</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Cognition and HRQoL in Adults With Highly-active RMS in Year 3 and 4 After Initial Mavenclad® Dose (CLARIFY MS Extension)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04776213?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2021-03-01T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2021-03-02T14:12:09</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>COVID-19: SARS Vaccination</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2021-02-21T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Antibody Response to COVID-19 Vaccines in Liver Disease Patients</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Chronic Liver Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Biological: CoronaVac;   Biological: AZD1222&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Humanity &amp; Health Medical Group Limited&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04775069?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2021-03-01T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Study to Evaluate the Safety, Tolerability, and Immunogenicity of SARS CoV-2 RNA Vaccine Candidate (BNT162b2) Against COVID-19 in Healthy Pregnant Women 18 Years of Age and Older</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV-2 Infection;   COVID-19;   Maternal Immunization&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    BioNTech SE;   Pfizer&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04754594?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2021-02-15T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>National Cohort Study of Effectiveness and Safety of SARS-CoV-2&amp;#x2F;COVID-19 Vaccines (ENFORCE)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    SARS-CoV Infection&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: COMIRNATY - BioNTech Manufacturing GmbH;   Biological: COVID-19 Vaccine Moderna dispersion for injection - MODERNA BIOTECH;   Biological: COVID-19 Vaccine AstraZeneca suspension for injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jens D Lundgren, MD;   Ministry of the Interior and Health, Denmark&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04760132?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2021-02-18T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>COVID-19: SARS Vaccination Reactions</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2021-02-21T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/content/api/trials.xlsx
+++ b/content/api/trials.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,77 +479,77 @@
           <t>table_constraints</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-06-16T18:08:49</t>
+          <t>2021-08-13T16:19:09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Multiple Sclerosis and Voiding Symptoms: How to Assess?</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Lower Urinary Tract Symptoms;   Voiding Disorders&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: voiding phase evaluation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pierre and Marie Curie University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>Open-Label Rater-Blind Randomized Multi-Center Parallel-Arm Active- Comparator Study to Assess the Efficacy and Tolerability of Ofatumumab 20mg SC Monthly vs. First Line DMT - Physician&amp;#39;s Choice in the Treatment of Newly Diagnosed RMS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04928716?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2021-06-16T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04788615</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-06-16T18:08:49</t>
+          <t>2021-08-13T13:25:47</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Safety and Effectiveness of Cinnomer® (Glatiramer Acetate) in Multiple Sclerosis (MS) Treatment in Iran</t>
+          <t>A Teleheath tDCS Approach to Decrease Cannabis Use</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Glatiramer Acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cinnagen&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Cannabis Use Disorder;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Transcranial Direct Current Stimulation (tDCS);   Other: Sham - Transcranial Direct Current Stimulation (tDCS);   Other: Mindfulness&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04928313?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05005013?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2021-06-16T16:00:00.000Z</t>
+          <t>2021-08-13T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -559,677 +559,600 @@
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-06-15T16:34:48</t>
+          <t>2021-08-12T20:19:09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Efficacy and Safety of Ofatumumab and Siponimod Compared to Fingolimod in Pediatric Patients With Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Fingolimod;   Drug: Ofatumumab;   Drug: Siponimod;   Other: Fingolimod placebo;   Other: Siponimod placebo;   Other: Ofatumumab placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase III Multi-center, Randomized, Open-label Trial to Evaluate Efficacy and Safety of Ribociclib With Endocrine Therapy as an Adjuvant Treatment in Patients With Hormone Receptor-positive, HER2-negative Early Breast Cancer (New Adjuvant TriAl Wit ...</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04926818?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2021-06-15T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03701334</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-06-14T17:57:48</t>
+          <t>2021-08-12T20:19:09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Study to Assess the Efficacy of Mayzent on Microglia in Secondary Progressive Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary-progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Mayzent;   Drug: Ocrevus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Robert Zivadinov, MD, PhD&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label, Single Arm, Multi-center Extension Study Evaluating Long-term Safety, Tolerability and Effectiveness of Ofatumumab in Subjects With Relapsing Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04925557?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2021-06-14T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03650114</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-06-14T17:57:48</t>
+          <t>2021-08-12T15:19:08</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Observational Study in Patients With Relapsing-Remitting Multiple Sclerosis Switched to Bafiertam® From Dimethyl Fumarate</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: monomethyl fumarate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Banner Life Sciences LLC&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase II Randomized Double-blind, Placebo-controlled Study of Alpelisib in Combination With Fulvestrant for Chinese Men and Postmenopausal Women With Hormone Receptor Positive, HER2-negative, PIK3CA Mutant Advanced Breast Cancer Which Progressed on ...</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04925778?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2021-06-14T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04544189</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-06-08T15:45:00</t>
+          <t>2021-08-12T15:19:08</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EEG and TMS-based Biomarkers of ALS, MS and FTD</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Amyotrophic Lateral Sclerosis;   Frontotemporal Dementia;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: 128 electrode electroencephalography (EEG);   Procedure: Transcranial magnetic stimulation (TMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Dublin, Trinity College;   Motor Neurone Disease Association, UK;   Irish Research Council, IE;   Health Research Board, IE;   Research Motor Neurone, IE;   Thierry Latran Foundation, FR;   ALS Association, USA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase II, Open Label, Multi-center Trial to Determine the Efficacy and Safety of Tisagenlecleucel Re-infusion in Pediatric and Adolescent Young Adult (AYA) Patients With Acute Lymphoblastic Leukemia Experiencing Loss of B Cell Aplasia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04918251?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2021-06-08T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04225676</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-06-08T15:45:00</t>
+          <t>2021-08-12T15:19:08</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Motor Asymmetry in Progressive Multiple Sclerosis Patients</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Primary Progressive;   Multiple Sclerosis, Secondary Progressive&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Radiation: Magnetic Resonance Imaging;   Diagnostic Test: Neurological examination;   Diagnostic Test: Multiple Sclerosis Functional Composite;   Diagnostic Test: Physiotherapist examination&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A 2 Year, Double-blind, Randomized, Multicenter, Active-controlled Core Phase to Evaluate Safety &amp;amp; Efficacy of Daily Fingolimod vs Weekly Interferon β-1a im in Pediatric Patients With Multiple Sclerosis and 5 Year Fingolimod Extension Phase</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04918225?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2021-06-08T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct01892722</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-06-03T15:01:28</t>
+          <t>2021-08-12T15:19:08</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Exercise Booster Sessions in People With Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Combination Product: Systematic aerobic training;   Combination Product: Systematic resistance training;   Combination Product: Aerobic training booster sessions;   Combination Product: Resistance training booster sessions&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Aarhus;   Oxford Brookes University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Single-arm, Prospective, Multicentre, Open-label Study to Evaluate Ofatumumab Treatment Effectiveness and Patient Reported Outcomes in Patients With Relapsing Multiple Sclerosis Transitioning From Dimethyl Fumarate or Fingolimod Therapy</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04913012?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2021-06-03T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04353492</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-06-01T17:47:28</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A Comprehensive Assessment of Trunk, Scapula and Upper Limb in Neurological Patients. Reliability, Validity and Interrelatedness</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Stroke&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Clinical Scapular protocol (ClinScaP);   Other: the prevalence of trunk, scapula and upper limb impairments.;   Other: the interaction between trunk, scapula and upper limb impairments.&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Revalidatie &amp; MS Centrum Overpelt;   Ziekenhuis Oost-Limburg;   National MS Center Melsbroek;   Jessa Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>Exploring the Safety and Tolerability of Conversion From Oral, Injectable, or Infusion Disease Modifying Therapies to Dose-titrated Oral Siponimod (Mayzent) in Patients With Advancing Forms of Relapsing Multiple Sclerosis: A 6-month Open Label, Multi ...</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04908891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2021-05-31T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03623243</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-06-01T17:47:28</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Evaluation of Safety, Tolerability and Preliminary Efficacy of EHP-101 in Relapsing Forms of Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Forms of Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: EHP-101 25 mg OD;   Drug: EHP-101 25 mg BID;   Drug: EHP-101 50 mg OD;   Drug: EHP-101 50 mg BID&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Emerald Health Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A 24-month, Open-label, Prospective, Multicenter Interventional, Single-arm Study Assessing the Efficacy and Safety of Fingolimod (Gilenya) 0.5 mg in Relapsing Multiple Sclerosis (RMS) Patients in China</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04909502?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2021-05-31T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04667949</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-06-01T17:47:28</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Creating Satisfying Engagement in Daily Life Through Coaching for People With Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Quality of Life&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Occupational Performance Coaching&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Queen's University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase Ib&amp;#x2F;II, Open Label Study of Sabatolimab as a Treatment for Patients With Acute Myeloid Leukemia and Presence of Measurable Residual Disease After Allogeneic Stem Cell Transplantation</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04908085?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2021-05-31T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04623216</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-05-28T12:44:08</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Evaluation of New MRI Sequences Including 3D-FGAPSIR for the Optimization of Inflammatory Spinal Cord Lesions Research</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Estimate the Number of Spinal Cord Lesions Detected With the 3D FGAPSIR Sequence That Were Not Detected With the 3D PSIR Sequence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Multicenter, Open-label Trial Comparing the Effectiveness of an &amp;quot;Inclisiran First&amp;quot; Implementation Strategy to Usual Care on LDL Cholesterol (LDL-C) in Patients With Atherosclerotic Cardiovascular Disease and Elevated LDL-C (≥70 mg&amp;#x2F;dL) D ...</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04906928?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2021-05-28T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04929249</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-05-28T12:44:08</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Next-Gen MS: Feed-forward PRO Data for MS Research</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    EMD Serono Research &amp; Development Institute, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Single-arm, Prospective, Multi-center Study to Explore Maintained Efficacy With Ofatumumab Therapy in Patients With Relapsing Multiple Sclerosis Who Discontinue Intravenously Delivered Anti-CD20 Monoclonal Antibody (aCD20 mAb) Therapy (OLIKOS)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04907305?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2021-05-28T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04486716</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-05-28T12:44:08</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The Therapeutic Effects of Forced Aerobic Exercise in Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Forced Aerobic Exercise (FE);   Behavioral: Voluntary Aerobic Exercise (VE)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Cleveland Clinic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open Label, Multi-center Phase IIIb Study of Asciminib (ABL001) Monotherapy in Previously Treated Patients With Chronic Myeloid Leukemia in Chronic Phase (CML-CP) With and Without T315I Mutation</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04906057?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2021-05-28T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04666259</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-05-27T12:09:08</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pilot Investigation to Evaluate FlowOx2.0™ for Experimental Treatment of Spasticity</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Spasticity, Muscle;   Pain&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: FlowOx™&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Otivio AS;   Haukeland University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A 12-week Phase 3, Randomized, Double-blind, Placebo Controlled Study to Evaluate the Efficacy and Safety of Once Monthly Subcutaneous Erenumab 70 mg in Adult Chronic Migraine Patients</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04904016?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2021-05-27T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03867201</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-05-26T15:30:08</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The Possible Neuroprotective Effect of Ocrelizumab Via VEGF Protein Expression in Relapsing Multiple Sclerosis Patients</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Relapse&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    IRCCS National Neurological Institute "C. Mondino" Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Double-blind, Placebo-controlled Phase III Multi-center Study of Azacitidine With or Without MBG453 for the Treatment of Patients With Intermediate, High or Very High Risk Myelodysplastic Syndrome (MDS) as Per IPSS-R, or Chronic Myelomo ...</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04902690?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2021-05-26T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04266301</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-05-20T11:40:26</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Swiss Study of the Impact of Mayzent on SPMS Patients in a Long-term Non-interventional Study</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis With Inflammatory Disease Activity&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Participant, Investigator and Sponsor Blinded, Placebo-Controlled Study to Evaluate the Safety, Tolerability and Pharmacokinetics of Multiple Ascending Doses of Intrathecally Administered NIO752 in Participants With Progressive Supranuc ...</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04895202?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2021-05-20T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04539041</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-05-19T11:05:28</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Adapting mHealth Technology to Improve Patient Activation</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Fatigue self-management SMS intervention&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Washington University School of Medicine;   The Foundation for Barnes-Jewish Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label Multicenter Study to Assess Response to COVID-19 Vaccine in Participants With Multiple Sclerosis Treated With Ofatumumab 20 mg Subcutaneously</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04893590?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2021-05-19T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04878211</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-05-19T11:05:27</t>
+          <t>2021-08-12T13:29:25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Evaluation of Clinical, Morphologic and Biochemical Markers in Multiple Sclerosis</t>
+          <t>Physiological Responses in Experimentally Induced Cognitive Fatigue in People With Multiple Sclerosis (MS)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: blood sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Graz&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Fatigue;   Stress&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: High-challenging cognitive protocol to provoke stress and (cognitive) fatigue&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    KU Leuven;   National MS Center Melsbroek&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04892134?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05003375?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2021-05-19T16:00:00.000Z</t>
+          <t>2021-08-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1239,37 +1162,40 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-05-18T10:30:26</t>
+          <t>2021-08-12T13:29:25</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Investigation of the Effects of Technology Supported Different Physiotherapy Approaches on Patients With Multiple Sclerosis</t>
+          <t>Efficacy of Cognitive Behavioral Therapy on Fatigue, Cognition and Inflammatory Biomarkers in MS Patients</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Technology Supported Task-Oriented Circuit Training;   Other: Home-based Telerehabilitation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: "RehaCom" computer-based cognitive training in addition to Conventional physical therapy program;   Other: Conventional physical therapy program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cairo University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04891341?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05002062?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2021-05-18T16:00:00.000Z</t>
+          <t>2021-08-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1279,37 +1205,40 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-05-17T17:47:26</t>
+          <t>2021-08-12T13:29:25</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Holter of Movement in Patients With Multiple Sclerosis in Controlled Environment.</t>
+          <t>Safety of Cultured Allogeneic Adult Umbilical Cord Derived Mesenchymal Stem Cell Intravenous Infusion for MS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Actimyo°;   Device: IMU&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: AlloRx&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Foundation for Orthopaedics and Regenerative Medicine&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04888689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05003388?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2021-05-17T16:00:00.000Z</t>
+          <t>2021-08-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1319,37 +1248,40 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-05-14T12:06:26</t>
+          <t>2021-08-12T13:29:25</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The Effects of Respiratory-based Telerehabilitaion in Patients With MS</t>
+          <t>Thalamic Nuclei Volumes in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Telerehabilitation;   Compliance, Patient&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: pulmonory based home exercises&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Anıl Tosun;   Trakya University&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   Institut National de la Santé Et de la Recherche Médicale, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04887051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05002764?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2021-05-14T16:00:00.000Z</t>
+          <t>2021-08-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1359,37 +1291,40 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-05-13T16:26:30</t>
+          <t>2021-08-11T15:21:39</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2 COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
+          <t>COVID-19 Booster Vaccine in Autoimmune Disease Non-Responders</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Rheumatoid Arthritis;   Systemic Lupus Erythematosus (SLE);   Pemphigus Vulgaris;   Multiple Sclerosis;   Systemic Sclerosis (SSc)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna mRNA-1273;   Biological: BNT162b2;   Biological: Ad26.COV2.S;   Drug: IS (MMF or MPA);   Drug: IS (MTX);   Biological: IS (B cell depletion therapy)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Autoimmunity Centers of Excellence;   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05000216?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2021-05-03T16:00:00.000Z</t>
+          <t>2021-08-11T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1399,37 +1334,40 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-05-13T10:18:31</t>
+          <t>2021-08-10T14:01:41</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>An Examination of Cognitive Fatigue Using Functional Neuroimaging</t>
+          <t>A Study Evaluating B Cell Levels In Infants Potentially Exposed To Ocrelizumab During Pregnancy</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Zeposia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Celgene;   Hackensack Meridian Health;   St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hoffmann-La Roche;   PPD;   LabCorp;   Illingworth&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04885894?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04998812?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2021-05-13T16:00:00.000Z</t>
+          <t>2021-08-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1439,37 +1377,40 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-05-12T10:42:31</t>
+          <t>2021-08-10T14:01:41</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Holter of Movement in Patients With Multiple Sclerosis in Uncontrolled Environment.</t>
+          <t>A Study Evaluating B Cell Levels In Infants Of Lactating Women With CIS Or MS Receiving Ocrelizumab</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Actimyo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hoffmann-La Roche;   PPD;   LabCorp;   Illingworth&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04882891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04998851?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2021-05-12T16:00:00.000Z</t>
+          <t>2021-08-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1479,37 +1420,40 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-05-11T11:06:31</t>
+          <t>2021-08-09T12:36:29</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sport, Rehabilitation and Nutrition in Multiple Sclerosis: The LINUS Project</t>
+          <t>Symptoms and Treatment Assessment of Ano-Rectal Disorders in Multiple Sclerosis Patients : STAR-Q</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: B-HIPE (Brief High Impact Preparatory Experience)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Constipation;   Fecal Incontinence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Clinical interviews&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pierre and Marie Curie University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04881422?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04996186?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2021-05-11T16:00:00.000Z</t>
+          <t>2021-08-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1519,37 +1463,40 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-05-10T12:29:31</t>
+          <t>2021-08-09T12:36:29</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tenofovir Alafenamide for Treatment of Symptoms and Neuroprotection in Relapsing Remitting Multiple Sclerosis</t>
+          <t>Neurophysiological Assessment in Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Fatigue&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: TENOFOVIR ALAFENAMIDE FUMARATE 25 Mg ORAL TABLET [VEMLIDY];   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Harvard Medical School;   Gilead Sciences&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Disease;   Inflammatory Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Neurophysiological assessment;   Other: clinical assessment&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Roma La Sapienza&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04880577?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04997343?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2021-05-10T16:00:00.000Z</t>
+          <t>2021-08-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1559,37 +1506,40 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-05-10T12:29:31</t>
+          <t>2021-08-09T12:36:29</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Proof-of-concept Study for SAR441344 in Relapsing Multiple Sclerosis</t>
+          <t>Effectiveness of Cladribine Tablets in Participants With Highly-active Relapsing Multiple Sclerosis (CAMELOT-MS)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: SAR441344 IV;   Drug: placebo IV;   Drug: SAR441344 SC;   Drug: placebo SC;   Drug: MRI contrast-enhancing preparations&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing-Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany;   Merck Serono Limited, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04879628?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04997148?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2021-05-10T16:00:00.000Z</t>
+          <t>2021-08-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1599,117 +1549,110 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-05-07T11:43:30</t>
+          <t>2021-08-07T00:23:03</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Prevention of Clinical Multiple Sclerosis in Individuals With Radiologically Isolated Disease.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Radiologically Isolated Syndrome;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ocrelizumab;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Yale University;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase 1, Open-label, Single-dose, Parallel-group Study to Evaluate the Systemic Pharmacokinetics of Icenticaftor in Participants With Mild, Moderate, or Severe Hepatic Impairment Compared to Matched Healthy Control Participants</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04877457?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2021-05-07T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04587622</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-05-07T11:43:30</t>
+          <t>2021-08-07T00:23:03</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A Open-label Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis (RMS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Biological: mRNA COVID-19 vaccine;   Drug: interferon or glatiramer acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A First-in-patient Phase I&amp;#x2F;II Clinical Study to Investigate the Safety, Tolerability and Efficacy of Genome-edited Hematopoietic Stem and Progenitor Cells in Subjects With Severe Complications of Sickle Cell Disease</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04878211?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2021-05-07T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04443907</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-05-06T11:08:31</t>
+          <t>2021-08-06T12:10:36</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sonification Techniques for Gait Training</t>
+          <t>Sensitivity of Motor Assessment in MS - a Prospective Cohort Study</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Parkinson Disease;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Gait rehabilitation with "sonification";   Other: Standard gait rehabilitation (without sonification)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istituti Clinici Scientifici Maugeri SpA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Multiple Sclerosis, Secondary Progressive;   Multiple Sclerosis, Chronic Progressive&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: PASS-MS&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Friedemann Paul;   Roche Pharma AG&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04876339?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04993274?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2021-05-06T16:00:00.000Z</t>
+          <t>2021-08-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1719,37 +1662,40 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-05-06T11:08:31</t>
+          <t>2021-08-06T12:10:36</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>EMDR for Depressed People With Multiple Sclerosis</t>
+          <t>Quantitative T1rho Magnetic Resonance Imaging in Multiple Sclerosis (MS)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Depression&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Eye Movement Desensitization and Reprocessing - EMDR&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus;   EMDR Europe;   Catholic University of the Sacred Heart&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: T1rho imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Chinese University of Hong Kong&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04875832?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04993196?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2021-05-06T16:00:00.000Z</t>
+          <t>2021-08-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1759,837 +1705,736 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-05-05T10:42:09</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sensor-based Assessment and Rehabilitation of Balance in Neurological Diseases</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Stroke;   Multiple Sclerosis;   Parkinson Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Experimental Group;   Other: Control Group&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    IRCCS San Camillo, Venezia, Italy;   IRCCS San Raffaele;   Istituti Clinici Scientifici Maugeri SpA;   IRCCS National Neurological Institute "C. Mondino" Foundation;   I.R.C.C.S. Fondazione Santa Lucia&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label, Adaptive Design Study in Patients With Amyotrophic Lateral Sclerosis (ALS) to Characterize Safety, Tolerability and Brain Microglia Response, as Measured by TSPO Binding, Following Multiple Doses of BLZ945 Using Positron Emission Tomog ...</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04874051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2021-05-05T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04066244</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-05-05T10:42:09</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Investigation of the Effect of Ocrelizumab on Peripheral Lymphocyte Immunophenotypes With Suppressive Capacity in MS</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr Recai Turkoglu;   Health Sciences University Istanbul Haydarpaşa Numune Training and Research Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label, Two-period, Single-sequence, Crossover Study to Compare the Systemic Exposure of a Single Inhaled Dose of Mometasone Furoate (MF) When Administered Alone Via the MF Twisthaler® (TH) to a Single Inhaled Dose of QMF149 Indacaterol Acetat ...</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04874597?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2021-05-05T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04589663</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-05-05T10:42:09</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>From Genetics to Transcriptomics to Unravel the Mechanisms Behind a Poor Outcome in Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Biological sample collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Double-blind, Placebo-controlled, Randomized Dose-ranging Trial to Investigate Efficacy and Safety of Intravenous MIJ821 Infusion in Addition to Comprehensive Standard of Care on the Rapid Reduction of Symptoms of Major Depressive Disorder in Subje ...</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04873492?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2021-05-05T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04722666</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-05-03T11:30:09</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2&amp;#x2F;COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Subject and Investigator Blinded, Randomized, Placebo-controlled, Repeat-dose, Multicenter Study to Investigate Efficacy, Safety, and Tolerability of CMK389 in Patients With Chronic Pulmonary Sarcoidosis</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2021-05-03T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04064242</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-04-30T10:48:20</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Validation of a Novel Instrument Task for Assessing Upper Limb</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Assessment of Arm and Hand Sensorimotor Functions in Multiple Sclerosis Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Assessment of the upper limb (VPIT + PPIT)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Swiss Federal Institute of Technology;   Kliniken Valens&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Subject and Investigator Blinded, Placebo Controlled, Multi-center Study in Parallel Groups to Assess the Efficacy and Safety of LYS006 in Patients With Moderate to Severe Inflammatory Acne</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04868370?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2021-04-30T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03497897</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-04-29T20:44:18</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase II Trial of Tisagenlecleucel in First-line High-risk (HR) Pediatric and Young Adult Patients With B-cell Acute Lymphoblastic Leukemia (B-ALL) Who Are Minimal Residual Disease (MRD) Positive at the End of Consolidation (EOC) Therapy</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2021-04-22T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03876769</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2021-04-28T12:01:02</t>
+          <t>2021-08-05T15:59:12</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>COVID-19 and Multiple Sclerosis Disease Modifying Therapies</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Covid19;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>Pronesimod no tratamento de Esclerose Múltipla Recidivante</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04863586?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2021-04-28T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.cuf.pt/cuf-academic-center/ensaios-clinicos/pronesimod-no-tratamento-de-esclerose-multipla-recidivante</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>CUF</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-04-27T12:25:02</t>
+          <t>2021-08-05T15:53:54</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Validation of the French Adaptation of the MSWDQ-23 Questionnaire</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: questionnaires&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Nice&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>PSMAfore: A Phase III, Open-label, Multi-Center, Randomized Study Comparing 177Lu-PSMA-617 vs. a Change of Androgen Receptor-directed Therapy in the Treatment of Taxane Naïve Men With Progressive Metastatic Castrate Resistant Prostate Cancer</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04860791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2021-04-27T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04689828</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2021-04-27T12:25:02</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Assessment of sNfL Levels, Atrophy of the Macula GCC by OCT and Whole Brain Atrophy by MRI to Predict Evolution of Neurological Disability in MS Patients</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Diagnostic Test: Brain MRI;   Diagnostic Test: Spinal Cord MRI;   Diagnostic Test: Retinal imaging&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centre Hospitalier Universitaire de Nīmes;   Institut de Recherches en Biothérapie&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Multi-center, Randomized, Double-blind, Placebo-controlled, Parallel Group, Phase III Study to Evaluate the Efficacy and Safety of LNP023 in Primary IgA Nephropathy Patients</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04860947?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2021-04-27T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04578834</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2021-04-26T12:49:02</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MS Relapses During COVID-19 Pandemic</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19;   Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: No Intervention&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label, Non-randomized Extension Study to Evaluate the Long Term Safety, Tolerability, Efficacy and Pharmacokinetics of CDZ173 in Patients With APDS&amp;#x2F;PASLI (Activated Phosphoinositide 3-kinase Delta Syndrome&amp;#x2F;p110δ-activating Mutation Causing Se ...</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04858763?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2021-04-26T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct02859727</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2021-04-23T20:54:01</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Effect of Variance on Error Correction During Coupling</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: synchronisation abilities&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   National MS Center Melsbroek;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label, Single Arm Phase II Study of DFV890 to Assess the Safety, Tolerability and Efficacy in Participants With Familial Cold Auto-inflammatory Syndrome (FCAS)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04856384?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2021-04-23T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04868968</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2021-04-23T20:54:01</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Running Title: Walking to Music and in Silence on a Treadmill</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Walking with music with synchronisation;   Other: Walking with music without synchronisation;   Other: walking without music&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A 24-week Multi-center, Double-blind, Placebo Controlled Dose-range Finding Study to Investigate the Efficacy and Safety of Oral QBW251 in COPD Patients on Triple Inhaled Therapy (LABA &amp;#x2F; LAMA &amp;#x2F; ICS)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04856345?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2021-04-23T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04072887</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021-04-23T20:54:01</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Deficient T Regulatory Cell (Treg) Function in Patients With Relapsing Remitting Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapse Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Thomas Jefferson University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized Double-blind, Placebo-controlled, Multicenter Trial Assessing the Impact of Lipoprotein (a) Lowering With TQJ230 on Major Cardiovascular Events in Patients With Established Cardiovascular Disease</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04857489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2021-04-23T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04023552</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2021-04-22T20:19:01</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Investigating the Effects of Wearable Robotic Exoskeleton for Improving Mobility and Cognition in Persons With MS</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Gait Disorders, Neurologic;   Motility Disorder;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Robotic Exoskeleton Rehabilitation;   Other: Conventional Gait Therapy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Kessler Institute for Rehabilitation&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Placebo-controlled, Investigator- and Participant-blinded Study to Evaluate the Efficacy, Safety, Tolerability, and Pharmacokinetics of HSY244 in Participants With Atrial Fibrillation</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04855825?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2021-04-22T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04582409</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021-04-22T20:19:01</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis. A Two-center, Prospective Observational Study</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Controlled, Multicenter, Open-label Trial Comparing a Hospital Post-discharge Care Pathway Involving Aggressive LDL-C Management That Includes Inclisiran With Usual Care Versus Usual Care Alone in Patients With a Recent Acute Coronary S ...</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2021-04-22T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04873934</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2021-04-21T10:57:40</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Investigation of the Effects of Selective Exercise Training in Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanko University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Multicenter, Active-comparator Controlled, Open-label Trial to Evaluate Efficacy and Safety of Oral, Twice Daily LNP023 in Adult Patients With PNH and Residual Anemia, Despite Treatment With an Intravenous Anti-C5 Antibody.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04853654?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2021-04-21T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04558918</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2021-04-19T11:50:37</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GentleCath Air (Urinary Self-catheterization) - Pain in Female Patients With Neurological Vesico-sphincter Disorders</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Multiple Sclerosis;   Parkinsonian Disorders;   Allodynia&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: GentleCath™ Air catheter&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ConvaTec Inc.;   ClinSearch&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>Multi-center Cross-sectional Epidemiological Study to Characterize the Prevalence and Distribution of Lipoprotein(a) Levels Among Patients With Established Cardiovascular Disease</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04847609?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2021-04-19T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct03887520</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2021-04-19T11:50:37</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A Multicenter Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Ofatumumab;   Other: Covid-19 vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>Two Part (Double-blind Inclisiran Versus Placebo [Year 1] Followed by Open-label Inclisiran [Year 2]) Randomized Multicenter Study to Evaluate Safety, Tolerability, and Efficacy of Inclisiran in Adolescents (12 to Less Than 18 Years) With Heterozygou ...</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04847596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2021-04-19T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04652726</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2021-04-14T10:53:38</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Study of the Humoral Response to SARS-CoV-2 Variants and of the Cellular Response After Vaccination Against COVID-19 in Immunocompromised People</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Autoimmune or Autoinflammatory Diseases;   HIV;   Multiple Sclerosis;   Solid Tumors or Cancers;   Solid Organ Transplant&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood samples for the study of the humoral response to SARS-CoV-2 variants and of the cellular response after vaccination against COVID-19&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Assistance Publique - Hôpitaux de Paris&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>2021-08-05T15:39:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04844489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2021-04-14T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021-04-14T10:53:38</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Effects of Lutein Supplementation on Cognition and MPOD in Multiple Sclerosis Patients-</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Dietary Supplement: Lutein;   Dietary Supplement: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Illinois at Urbana-Champaign;   Division of Nutritional Sciences, University of Illinois at Urbana-Champaign&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>More locations</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04843813?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2021-04-14T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2021-04-14T10:53:38</t>
+          <t>2021-08-04T13:22:57</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Covid19 Multiple Sclerosis Vaccine Biospecimen Study</t>
+          <t>Territorial Implementation and Evaluation of a Multiple Sclerosis Expert Patient Program</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SARS-COV-2 mRNA Vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Quality of Life;   Patient Empowerment;   Patient Activation;   Fatigue;   Peer Group&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Multiple Sclerosis Expert Patient Program of Catalonia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hospital Universitari Vall d'Hebron Research Institute;   Strategic Plan for Research and Innovation in Health (ref. BDNS 542793)&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04843774?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04988880?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2021-04-14T16:00:00.000Z</t>
+          <t>2021-08-04T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2599,37 +2444,40 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2021-04-09T13:11:11</t>
+          <t>2021-08-04T13:22:57</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>The Effect of Telerehabilitation Based Pilates Training in Multiple Sclerosis Patients</t>
+          <t>A Study of Lu AG06466 for the Treatment of Spasticity in Participants With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Telerehabilitation-based Pilates Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Gazi University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Lu AG06466;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    H. Lundbeck A/S&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04838886?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04990219?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2021-04-09T16:00:00.000Z</t>
+          <t>2021-08-04T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2639,37 +2487,40 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2021-04-09T13:11:11</t>
+          <t>2021-07-30T17:01:11</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TELEMS: Feasibility of Remote Patient Visits in MS</t>
+          <t>Evaluation of the Effect of Nabiximols Oromucosal Spray on Clinical Measures of Spasticity in Participants With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: EDSS;   Other: Discussion of symptoms&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Vienna&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Spasticity With Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Nabiximols;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    GW Pharmaceuticals Ltd.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04838990?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04984278?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2021-04-09T16:00:00.000Z</t>
+          <t>2021-07-30T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2679,37 +2530,40 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-07-29T14:28:11</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Comparing the Antibody Response to COVID-19 Vaccination in Multiple Sclerosis Patients Treated With Ocrelizumab or Natalizumab</t>
+          <t>Single Ascending Dose Study of SAR443820 in Healthy Adult Chinese and Japanese Female and Male Participants</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases of the Nervous System;   Nervous System Diseases;   Demyelinating Diseases;   Autoimmune Diseases;   Immune System Diseases;   Pathologic Processes&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Elecsys semi-quantitative Anti-SARS-CoV-2 antibody test&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dragonfly Research, LLC&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Healthy Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: RIPK1 inhibitor&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04837651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04982991?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-07-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2719,37 +2573,40 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-07-28T18:48:11</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Retrospective Study on Registry Data to Evaluate the Impact of Ocrelizumab Used in Routine Care in Patients With RRMS</t>
+          <t>Telerehabilitation in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Strasbourg, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Telerehabilitation;   Other: Video exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Marmara University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04838015?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04979845?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-07-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2759,37 +2616,40 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-07-28T18:48:11</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Effect of Disease Modifying Therapy on Antibody Response to COVID19 Vaccination in Multiple Sclerosis</t>
+          <t>Corticosteroid Effects on Asymptomatic Gadolinium-enhancing Lesions in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Magnetic Resonance Imaging;   Methylprednisolone&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Methylprednisolone succinate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Mazandaran University of Medical Sciences&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04834401?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04979650?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2021-04-07T16:00:00.000Z</t>
+          <t>2021-07-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2799,37 +2659,40 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-07-28T18:48:11</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Impact of Neuropsychological Disorders in Multiple Sclerosis</t>
+          <t>Using Patient-Reported Outcomes To Improve the Care of People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Three dimensional gait analysis with eyetracking&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Anxiety;   Depression;   Patient Satisfaction&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Intensive Use of Patient Reported Outcome Measures and Open PROM Availability to Treating Neurologist;   Other: Conservative Use of Patient Reported Outcome Measures and Blinded PROM Availability to Treating Neurologist&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alberta;   University Hospital Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04837365?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04979546?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-07-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2839,37 +2702,40 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-07-28T18:48:11</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Therapeutic Adherence of Multiple Sclerosis Patients</t>
+          <t>The Validity and Reliability of the Upper Extremity Exercise Testing (UULEX) in Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Study of the role of sociocognitive factors&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Upper extremity endurance test (UULEX)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Marmara University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04837352?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04979819?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-07-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2879,37 +2745,40 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2021-04-06T11:14:24</t>
+          <t>2021-07-27T15:16:12</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>The Effects of Relaxation Techniques on Pain, Fatigue and Kinesiophobia in Multiple Sclerosis Patients: A Three Arms Randomized Trial</t>
+          <t>Gray Matter Demyelination in Primary Progressive MS at 7T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Pain, Chronic;   Fatigue Syndrome, Chronic;   Kinesiophobia&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: PMR: Progressive Muscle Relaxation;   Behavioral: BRT:Benson Relaxation Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Primary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Danish Research Centre for Magnetic Resonance;   Scleroseforeningen;   Danish Multiple Sclerosis Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04833673?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04977622?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2021-04-06T16:00:00.000Z</t>
+          <t>2021-07-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2919,37 +2788,40 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2021-04-05T11:38:24</t>
+          <t>2021-07-23T12:56:11</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Study of Tysabri in Early Relapsing Remitting Multiple Sclerosis Participants</t>
+          <t>Strengthening Mental Abilities With Relational Training (SMART) in Multiple Sclerosis (MS): A Feasibility Trial</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Biogen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: SMART;   Behavioral: Sham brain training (Sudoku)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Lincoln;   University of Exeter;   Nottinghamshire Healthcare NHS Trust;   National University of Ireland, Maynooth;   University of Nottingham&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04832399?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04975685?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2021-04-05T16:00:00.000Z</t>
+          <t>2021-07-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2959,37 +2831,40 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2021-04-05T11:38:24</t>
+          <t>2021-07-22T17:03:44</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Effects of a Multiple Sclerosis Relapse Therapy on Offspring Neurocognitive Development and Behaviour</t>
+          <t>Effects of Chiropractic Care on Cytokine Levels in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Exposure to methylprednisolone during pregnancy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jena University Hospital;   Ruhr University of Bochum;   Interdisciplinary Center of Clinical Research of the Medical Faculty Jena;   Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Spinal Manipulation;   Other: Sham Spinal Manipulation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Alabama at Birmingham&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04832269?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04972929?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2021-04-05T16:00:00.000Z</t>
+          <t>2021-07-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2999,37 +2874,40 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2021-03-30T11:05:24</t>
+          <t>2021-07-22T17:03:44</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Imaging Evaluation of Central Nervous Autoimmune Diseases</t>
+          <t>Functional Disorders of the Musculoskeletal System in People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    MS (Multiple Sclerosis);   NMO Spectrum Disorder&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Qilu Hospital of Shandong University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Rehabilitation;   Musculoskeletal Complication&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Manual physiotherapeutic correction (MFK) Method;   Behavioral: Dynamic Neuromuscular Stabilization (DNS) Method&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04822623?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04973501?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2021-03-30T16:00:00.000Z</t>
+          <t>2021-07-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3039,37 +2917,40 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2021-03-30T11:05:24</t>
+          <t>2021-07-21T12:32:44</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Effects of Repeated Mesenchymal Stem Cells (MSC) in Patients With Progressive Multiple Sclerosis</t>
+          <t>Ocrelizumab or Alemtuzumab Compared With Autologous Hematopoietic Stem Cell Transplantation in Multiple Sclerosis - a Phase-2 Randomised Controlled Trial</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Mesenchymal Stem Cells (MSC)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hadassah Medical Organization&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing-Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Autologous Hematopoietic Stem Cell Transplantation;   Drug: Ocrelizumab;   Drug: Alemtuzumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Universitätsklinikum Hamburg-Eppendorf;   Neovii Biotech;   Clinical Trial Center North (CTC North GmbH &amp; Co. KG)&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04823000?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04971005?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2021-03-30T16:00:00.000Z</t>
+          <t>2021-07-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3079,37 +2960,40 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2021-03-29T11:19:37</t>
+          <t>2021-07-21T12:32:44</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Spinal Cord Lesion Detection in Multiple Sclerosis Using Novel MRI Sequences</t>
+          <t>Quantifying Gait Alteration in Multiple Sclerosis Using a Wearable Device</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: SC MRI;   Other: patient questionnaire&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Basel, Switzerland;   Freie Akademische Gesellschaft Basel&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Wearable sensor&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04819737?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04969848?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2021-03-29T16:00:00.000Z</t>
+          <t>2021-07-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3119,37 +3003,40 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2021-03-29T11:19:36</t>
+          <t>2021-07-20T13:49:06</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Study of the Mechanisms of Action of Cladribine in Multiple Sclerosis</t>
+          <t>The Effect of Emotional Freedom Technique on Depression, Anxiety and Distress of Individuals With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: biological collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Rouen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Anxiety;   Depressive Symptoms;   Distress;   Psychiatric Nursing&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Emotional Freedom Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dokuz Eylul University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04821596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04969562?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2021-03-29T16:00:00.000Z</t>
+          <t>2021-07-20T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3159,37 +3046,40 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2021-03-26T13:30:35</t>
+          <t>2021-07-19T12:15:08</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Botulinum Toxin A vs Anticholinergic Treatment of Neurogenic Overactive Bladder in Patients With Multiple Sclerosis</t>
+          <t>Efficacy and Safety of Xacrel® (Ocrelizumab) in Participants With Relapsing Remitting Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Urinary Bladder, Neurogenic;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: VESIcare 10Mg Tablet;   Drug: Botox 100 UNT Injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Brigitte Schürch;   Centre Hospitalier Universitaire Vaudois&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Ocrelizumab (CinnaGen, Iran);   Biological: Ocrelizumab (Roche, Switzerland)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cinnagen&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04819360?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04966338?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2021-03-26T16:00:00.000Z</t>
+          <t>2021-07-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3199,37 +3089,40 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2021-03-26T13:30:35</t>
+          <t>2021-07-16T13:27:06</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The Effect of the Arabic Otago Exercise Program on Falls in People With Multiple Sclerosis</t>
+          <t>An Observational Study to Investigate the Role of B Cells in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Otago Exercise Program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Jordan&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of B cells&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Oslo&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04818008?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04964336?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2021-03-26T16:00:00.000Z</t>
+          <t>2021-07-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3239,37 +3132,40 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2021-03-25T11:16:53</t>
+          <t>2021-07-16T13:27:06</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Efficacy and Safety Study of MYOBLOC® in the Treatment of Adult Upper Limb Spasticity</t>
+          <t>Analysis of MS Patients Who Have Had Greater Than 60 Infusions of Natalizumab</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spasticity;   Cerebrovascular Accident;   Multiple Sclerosis;   Traumatic Brain Injury;   Cervical Spinal Cord Injury;   Cerebral Palsy&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: rimabotulinumtoxinB;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Supernus Pharmaceuticals, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Multiple Sclerosis Center of Northeastern New York&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04815967?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04964700?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2021-03-25T16:00:00.000Z</t>
+          <t>2021-07-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3279,37 +3175,40 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-07-16T13:27:06</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Neuroplasticity of Cortical Areas Induced by Cognitive Training in Patients With Multiple Sclerosis MS-NEUROPLAST</t>
+          <t>RMS Study of BTK Inhibitor SAR442168</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Decline&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Cognitive Training&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Aristotle University Of Thessaloniki;   King Fahad Medical City&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SAR442168&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Peking University Third Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04806568?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04964791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-07-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3319,37 +3218,40 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-07-15T12:52:04</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Virtual Reality in Physical Therapy in Multiple Sclerosis</t>
+          <t>Effects of a User-centered Exergame Training on Motor and Cognitive Functions in PwMS</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Neuroproprioceptive "facilitation and inhibition" in virtual reality;   Other: Neuroproprioceptive "facilitation and inhibition"&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Exergame Training&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Eling DeBruin&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04807738?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04963335?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-07-15T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3359,37 +3261,40 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-07-09T11:20:04</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nature of the Link Between Executive Functions and Theory of Mind in Multiple Sclerosis</t>
+          <t>A Study to Evaluate the Safety, Tolerability, and Exploratory Efficacy of IMS001 in Subjects With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Theory of Mind&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: IMS001&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ImStem Biotechnology;   Rho, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04806217?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04956744?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-07-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3399,37 +3304,40 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2021-03-18T11:23:53</t>
+          <t>2021-07-08T14:32:36</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Emotions in Multiple Sclerosis</t>
+          <t>Technology-assisted Conscientiousness Therapy for People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Carrying out a tests and questionnaires battery&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Conscientiousness Coach&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    State University of New York at Buffalo&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04804787?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04953689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2021-03-18T16:00:00.000Z</t>
+          <t>2021-07-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3439,37 +3347,40 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2021-03-15T14:45:21</t>
+          <t>2021-07-07T11:59:36</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Pathogenicity of B and CD4 T Cell Subsets in Multiple Sclerosis</t>
+          <t>Clinical Isolation Syndrome of Spinal Cord and Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: blood sample;   Biological: cerebro-spinal fluid&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   University of Bordeaux&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Clinical Isolation Syndrome of Spinal Cord;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Peking University Third Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04798651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04952246?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2021-03-15T16:00:00.000Z</t>
+          <t>2021-07-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3479,37 +3390,40 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2021-03-15T14:45:21</t>
+          <t>2021-07-07T11:59:36</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Efficacy of COVID-19 Vaccination in Patients With Multiple Sclerosis Treated With Immune Modulating Medication</t>
+          <t>Study Evaluating SARS-CoV-2 (COVID-19) Humoral Response After BNT162b2 Vaccine in Immunocompromised Adults Compared to Healthy Adults</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of cell-mediated and antibody-mediated immunity to SARS-CoV-2 virus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Providence Health &amp; Services&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Kidney Transplant;   Extracorporeal Dialysis;   Myeloma;   Cancer;   Hematologic Malignancy;   Multiple Sclerosis;   Hypergammaglobulinemia;   Malignant Tumor;   Hiv;   Diabetes Type 2&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Biological samples&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Régional d'Orléans&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04796584?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04952766?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2021-03-15T16:00:00.000Z</t>
+          <t>2021-07-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3519,37 +3433,40 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2021-03-12T14:58:20</t>
+          <t>2021-06-29T16:46:42</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Role of Individualized Versus Traditional Exercise in Combating Fatigue in Fatigued Multiple Sclerosis Patients</t>
+          <t>CONNECT Trial of eSupport Online Health-coach Moderated Support Groups for PwMS</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Adapted and individualized physical training program;   Other: traditional training program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Saint Etienne&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: eSupport Health Weekly Group Sessions for PwMS&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    eSupport Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04796272?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04943887?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2021-03-12T17:00:00.000Z</t>
+          <t>2021-06-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3559,37 +3476,40 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:31</t>
+          <t>2021-06-29T16:46:42</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Post-COntrast 3D SE T1 Versus Coronal SE T1-WI MRI in Detecting Optic Neuritis (COCON)</t>
+          <t>Impact of Direct Current Electrical Stimulation on Spasticity Levels and Functional Muscle Use in MS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: NeuBie&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centura Health;   NeuFit - Neurological Fitness and Education&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04793087?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04942938?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-06-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3599,37 +3519,40 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:31</t>
+          <t>2021-06-29T16:46:42</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3D FLAIR Versus Coronal T2-WI MRI in Detecting Optic Neuritis (FLACON)</t>
+          <t>Intrathecal Administration of DUOC-01 in Adults With Primary Progressive Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis;   Encephalopathy&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Primary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: DUOC-01&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Joanne Kurtzberg, MD&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04792866?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04943289?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-06-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3639,37 +3562,40 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:30</t>
+          <t>2021-06-29T16:46:42</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2 modRNA Vaccines in Patients With Secondary Progressive Multiple Sclerosis (AMA-VACC)</t>
+          <t>Regular Exercise Improves Physical Capacity and Promotes Neurotrophins in Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: BAF312;   Drug: Baseline disease modifying therapies (DMTs)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise Intervention;   Neuro-Degenerative Disease&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Regular Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Ege University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04792567?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04944251?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-06-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3679,37 +3605,40 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2021-03-09T14:59:53</t>
+          <t>2021-06-28T16:23:24</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Open Label Randomized Multicenter to Assess Efficacy &amp;amp; Tolerability of Ofatumumab 20mg vs. First Line DMT in RMS</t>
+          <t>PET Study to Determine the Relationship Between Plasma Concentrations and Muscarinic Type 1 Receptor (M1AChR) Occupancy of PIPE-307 in Healthy Volunteers</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Drug: First line DMT&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: PIPE-307&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pipeline Therapeutics, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04788615?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04941781?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2021-03-09T17:00:00.000Z</t>
+          <t>2021-06-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3719,37 +3648,40 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2021-03-09T14:59:53</t>
+          <t>2021-06-25T20:40:29</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T Cell Profiling in Patients With Multiple Sclerosis</t>
+          <t>Special Drug-use Surveillance for Kesimpta for s.c. Injection 20 mg Pen</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood Sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Boston Children's Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Relapsing-remitting Multiple Sclerosis;   Active Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Kesimpta&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04789551?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04940065?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2021-03-09T17:00:00.000Z</t>
+          <t>2021-06-25T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3759,37 +3691,40 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-06-24T16:09:29</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Behavioral Intervention for Physical Activity and Sexual Dysfunction in Multiple Sclerosis</t>
+          <t>Reading Problems Associated With Central Nervous System (CNS) Pathologies.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Sexual Dysfunction&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Behavioural intervention for physical activity for multiple sclerosis (BIPAMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alabama at Birmingham;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Injury Brain;   Eye Abnormalities;   Multiple Sclerosis;   Parkinson Disease;   Ataxia, Cerebellar&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: eye tracking&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Instituto Universitario de Oftalmobiología Aplicada (Institute of Applied Ophthalmobiology) - IOBA;   Hospital Clínico Universitario de Valladolid;   Hospital del Río Hortega&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04768777?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04937725?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2021-02-24T17:00:00.000Z</t>
+          <t>2021-06-24T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3799,37 +3734,40 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-06-23T16:33:29</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>miRNA Biomarkers in Multiple Sclerosis</t>
+          <t>The Effect of Self-Acupressure Application on Functional Composite and Quality of Life in Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   miRNA;   Epigenetic;   Biomarker&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Genetic: miRNA&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Gaziantep&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Self-Acupressure&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istanbul Sabahattin Zaim University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04772495?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04936555?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2021-02-26T17:00:00.000Z</t>
+          <t>2021-06-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3839,37 +3777,40 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-06-22T14:45:49</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Comparing the Safety and Benefit of Natalizumab (Tysabri®) At-home Infusion vs At-hospital Infusion in Multiple Sclerosis</t>
+          <t>Prospective Effectiveness and Safety Study of Cladribine in Participants Who Change First-line DMD Treatments for Multiple Sclerosis (CLAD CROSS)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: At-home natalizumab treated MS patient&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Nantes University Hospital;   Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Cladribine&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany;   Merck Hellas sa., Greece&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04777539?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04934800?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2021-03-02T17:00:00.000Z</t>
+          <t>2021-06-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3879,37 +3820,40 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-06-21T20:04:49</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ATOMIC (Active Teens Multiple Sclerosis) Physical Activity Research Program</t>
+          <t>Investigation of Hand Functions and Related Parameters in People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Pediatric Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Physical Activity (PA) Intervention;   Behavioral: Waitlist attention-control&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    The Hospital for Sick Children;   Children's Hospital of Philadelphia;   University of Alabama at Birmingham;   Queen's University;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Uğur OVACIK;   Istanbul University-Cerrahpasa&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04782466?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04933110?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2021-03-04T17:00:00.000Z</t>
+          <t>2021-06-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3919,37 +3863,40 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-06-21T20:04:49</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Digital Gait Analysis in the Home Environment of Patients With Multiple Sclerosis</t>
+          <t>Tele-Assessment and Face-to-Face Evaluation of Functional Gait Assessment in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Medical Valley Digital Health Application Center GmbH;   Celgene Corporation;   NeuroSys GmbH;   Fraunhofer Institute for Integrated Circuits IIS;   Portabiles HealthCare Technologies GmbH;   University of Regensburg&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istanbul University-Cerrahpasa&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04771858?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04932616?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2021-02-25T17:00:00.000Z</t>
+          <t>2021-06-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3959,37 +3906,40 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-06-21T20:04:49</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Acceptability of Exoskeleton Assisted Walking for Persons With Mobility Issues Due to Multiple Sclerosis</t>
+          <t>Post-Authorization Safety Study for Assessment of Pregnancy Outcomes in Patients Treated With Mayzent</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Pathologic Processes;   Sclerosis;   Autoimmune Diseases of the Nervous System;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Standard Exercise Training;   Device: Phoenix Exoskeleton suit&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sheffield Teaching Hospitals NHS Foundation Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04786821?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04933552?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2021-03-08T17:00:00.000Z</t>
+          <t>2021-06-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3999,37 +3949,40 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-06-18T22:15:49</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Addition of Belimumab to B-cell Depletion in Relapsing-remitting Multiple Sclerosis</t>
+          <t>Feasibility of Neuromodulation With Connectivity-Guided iTBS for Cognitive Impairment in MS</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Belimumab;   Drug: Short-course Ocrelizumab;   Drug: Continued Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Johns Hopkins University;   GlaxoSmithKline&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Intermittent theta burst stimulation (iTBS);   Other: Sham Intermittent theta burst stimulation (iTBS)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Nottingham&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04767698?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04931953?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2021-02-23T17:00:00.000Z</t>
+          <t>2021-06-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4039,37 +3992,40 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-06-18T22:15:49</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>The Effect of Extra Virgin Olive Oil in People With Multiple Sclerosis</t>
+          <t>Description of Adherence to the Main Preventive Health Campaigns of Persons With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Dietary Supplement: High Phenolic Extra Virgin Olive Oil&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Cyprus;   World Olive Center for Health;   Ellis-Farm, Eliama Daily Value&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: phone interview&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Siena&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04787497?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04930380?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2021-03-08T17:00:00.000Z</t>
+          <t>2021-06-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4079,37 +4035,40 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2021-03-08T12:17:02</t>
+          <t>2021-06-18T22:15:49</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Extension to the MAGNIFY MS Trial on Mavenclad® (Magnify MS Extension)</t>
+          <t>The Gut Microbiome in Adult Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    National MS Center Melsbroek&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04783935?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04929145?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2021-03-05T17:00:00.000Z</t>
+          <t>2021-06-17T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4119,37 +4078,40 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2021-03-08T12:17:02</t>
+          <t>2021-06-16T18:08:49</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Cognition and HRQoL in Adults With Highly-active RMS in Year 3 and 4 After Initial Mavenclad® Dose (CLARIFY MS Extension)</t>
+          <t>Multiple Sclerosis and Voiding Symptoms: How to Assess?</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Lower Urinary Tract Symptoms;   Voiding Disorders&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: voiding phase evaluation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pierre and Marie Curie University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04776213?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04928716?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2021-03-01T17:00:00.000Z</t>
+          <t>2021-06-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4159,37 +4121,40 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2021-03-02T14:12:09</t>
+          <t>2021-06-16T18:08:49</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>COVID-19: SARS Vaccination</t>
+          <t>Safety and Effectiveness of Cinnomer® (Glatiramer Acetate) in Multiple Sclerosis (MS) Treatment in Iran</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Glatiramer Acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cinnagen&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04928313?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2021-02-21T17:00:00.000Z</t>
+          <t>2021-06-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4199,37 +4164,40 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-06-15T16:34:48</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Antibody Response to COVID-19 Vaccines in Liver Disease Patients</t>
+          <t>Efficacy and Safety of Ofatumumab and Siponimod Compared to Fingolimod in Pediatric Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Chronic Liver Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Biological: CoronaVac;   Biological: AZD1222&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Humanity &amp; Health Medical Group Limited&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Fingolimod;   Drug: Ofatumumab;   Drug: Siponimod;   Other: Fingolimod placebo;   Other: Siponimod placebo;   Other: Ofatumumab placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04775069?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04926818?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2021-03-01T17:00:00.000Z</t>
+          <t>2021-06-15T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4239,37 +4207,40 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-06-14T17:57:48</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Study to Evaluate the Safety, Tolerability, and Immunogenicity of SARS CoV-2 RNA Vaccine Candidate (BNT162b2) Against COVID-19 in Healthy Pregnant Women 18 Years of Age and Older</t>
+          <t>Study to Assess the Efficacy of Mayzent on Microglia in Secondary Progressive Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV-2 Infection;   COVID-19;   Maternal Immunization&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    BioNTech SE;   Pfizer&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary-progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Mayzent;   Drug: Ocrevus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Robert Zivadinov, MD, PhD&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04754594?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04925557?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2021-02-15T17:00:00.000Z</t>
+          <t>2021-06-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4279,37 +4250,40 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-06-14T17:57:48</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>National Cohort Study of Effectiveness and Safety of SARS-CoV-2&amp;#x2F;COVID-19 Vaccines (ENFORCE)</t>
+          <t>Observational Study in Patients With Relapsing-Remitting Multiple Sclerosis Switched to Bafiertam® From Dimethyl Fumarate</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    SARS-CoV Infection&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: COMIRNATY - BioNTech Manufacturing GmbH;   Biological: COVID-19 Vaccine Moderna dispersion for injection - MODERNA BIOTECH;   Biological: COVID-19 Vaccine AstraZeneca suspension for injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jens D Lundgren, MD;   Ministry of the Interior and Health, Denmark&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: monomethyl fumarate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Banner Life Sciences LLC&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04760132?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04925778?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2021-02-18T17:00:00.000Z</t>
+          <t>2021-06-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4319,37 +4293,40 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-06-08T15:45:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>COVID-19: SARS Vaccination Reactions</t>
+          <t>EEG and TMS-based Biomarkers of ALS, MS and FTD</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Amyotrophic Lateral Sclerosis;   Frontotemporal Dementia;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: 128 electrode electroencephalography (EEG);   Procedure: Transcranial magnetic stimulation (TMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Dublin, Trinity College;   Motor Neurone Disease Association, UK;   Irish Research Council, IE;   Health Research Board, IE;   Research Motor Neurone, IE;   Thierry Latran Foundation, FR;   ALS Association, USA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04918251?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2021-02-21T17:00:00.000Z</t>
+          <t>2021-06-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4359,6 +4336,3922 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>91</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2021-06-08T15:45:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Motor Asymmetry in Progressive Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Primary Progressive;   Multiple Sclerosis, Secondary Progressive&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Radiation: Magnetic Resonance Imaging;   Diagnostic Test: Neurological examination;   Diagnostic Test: Multiple Sclerosis Functional Composite;   Diagnostic Test: Physiotherapist examination&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04918225?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2021-06-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>90</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2021-06-03T15:01:28</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Exercise Booster Sessions in People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Combination Product: Systematic aerobic training;   Combination Product: Systematic resistance training;   Combination Product: Aerobic training booster sessions;   Combination Product: Resistance training booster sessions&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Aarhus;   Oxford Brookes University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04913012?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2021-06-03T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>89</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2021-06-01T17:47:28</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>A Comprehensive Assessment of Trunk, Scapula and Upper Limb in Neurological Patients. Reliability, Validity and Interrelatedness</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Stroke&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Clinical Scapular protocol (ClinScaP);   Other: the prevalence of trunk, scapula and upper limb impairments.;   Other: the interaction between trunk, scapula and upper limb impairments.&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Revalidatie &amp; MS Centrum Overpelt;   Ziekenhuis Oost-Limburg;   National MS Center Melsbroek;   Jessa Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04908891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2021-05-31T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>88</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2021-06-01T17:47:28</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Evaluation of Safety, Tolerability and Preliminary Efficacy of EHP-101 in Relapsing Forms of Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Forms of Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: EHP-101 25 mg OD;   Drug: EHP-101 25 mg BID;   Drug: EHP-101 50 mg OD;   Drug: EHP-101 50 mg BID&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Emerald Health Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04909502?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2021-05-31T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>87</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2021-06-01T17:47:28</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Creating Satisfying Engagement in Daily Life Through Coaching for People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Quality of Life&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Occupational Performance Coaching&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Queen's University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04908085?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2021-05-31T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>86</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2021-05-28T12:44:08</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Evaluation of New MRI Sequences Including 3D-FGAPSIR for the Optimization of Inflammatory Spinal Cord Lesions Research</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Estimate the Number of Spinal Cord Lesions Detected With the 3D FGAPSIR Sequence That Were Not Detected With the 3D PSIR Sequence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04906928?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2021-05-28T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>85</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2021-05-28T12:44:08</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Next-Gen MS: Feed-forward PRO Data for MS Research</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    EMD Serono Research &amp; Development Institute, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04907305?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2021-05-28T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>84</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2021-05-28T12:44:08</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>The Therapeutic Effects of Forced Aerobic Exercise in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Forced Aerobic Exercise (FE);   Behavioral: Voluntary Aerobic Exercise (VE)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Cleveland Clinic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04906057?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2021-05-28T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>83</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2021-05-27T12:09:08</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Pilot Investigation to Evaluate FlowOx2.0™ for Experimental Treatment of Spasticity</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Spasticity, Muscle;   Pain&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: FlowOx™&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Otivio AS;   Haukeland University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04904016?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2021-05-27T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>82</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2021-05-26T15:30:08</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>The Possible Neuroprotective Effect of Ocrelizumab Via VEGF Protein Expression in Relapsing Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Relapse&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    IRCCS National Neurological Institute "C. Mondino" Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04902690?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2021-05-26T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>81</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2021-05-20T11:40:26</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Swiss Study of the Impact of Mayzent on SPMS Patients in a Long-term Non-interventional Study</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis With Inflammatory Disease Activity&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04895202?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2021-05-20T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>80</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2021-05-19T11:05:28</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Adapting mHealth Technology to Improve Patient Activation</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Fatigue self-management SMS intervention&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Washington University School of Medicine;   The Foundation for Barnes-Jewish Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04893590?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2021-05-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>79</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2021-05-19T11:05:27</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Evaluation of Clinical, Morphologic and Biochemical Markers in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: blood sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Graz&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04892134?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2021-05-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>78</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2021-05-18T10:30:26</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Investigation of the Effects of Technology Supported Different Physiotherapy Approaches on Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Technology Supported Task-Oriented Circuit Training;   Other: Home-based Telerehabilitation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04891341?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2021-05-18T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>77</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2021-05-17T17:47:26</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Holter of Movement in Patients With Multiple Sclerosis in Controlled Environment.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Actimyo°;   Device: IMU&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04888689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2021-05-17T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>76</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2021-05-14T12:06:26</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>The Effects of Respiratory-based Telerehabilitaion in Patients With MS</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Telerehabilitation;   Compliance, Patient&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: pulmonory based home exercises&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Anıl Tosun;   Trakya University&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04887051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2021-05-14T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>75</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2021-05-13T16:26:30</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Exploring the Immune Response to SARS-CoV-2 COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2021-05-03T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>74</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2021-05-13T10:18:31</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>An Examination of Cognitive Fatigue Using Functional Neuroimaging</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Zeposia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Celgene;   Hackensack Meridian Health;   St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04885894?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2021-05-13T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>73</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2021-05-12T10:42:31</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Holter of Movement in Patients With Multiple Sclerosis in Uncontrolled Environment.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Actimyo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04882891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2021-05-12T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>72</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2021-05-11T11:06:31</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Sport, Rehabilitation and Nutrition in Multiple Sclerosis: The LINUS Project</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: B-HIPE (Brief High Impact Preparatory Experience)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04881422?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2021-05-11T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>71</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2021-05-10T12:29:31</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Tenofovir Alafenamide for Treatment of Symptoms and Neuroprotection in Relapsing Remitting Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Fatigue&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: TENOFOVIR ALAFENAMIDE FUMARATE 25 Mg ORAL TABLET [VEMLIDY];   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Harvard Medical School;   Gilead Sciences&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04880577?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2021-05-10T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>70</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2021-05-10T12:29:31</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Proof-of-concept Study for SAR441344 in Relapsing Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: SAR441344 IV;   Drug: placebo IV;   Drug: SAR441344 SC;   Drug: placebo SC;   Drug: MRI contrast-enhancing preparations&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04879628?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2021-05-10T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>69</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2021-05-07T11:43:30</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Prevention of Clinical Multiple Sclerosis in Individuals With Radiologically Isolated Disease.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Radiologically Isolated Syndrome;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ocrelizumab;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Yale University;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04877457?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2021-05-07T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>68</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2021-05-07T11:43:30</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>A Open-label Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis (RMS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Biological: mRNA COVID-19 vaccine;   Drug: interferon or glatiramer acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04878211?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2021-05-07T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>67</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2021-05-06T11:08:31</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Sonification Techniques for Gait Training</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Parkinson Disease;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Gait rehabilitation with "sonification";   Other: Standard gait rehabilitation (without sonification)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istituti Clinici Scientifici Maugeri SpA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04876339?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2021-05-06T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>66</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2021-05-06T11:08:31</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>EMDR for Depressed People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Depression&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Eye Movement Desensitization and Reprocessing - EMDR&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus;   EMDR Europe;   Catholic University of the Sacred Heart&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04875832?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2021-05-06T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>65</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2021-05-05T10:42:09</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Sensor-based Assessment and Rehabilitation of Balance in Neurological Diseases</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Stroke;   Multiple Sclerosis;   Parkinson Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Experimental Group;   Other: Control Group&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    IRCCS San Camillo, Venezia, Italy;   IRCCS San Raffaele;   Istituti Clinici Scientifici Maugeri SpA;   IRCCS National Neurological Institute "C. Mondino" Foundation;   I.R.C.C.S. Fondazione Santa Lucia&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04874051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2021-05-05T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>64</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2021-05-05T10:42:09</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Investigation of the Effect of Ocrelizumab on Peripheral Lymphocyte Immunophenotypes With Suppressive Capacity in MS</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr Recai Turkoglu;   Health Sciences University Istanbul Haydarpaşa Numune Training and Research Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04874597?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2021-05-05T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>63</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2021-05-05T10:42:09</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>From Genetics to Transcriptomics to Unravel the Mechanisms Behind a Poor Outcome in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Biological sample collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04873492?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2021-05-05T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>62</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2021-05-03T11:30:09</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Exploring the Immune Response to SARS-CoV-2&amp;#x2F;COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2021-05-03T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>61</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2021-04-30T10:48:20</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Validation of a Novel Instrument Task for Assessing Upper Limb</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Assessment of Arm and Hand Sensorimotor Functions in Multiple Sclerosis Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Assessment of the upper limb (VPIT + PPIT)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Swiss Federal Institute of Technology;   Kliniken Valens&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04868370?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2021-04-30T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>60</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2021-04-29T20:44:18</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2021-04-22T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>59</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2021-04-28T12:01:02</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>COVID-19 and Multiple Sclerosis Disease Modifying Therapies</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Covid19;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04863586?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2021-04-28T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>58</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2021-04-27T12:25:02</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Validation of the French Adaptation of the MSWDQ-23 Questionnaire</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: questionnaires&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Nice&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04860791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2021-04-27T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>57</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2021-04-27T12:25:02</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Assessment of sNfL Levels, Atrophy of the Macula GCC by OCT and Whole Brain Atrophy by MRI to Predict Evolution of Neurological Disability in MS Patients</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Diagnostic Test: Brain MRI;   Diagnostic Test: Spinal Cord MRI;   Diagnostic Test: Retinal imaging&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centre Hospitalier Universitaire de Nīmes;   Institut de Recherches en Biothérapie&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04860947?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2021-04-27T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>56</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2021-04-26T12:49:02</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>MS Relapses During COVID-19 Pandemic</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19;   Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: No Intervention&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04858763?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2021-04-26T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>55</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2021-04-23T20:54:01</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Effect of Variance on Error Correction During Coupling</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: synchronisation abilities&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   National MS Center Melsbroek;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04856384?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2021-04-23T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>54</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2021-04-23T20:54:01</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Running Title: Walking to Music and in Silence on a Treadmill</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Walking with music with synchronisation;   Other: Walking with music without synchronisation;   Other: walking without music&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04856345?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2021-04-23T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>53</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2021-04-23T20:54:01</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Deficient T Regulatory Cell (Treg) Function in Patients With Relapsing Remitting Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapse Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Thomas Jefferson University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04857489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2021-04-23T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>52</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2021-04-22T20:19:01</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Investigating the Effects of Wearable Robotic Exoskeleton for Improving Mobility and Cognition in Persons With MS</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Gait Disorders, Neurologic;   Motility Disorder;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Robotic Exoskeleton Rehabilitation;   Other: Conventional Gait Therapy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Kessler Institute for Rehabilitation&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855825?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2021-04-22T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>51</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2021-04-22T20:19:01</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis. A Two-center, Prospective Observational Study</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2021-04-22T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>50</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2021-04-21T10:57:40</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Investigation of the Effects of Selective Exercise Training in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanko University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04853654?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2021-04-21T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>49</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2021-04-19T11:50:37</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GentleCath Air (Urinary Self-catheterization) - Pain in Female Patients With Neurological Vesico-sphincter Disorders</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Multiple Sclerosis;   Parkinsonian Disorders;   Allodynia&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: GentleCath™ Air catheter&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ConvaTec Inc.;   ClinSearch&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04847609?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2021-04-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>48</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2021-04-19T11:50:37</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>A Multicenter Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Ofatumumab;   Other: Covid-19 vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04847596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2021-04-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>47</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2021-04-14T10:53:38</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Study of the Humoral Response to SARS-CoV-2 Variants and of the Cellular Response After Vaccination Against COVID-19 in Immunocompromised People</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Autoimmune or Autoinflammatory Diseases;   HIV;   Multiple Sclerosis;   Solid Tumors or Cancers;   Solid Organ Transplant&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood samples for the study of the humoral response to SARS-CoV-2 variants and of the cellular response after vaccination against COVID-19&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Assistance Publique - Hôpitaux de Paris&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04844489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2021-04-14T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>46</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2021-04-14T10:53:38</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Effects of Lutein Supplementation on Cognition and MPOD in Multiple Sclerosis Patients-</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Dietary Supplement: Lutein;   Dietary Supplement: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Illinois at Urbana-Champaign;   Division of Nutritional Sciences, University of Illinois at Urbana-Champaign&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04843813?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2021-04-14T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>45</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2021-04-14T10:53:38</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Covid19 Multiple Sclerosis Vaccine Biospecimen Study</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SARS-COV-2 mRNA Vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04843774?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2021-04-14T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>44</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2021-04-09T13:11:11</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>The Effect of Telerehabilitation Based Pilates Training in Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Telerehabilitation-based Pilates Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Gazi University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838886?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2021-04-09T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>43</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2021-04-09T13:11:11</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>TELEMS: Feasibility of Remote Patient Visits in MS</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: EDSS;   Other: Discussion of symptoms&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Vienna&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838990?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2021-04-09T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>42</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Comparing the Antibody Response to COVID-19 Vaccination in Multiple Sclerosis Patients Treated With Ocrelizumab or Natalizumab</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases of the Nervous System;   Nervous System Diseases;   Demyelinating Diseases;   Autoimmune Diseases;   Immune System Diseases;   Pathologic Processes&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Elecsys semi-quantitative Anti-SARS-CoV-2 antibody test&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dragonfly Research, LLC&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>41</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Retrospective Study on Registry Data to Evaluate the Impact of Ocrelizumab Used in Routine Care in Patients With RRMS</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Strasbourg, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838015?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>40</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Effect of Disease Modifying Therapy on Antibody Response to COVID19 Vaccination in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04834401?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2021-04-07T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>39</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Impact of Neuropsychological Disorders in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Three dimensional gait analysis with eyetracking&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837365?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>38</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2021-04-08T11:57:29</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Therapeutic Adherence of Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Study of the role of sociocognitive factors&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837352?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2021-04-08T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>37</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2021-04-06T11:14:24</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>The Effects of Relaxation Techniques on Pain, Fatigue and Kinesiophobia in Multiple Sclerosis Patients: A Three Arms Randomized Trial</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Pain, Chronic;   Fatigue Syndrome, Chronic;   Kinesiophobia&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: PMR: Progressive Muscle Relaxation;   Behavioral: BRT:Benson Relaxation Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04833673?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2021-04-06T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>36</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2021-04-05T11:38:24</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Study of Tysabri in Early Relapsing Remitting Multiple Sclerosis Participants</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Biogen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04832399?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2021-04-05T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>35</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2021-04-05T11:38:24</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Effects of a Multiple Sclerosis Relapse Therapy on Offspring Neurocognitive Development and Behaviour</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Exposure to methylprednisolone during pregnancy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jena University Hospital;   Ruhr University of Bochum;   Interdisciplinary Center of Clinical Research of the Medical Faculty Jena;   Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04832269?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2021-04-05T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>34</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2021-03-30T11:05:24</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Imaging Evaluation of Central Nervous Autoimmune Diseases</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    MS (Multiple Sclerosis);   NMO Spectrum Disorder&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Qilu Hospital of Shandong University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04822623?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>33</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2021-03-30T11:05:24</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Effects of Repeated Mesenchymal Stem Cells (MSC) in Patients With Progressive Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Mesenchymal Stem Cells (MSC)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hadassah Medical Organization&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04823000?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>32</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2021-03-29T11:19:37</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Spinal Cord Lesion Detection in Multiple Sclerosis Using Novel MRI Sequences</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: SC MRI;   Other: patient questionnaire&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Basel, Switzerland;   Freie Akademische Gesellschaft Basel&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04819737?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2021-03-29T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>31</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2021-03-29T11:19:36</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Study of the Mechanisms of Action of Cladribine in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: biological collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Rouen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04821596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2021-03-29T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>30</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2021-03-26T13:30:35</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Botulinum Toxin A vs Anticholinergic Treatment of Neurogenic Overactive Bladder in Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Urinary Bladder, Neurogenic;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: VESIcare 10Mg Tablet;   Drug: Botox 100 UNT Injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Brigitte Schürch;   Centre Hospitalier Universitaire Vaudois&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04819360?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2021-03-26T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>29</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2021-03-26T13:30:35</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>The Effect of the Arabic Otago Exercise Program on Falls in People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Otago Exercise Program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Jordan&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04818008?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2021-03-26T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>28</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2021-03-25T11:16:53</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Efficacy and Safety Study of MYOBLOC® in the Treatment of Adult Upper Limb Spasticity</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spasticity;   Cerebrovascular Accident;   Multiple Sclerosis;   Traumatic Brain Injury;   Cervical Spinal Cord Injury;   Cerebral Palsy&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: rimabotulinumtoxinB;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Supernus Pharmaceuticals, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04815967?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2021-03-25T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>27</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Neuroplasticity of Cortical Areas Induced by Cognitive Training in Patients With Multiple Sclerosis MS-NEUROPLAST</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Decline&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Cognitive Training&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Aristotle University Of Thessaloniki;   King Fahad Medical City&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04806568?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>26</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Virtual Reality in Physical Therapy in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Neuroproprioceptive "facilitation and inhibition" in virtual reality;   Other: Neuroproprioceptive "facilitation and inhibition"&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04807738?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>25</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Nature of the Link Between Executive Functions and Theory of Mind in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Theory of Mind&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04806217?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>24</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2021-03-18T11:23:53</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Emotions in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Carrying out a tests and questionnaires battery&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04804787?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2021-03-18T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>23</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2021-03-15T14:45:21</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Pathogenicity of B and CD4 T Cell Subsets in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: blood sample;   Biological: cerebro-spinal fluid&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   University of Bordeaux&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04798651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2021-03-15T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>22</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2021-03-15T14:45:21</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Efficacy of COVID-19 Vaccination in Patients With Multiple Sclerosis Treated With Immune Modulating Medication</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of cell-mediated and antibody-mediated immunity to SARS-CoV-2 virus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Providence Health &amp; Services&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04796584?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2021-03-15T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>21</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2021-03-12T14:58:20</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Role of Individualized Versus Traditional Exercise in Combating Fatigue in Fatigued Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Adapted and individualized physical training program;   Other: traditional training program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Saint Etienne&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04796272?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2021-03-12T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>20</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:31</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Post-COntrast 3D SE T1 Versus Coronal SE T1-WI MRI in Detecting Optic Neuritis (COCON)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04793087?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>19</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:31</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>3D FLAIR Versus Coronal T2-WI MRI in Detecting Optic Neuritis (FLACON)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis;   Encephalopathy&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04792866?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>18</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:30</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Exploring the Immune Response to SARS-CoV-2 modRNA Vaccines in Patients With Secondary Progressive Multiple Sclerosis (AMA-VACC)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: BAF312;   Drug: Baseline disease modifying therapies (DMTs)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04792567?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>17</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2021-03-09T14:59:53</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Open Label Randomized Multicenter to Assess Efficacy &amp;amp; Tolerability of Ofatumumab 20mg vs. First Line DMT in RMS</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Drug: First line DMT&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04788615?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2021-03-09T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>16</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2021-03-09T14:59:53</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>T Cell Profiling in Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood Sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Boston Children's Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04789551?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2021-03-09T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>15</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Behavioral Intervention for Physical Activity and Sexual Dysfunction in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Sexual Dysfunction&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Behavioural intervention for physical activity for multiple sclerosis (BIPAMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alabama at Birmingham;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04768777?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2021-02-24T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>14</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>miRNA Biomarkers in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   miRNA;   Epigenetic;   Biomarker&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Genetic: miRNA&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Gaziantep&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04772495?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2021-02-26T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>13</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Comparing the Safety and Benefit of Natalizumab (Tysabri®) At-home Infusion vs At-hospital Infusion in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: At-home natalizumab treated MS patient&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Nantes University Hospital;   Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04777539?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2021-03-02T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>ATOMIC (Active Teens Multiple Sclerosis) Physical Activity Research Program</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Pediatric Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Physical Activity (PA) Intervention;   Behavioral: Waitlist attention-control&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    The Hospital for Sick Children;   Children's Hospital of Philadelphia;   University of Alabama at Birmingham;   Queen's University;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04782466?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2021-03-04T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Digital Gait Analysis in the Home Environment of Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Medical Valley Digital Health Application Center GmbH;   Celgene Corporation;   NeuroSys GmbH;   Fraunhofer Institute for Integrated Circuits IIS;   Portabiles HealthCare Technologies GmbH;   University of Regensburg&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04771858?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2021-02-25T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>10</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Acceptability of Exoskeleton Assisted Walking for Persons With Mobility Issues Due to Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Pathologic Processes;   Sclerosis;   Autoimmune Diseases of the Nervous System;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Standard Exercise Training;   Device: Phoenix Exoskeleton suit&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sheffield Teaching Hospitals NHS Foundation Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04786821?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2021-03-08T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Addition of Belimumab to B-cell Depletion in Relapsing-remitting Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Belimumab;   Drug: Short-course Ocrelizumab;   Drug: Continued Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Johns Hopkins University;   GlaxoSmithKline&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04767698?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2021-02-23T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>The Effect of Extra Virgin Olive Oil in People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Dietary Supplement: High Phenolic Extra Virgin Olive Oil&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Cyprus;   World Olive Center for Health;   Ellis-Farm, Eliama Daily Value&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04787497?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2021-03-08T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>7</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2021-03-08T12:17:02</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Extension to the MAGNIFY MS Trial on Mavenclad® (Magnify MS Extension)</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04783935?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2021-03-05T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2021-03-08T12:17:02</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Cognition and HRQoL in Adults With Highly-active RMS in Year 3 and 4 After Initial Mavenclad® Dose (CLARIFY MS Extension)</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04776213?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2021-03-01T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2021-03-02T14:12:09</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>COVID-19: SARS Vaccination</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2021-02-21T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Antibody Response to COVID-19 Vaccines in Liver Disease Patients</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Chronic Liver Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Biological: CoronaVac;   Biological: AZD1222&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Humanity &amp; Health Medical Group Limited&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04775069?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2021-03-01T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Study to Evaluate the Safety, Tolerability, and Immunogenicity of SARS CoV-2 RNA Vaccine Candidate (BNT162b2) Against COVID-19 in Healthy Pregnant Women 18 Years of Age and Older</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV-2 Infection;   COVID-19;   Maternal Immunization&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    BioNTech SE;   Pfizer&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04754594?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2021-02-15T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>National Cohort Study of Effectiveness and Safety of SARS-CoV-2&amp;#x2F;COVID-19 Vaccines (ENFORCE)</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    SARS-CoV Infection&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: COMIRNATY - BioNTech Manufacturing GmbH;   Biological: COVID-19 Vaccine Moderna dispersion for injection - MODERNA BIOTECH;   Biological: COVID-19 Vaccine AstraZeneca suspension for injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jens D Lundgren, MD;   Ministry of the Interior and Health, Denmark&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04760132?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2021-02-18T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>COVID-19: SARS Vaccination Reactions</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2021-02-21T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/content/api/trials.xlsx
+++ b/content/api/trials.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K189"/>
+  <dimension ref="A1:K224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,28 +490,36 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-08-13T16:19:09</t>
+          <t>2021-08-24T13:43:55</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Open-Label Rater-Blind Randomized Multi-Center Parallel-Arm Active- Comparator Study to Assess the Efficacy and Tolerability of Ofatumumab 20mg SC Monthly vs. First Line DMT - Physician&amp;#39;s Choice in the Treatment of Newly Diagnosed RMS</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Immune Response to Seasonal Influenza Vaccination in Multiple Sclerosis Patients Receiving Cladribine</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Vaccine Response Impaired&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Most recent vaccine to seasonal influenza&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Heinrich-Heine University, Duesseldorf&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04788615</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05019248?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2021-08-24T16:00:00.000Z</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Novartis</t>
+          <t>ClinicalTrials.gov</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -525,36 +533,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-08-13T13:25:47</t>
+          <t>2021-08-23T17:47:17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A Teleheath tDCS Approach to Decrease Cannabis Use</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Cannabis Use Disorder;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Transcranial Direct Current Stimulation (tDCS);   Other: Sham - Transcranial Direct Current Stimulation (tDCS);   Other: Mindfulness&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>Assessment of Prolonged Safety and tOLerability of in Migraine Patients in a Long-term OpeN-label Study</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT05005013?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2021-08-13T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04084314</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -568,22 +568,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-08-12T20:19:09</t>
+          <t>2021-08-23T17:47:17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A Phase III Multi-center, Randomized, Open-label Trial to Evaluate Efficacy and Safety of Ribociclib With Endocrine Therapy as an Adjuvant Treatment in Patients With Hormone Receptor-positive, HER2-negative Early Breast Cancer (New Adjuvant TriAl Wit ...</t>
+          <t>A Randomized, Placebo-controlled, Double-masked, Multi-center, Dose-ranging Study to Evaluate the Safety, and Efficacy of UNR844 in Subjects With Presbyopia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct03701334</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04806503</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -603,28 +603,36 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-08-12T20:19:09</t>
+          <t>2021-08-23T12:23:55</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>An Open-label, Single Arm, Multi-center Extension Study Evaluating Long-term Safety, Tolerability and Effectiveness of Ofatumumab in Subjects With Relapsing Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Swiss Pediatric Inflammatory Brain Disease Registry (Swiss-Ped-IBrainD)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Transverse Myelitis;   Acute Disseminated Encephalomyelitis;   Multiple Sclerosis;   Neuromyelitis Optica Spectrum Disorder;   Anti-NMDAR Encephalitis;   Anti-GAD65 Associated Autoimmune Encephalitis;   Anti-AMPAR-1/2 Associated Autoimmune Encephalitis;   Anti-Lgi-1 Associated Autoimmune Encephalitis;   Anti-CASPR-2 Associated Autoimmune Encephalitis;   Anti-GABAR-1/2 Associated Autoimmune Encephalitis;   Onconeuronal Antibody (Hu, Ri, Yo, Amphiphysin, CRMP-5, Ma-1, Ma-2, SOX-1) Associated Autoimmune Encephalitis;   Hashimoto Encephalitis;   CNS Vasculitis;   CNS Sarcoidosis;   CNS Lupus;   Rasmussen Encephalitis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Bern;   Schweizerische Multiple Sklerose Gesellschaft;   University Hospital Inselspital, Berne;   Roche Pharma (Switzerland) Ltd;   Novartis&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct03650114</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05017142?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2021-08-23T16:00:00.000Z</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Novartis</t>
+          <t>ClinicalTrials.gov</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -638,28 +646,36 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-08-12T15:19:08</t>
+          <t>2021-08-23T12:23:55</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A Phase II Randomized Double-blind, Placebo-controlled Study of Alpelisib in Combination With Fulvestrant for Chinese Men and Postmenopausal Women With Hormone Receptor Positive, HER2-negative, PIK3CA Mutant Advanced Breast Cancer Which Progressed on ...</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>The Role of Social and Territorial Inequalities in the Management and Prognosis of Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Social and Territorial Inequalities&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Central Hospital, Nancy, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04544189</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05017038?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2021-08-23T16:00:00.000Z</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Novartis</t>
+          <t>ClinicalTrials.gov</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -673,22 +689,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-08-12T15:19:08</t>
+          <t>2021-08-19T22:19:09</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A Phase II, Open Label, Multi-center Trial to Determine the Efficacy and Safety of Tisagenlecleucel Re-infusion in Pediatric and Adolescent Young Adult (AYA) Patients With Acute Lymphoblastic Leukemia Experiencing Loss of B Cell Aplasia</t>
+          <t>A Phase III Randomized, Double-blind, Placebo Controlled, Multicenter, Bridging Study of Subcutaneous Secukinumab, to Demonstrate Efficacy After Sixteen Weeks of Treatment and to Assess Safety, Tolerability and Long-term Efficacy Follow-up to One Yea ...</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04225676</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04711902</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -708,22 +724,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-08-12T15:19:08</t>
+          <t>2021-08-19T22:19:09</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A 2 Year, Double-blind, Randomized, Multicenter, Active-controlled Core Phase to Evaluate Safety &amp;amp; Efficacy of Daily Fingolimod vs Weekly Interferon β-1a im in Pediatric Patients With Multiple Sclerosis and 5 Year Fingolimod Extension Phase</t>
+          <t>Digital Adherence Monitoring of Inhalative Therapy in Real- Life Conditions</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct01892722</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04656223</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -743,28 +759,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-08-12T15:19:08</t>
+          <t>2021-08-19T15:05:47</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A Single-arm, Prospective, Multicentre, Open-label Study to Evaluate Ofatumumab Treatment Effectiveness and Patient Reported Outcomes in Patients With Relapsing Multiple Sclerosis Transitioning From Dimethyl Fumarate or Fingolimod Therapy</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>Hydroxychloroquine and Indapamide in SPMS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Secondary Progressive&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Hydroxychloroquine and Indapamide&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Calgary&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04353492</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05013463?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2021-08-19T16:00:00.000Z</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Novartis</t>
+          <t>ClinicalTrials.gov</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -778,28 +802,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-08-12T15:09:11</t>
+          <t>2021-08-19T15:05:47</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Exploring the Safety and Tolerability of Conversion From Oral, Injectable, or Infusion Disease Modifying Therapies to Dose-titrated Oral Siponimod (Mayzent) in Patients With Advancing Forms of Relapsing Multiple Sclerosis: A 6-month Open Label, Multi ...</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>The Reliability of the Nine Hole Peg Test in Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Motor Activity&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Nine Hole Peg Test&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct03623243</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05012241?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2021-08-19T16:00:00.000Z</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Novartis</t>
+          <t>ClinicalTrials.gov</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -813,22 +845,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-08-12T15:09:11</t>
+          <t>2021-08-19T12:19:09</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A 24-month, Open-label, Prospective, Multicenter Interventional, Single-arm Study Assessing the Efficacy and Safety of Fingolimod (Gilenya) 0.5 mg in Relapsing Multiple Sclerosis (RMS) Patients in China</t>
+          <t>An Open-label Multicenter Study to Assess Response to Influenza Vaccine in Participants With Multiple Sclerosis Treated With Ofatumumab 20 mg Subcutaneously</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04667949</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04667117</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -848,22 +880,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-08-12T15:09:11</t>
+          <t>2021-08-19T12:19:09</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A Phase Ib&amp;#x2F;II, Open Label Study of Sabatolimab as a Treatment for Patients With Acute Myeloid Leukemia and Presence of Measurable Residual Disease After Allogeneic Stem Cell Transplantation</t>
+          <t>Tisagenlecleucel Versus Standard of Care in Adult Patients With Relapsed or Refractory Aggressive B-cell Non-Hodgkin Lymphoma: A Randomized, Open Label, Phase III Trial (BELINDA)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04623216</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03570892</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -883,22 +915,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-08-12T15:09:11</t>
+          <t>2021-08-19T12:19:09</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A Randomized, Multicenter, Open-label Trial Comparing the Effectiveness of an &amp;quot;Inclisiran First&amp;quot; Implementation Strategy to Usual Care on LDL Cholesterol (LDL-C) in Patients With Atherosclerotic Cardiovascular Disease and Elevated LDL-C (≥70 mg&amp;#x2F;dL) D ...</t>
+          <t>A Randomized, Double-blind, Placebo-controlled, Parallel Group, Phase III Multicenter Study of Intravenous Secukinumab to Compare Efficacy at 16 Weeks With Placebo and to Assess Safety and Tolerability up to 52 Weeks in Subjects With Active Ankylosin ...</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04929249</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04156620</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -918,22 +950,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-08-12T15:09:11</t>
+          <t>2021-08-19T12:19:09</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A Single-arm, Prospective, Multi-center Study to Explore Maintained Efficacy With Ofatumumab Therapy in Patients With Relapsing Multiple Sclerosis Who Discontinue Intravenously Delivered Anti-CD20 Monoclonal Antibody (aCD20 mAb) Therapy (OLIKOS)</t>
+          <t>A 52-week, Two Arm, Randomized, Open-label, Multicenter Study Assessing the Efficacy and Safety of Two Different Brolucizumab 6 mg Dosing Regimens for Patients With Suboptimal Anatomically Controlled Neovascular Age-related Macular Degeneration</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04486716</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04679935</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -953,22 +985,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-08-12T15:09:11</t>
+          <t>2021-08-19T12:19:09</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>An Open Label, Multi-center Phase IIIb Study of Asciminib (ABL001) Monotherapy in Previously Treated Patients With Chronic Myeloid Leukemia in Chronic Phase (CML-CP) With and Without T315I Mutation</t>
+          <t>A 5-year, Randomized, Double-blind, Placebo-controlled, Multi-center Study Assessing the Efficacy, Safety, and Tolerability of Intra-articular Regimens of LNA043 Versus Placebo in Patients With Symptomatic Knee Osteoarthritis</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04666259</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04864392</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -988,22 +1020,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-08-12T15:09:11</t>
+          <t>2021-08-19T07:19:09</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A 12-week Phase 3, Randomized, Double-blind, Placebo Controlled Study to Evaluate the Efficacy and Safety of Once Monthly Subcutaneous Erenumab 70 mg in Adult Chronic Migraine Patients</t>
+          <t>A Randomized, Open Label Multicenter Trial to Investigate the Efficacy of a Treat-to-target (T2T) Treatment Strategy With Secukinumab (AIN457) as a First-line Biologic Compared to a Standard-of-care (SOC) Treatment Over 36 Weeks in Patients With Acti ...</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct03867201</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03906136</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1023,22 +1055,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-08-12T15:09:11</t>
+          <t>2021-08-19T02:19:10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A Randomized, Double-blind, Placebo-controlled Phase III Multi-center Study of Azacitidine With or Without MBG453 for the Treatment of Patients With Intermediate, High or Very High Risk Myelodysplastic Syndrome (MDS) as Per IPSS-R, or Chronic Myelomo ...</t>
+          <t>A Multi-center, Double-blinded and Open-label Extension Study to Evaluate the Efficacy and Safety of Ligelizumab as Retreatment, Self-administered Therapy and Monotherapy in Chronic Spontaneous Urticaria Patients Who Completed Studies CQGE031C2302, C ...</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04266301</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04210843</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1058,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-08-12T15:09:11</t>
+          <t>2021-08-19T02:19:10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A Randomized, Participant, Investigator and Sponsor Blinded, Placebo-Controlled Study to Evaluate the Safety, Tolerability and Pharmacokinetics of Multiple Ascending Doses of Intrathecally Administered NIO752 in Participants With Progressive Supranuc ...</t>
+          <t>An Open-label, Multi-center Protocol for Patients Who Have Completed a Previous Novartis Sponsored Secukinumab Study and Are Judged by the Investigator to Benefit From Continued Secukinumab Treatment</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04539041</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04638647</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1093,22 +1125,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-08-12T15:09:11</t>
+          <t>2021-08-19T02:19:10</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>An Open-label Multicenter Study to Assess Response to COVID-19 Vaccine in Participants With Multiple Sclerosis Treated With Ofatumumab 20 mg Subcutaneously</t>
+          <t>A Multicenter, Double-blind, Randomized Withdrawal Extension Study of Subcutaneous Secukinumab to Demonstrate Long-term Efficacy, Safety and Tolerability in Subjects With Moderate to Severe Hidradenitis Suppurativa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04878211</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04179175</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1128,36 +1160,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-08-12T13:29:25</t>
+          <t>2021-08-19T02:19:10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Physiological Responses in Experimentally Induced Cognitive Fatigue in People With Multiple Sclerosis (MS)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Fatigue;   Stress&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: High-challenging cognitive protocol to provoke stress and (cognitive) fatigue&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    KU Leuven;   National MS Center Melsbroek&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase IIIb Study of the Safety and Efficacy of Tisagenlecleucel Out of Specification for Commercial Release in Patients Who Are Consistent With the Label Indication</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT05003375?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2021-08-12T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04094311</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1171,36 +1195,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-08-12T13:29:25</t>
+          <t>2021-08-19T02:19:10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Efficacy of Cognitive Behavioral Therapy on Fatigue, Cognition and Inflammatory Biomarkers in MS Patients</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: "RehaCom" computer-based cognitive training in addition to Conventional physical therapy program;   Other: Conventional physical therapy program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cairo University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Two-part, Randomized, Placebo-controlled, Patient and Investigator Blinded, Study Investigating the Safety, Tolerability and Preliminary Efficacy of Intra-articular LNA043 Injections in Regenerating the Articular Cartilage of the Knee in Patients W ...</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT05002062?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2021-08-12T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03275064</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1214,36 +1230,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-08-12T13:29:25</t>
+          <t>2021-08-19T02:19:10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Safety of Cultured Allogeneic Adult Umbilical Cord Derived Mesenchymal Stem Cell Intravenous Infusion for MS</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: AlloRx&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Foundation for Orthopaedics and Regenerative Medicine&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A 12-month, Open-label, Multicenter, Randomized, Safety, Efficacy, Pharmacokinetic (PK) and Pharmacodynamic (PD) Study of an Anti-CD40 Monoclonal Antibody, CFZ533 vs. Standard of Care Control, in Adult de Novo Liver Transplant Recipients With a 12-mo ...</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT05003388?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2021-08-12T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03781414</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1257,36 +1265,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-08-12T13:29:25</t>
+          <t>2021-08-19T02:19:10</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Thalamic Nuclei Volumes in Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   Institut National de la Santé Et de la Recherche Médicale, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Double-blind, Parallel-group, Multicenter Study to Assess Efficacy, Safety, and Tolerability of Oral Tropifexor (LJN452) &amp;amp; Licogliflozin (LIK066) Combination Therapy and Each Monotherapy, Compared With Placebo for Treatment of Adult Pat ...</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT05002764?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2021-08-12T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04065841</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1300,36 +1300,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-08-11T15:21:39</t>
+          <t>2021-08-19T02:19:10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>COVID-19 Booster Vaccine in Autoimmune Disease Non-Responders</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Rheumatoid Arthritis;   Systemic Lupus Erythematosus (SLE);   Pemphigus Vulgaris;   Multiple Sclerosis;   Systemic Sclerosis (SSc)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna mRNA-1273;   Biological: BNT162b2;   Biological: Ad26.COV2.S;   Drug: IS (MMF or MPA);   Drug: IS (MTX);   Biological: IS (B cell depletion therapy)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Autoimmunity Centers of Excellence;   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Double-blind, Placebo Controlled, Multicenter Study of Subcutaneous Secukinumab, to Compare Efficacy at 16 Weeks With Placebo and to Assess Safety and Tolerability up to 52 Weeks in Chinese Participants With Active Non-radiographic Axia ...</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT05000216?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2021-08-11T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04732117</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1343,36 +1335,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-08-10T14:01:41</t>
+          <t>2021-08-19T02:19:10</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A Study Evaluating B Cell Levels In Infants Potentially Exposed To Ocrelizumab During Pregnancy</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hoffmann-La Roche;   PPD;   LabCorp;   Illingworth&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Prospective Phase II, Open-Label, Single-arm, Multicenter, Study to Assess Efficacy and Safety of SEG101 (Crizanlizumab), in Sickle Cell Disease Patients With Priapism (SPARTAN)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04998812?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2021-08-10T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03938454</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1386,31 +1370,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-08-10T14:01:41</t>
+          <t>2021-08-18T13:45:47</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A Study Evaluating B Cell Levels In Infants Of Lactating Women With CIS Or MS Receiving Ocrelizumab</t>
+          <t>Pregnancy Cohort in Multiple Sclerosis (MS)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hoffmann-La Roche;   PPD;   LabCorp;   Illingworth&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis (MS);   Clinically Isolated Syndrome (CIS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charite University, Berlin, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04998851?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05010902?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2021-08-10T16:00:00.000Z</t>
+          <t>2021-08-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1429,36 +1413,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-08-09T12:36:29</t>
+          <t>2021-08-17T20:19:09</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Symptoms and Treatment Assessment of Ano-Rectal Disorders in Multiple Sclerosis Patients : STAR-Q</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Constipation;   Fecal Incontinence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Clinical interviews&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pierre and Marie Curie University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A 96-week, Two-arm, Randomized, Single-masked, Multi-center, Phase III Study Assessing the Efficacy and Safety of Brolucizumab 6 mg Compared to Panretinal Photocoagulation Laser in Patients With Proliferative Diabetic Retinopathy</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04996186?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2021-08-09T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04278417</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1472,36 +1448,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-08-09T12:36:29</t>
+          <t>2021-08-17T20:19:09</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Neurophysiological Assessment in Patients With Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Disease;   Inflammatory Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Neurophysiological assessment;   Other: clinical assessment&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Roma La Sapienza&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A 64-week, Two-arm, Randomized, Double-masked, Multicenter, Phase IIIb Study Assessing the Efficacy and Safety of Brolucizumab 6 mg Compared to Aflibercept 2 mg in a Treat-to-control Regimen in Patients With Neovascular Agerelated Macular Degeneratio ...</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04997343?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2021-08-09T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04005352</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -1515,36 +1483,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-08-09T12:36:29</t>
+          <t>2021-08-17T20:19:09</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Effectiveness of Cladribine Tablets in Participants With Highly-active Relapsing Multiple Sclerosis (CAMELOT-MS)</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing-Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany;   Merck Serono Limited, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase I, Multicenter, Open-label Study of Oral ABL001 in Patients With Chronic Myelogenous Leukemia (CML) or Philadelphia Chromosome-positive Acute Lymphoblastic Leukemia (Ph+ ALL)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04997148?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2021-08-09T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct02081378</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1558,28 +1518,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-08-07T00:23:03</t>
+          <t>2021-08-17T15:35:47</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A Phase 1, Open-label, Single-dose, Parallel-group Study to Evaluate the Systemic Pharmacokinetics of Icenticaftor in Participants With Mild, Moderate, or Severe Hepatic Impairment Compared to Matched Healthy Control Participants</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>DreaMS - Validation Study 1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: dreaMS App R2.0&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Research Center for Clinical Neuroimmunology and Neuroscience Basel;   Healios AG;   University Hospital, Basel, Switzerland;   University of Basel;   Innosuisse - Swiss Innovation Agency;   Novartis Pharmaceuticals;   Hoffmann-La Roche&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04587622</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05009160?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2021-08-17T16:00:00.000Z</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Novartis</t>
+          <t>ClinicalTrials.gov</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -1593,22 +1561,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-08-07T00:23:03</t>
+          <t>2021-08-17T00:19:09</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A First-in-patient Phase I&amp;#x2F;II Clinical Study to Investigate the Safety, Tolerability and Efficacy of Genome-edited Hematopoietic Stem and Progenitor Cells in Subjects With Severe Complications of Sickle Cell Disease</t>
+          <t>EPIK-O: A Phase III, Multi-center, Randomized (1:1), Open-label, Active-controlled, Study to Assess the Efficacy and Safety of Alpelisib (BYL719) in Combination With Olaparib as Compared to Single Agent Cytotoxic Chemotherapy, in Participants With no ...</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04443907</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04729387</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1628,36 +1596,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2021-08-06T12:10:36</t>
+          <t>2021-08-17T00:19:09</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sensitivity of Motor Assessment in MS - a Prospective Cohort Study</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Multiple Sclerosis, Secondary Progressive;   Multiple Sclerosis, Chronic Progressive&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: PASS-MS&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Friedemann Paul;   Roche Pharma AG&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase III, Multicenter, Randomized, Double-blind, Placebo-controlled Study to Assess the Efficacy and Safety of Alpelisib (BYL719) in Combination With Nab-paclitaxel in Patients With Advanced Triple Negative Breast Cancer With Either Phosphoinositi ...</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04993274?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2021-08-06T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04251533</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -1671,36 +1631,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-08-06T12:10:36</t>
+          <t>2021-08-17T00:19:09</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quantitative T1rho Magnetic Resonance Imaging in Multiple Sclerosis (MS)</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: T1rho imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Chinese University of Hong Kong&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Prospective, Long-Term Registry of Patients With a Diagnosis of Spinal Muscular Atrophy (SMA)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04993196?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2021-08-06T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04174157</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -1714,22 +1666,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-08-05T22:46:35</t>
+          <t>2021-08-17T00:19:09</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>An Open-label, Adaptive Design Study in Patients With Amyotrophic Lateral Sclerosis (ALS) to Characterize Safety, Tolerability and Brain Microglia Response, as Measured by TSPO Binding, Following Multiple Doses of BLZ945 Using Positron Emission Tomog ...</t>
+          <t>A 48-week, 6-arm, Randomized, Double-blind, Placebo-controlled Multicenter Trial to Assess the Safety and Efficacy of Multiple CFZ533 Doses Administered Subcutaneously in Two Distinct Populations of Patients With Sjögren&amp;#39;s Syndrome (TWINSS)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04066244</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03905525</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1749,22 +1701,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-08-05T22:46:35</t>
+          <t>2021-08-17T00:19:09</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>An Open-label, Two-period, Single-sequence, Crossover Study to Compare the Systemic Exposure of a Single Inhaled Dose of Mometasone Furoate (MF) When Administered Alone Via the MF Twisthaler® (TH) to a Single Inhaled Dose of QMF149 Indacaterol Acetat ...</t>
+          <t>A 52-week Multicenter, Randomized, Double-masked, 2-arm Parallel Study to Compare Efficacy, Safety and Immunogenicity of SOK583A1 to Eylea®, Administered Intravitreally, in Patients With Neovascular Age-related Macular Degeneration</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04589663</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04864834</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1784,28 +1736,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-08-05T22:46:35</t>
+          <t>2021-08-16T17:25:47</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A Double-blind, Placebo-controlled, Randomized Dose-ranging Trial to Investigate Efficacy and Safety of Intravenous MIJ821 Infusion in Addition to Comprehensive Standard of Care on the Rapid Reduction of Symptoms of Major Depressive Disorder in Subje ...</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>Efficacy of Diet on Quality of Life in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Dietary Supplement: BodyBio Balance Oil;   Dietary Supplement: Kirunal Fish Oil;   Dietary Supplement: BodyBio PC;   Behavioral: Modified Paleolithic Elimination diet;   Behavioral: Time Restricted Olive Oil Based (TROO) Ketogenic Diet;   Behavioral: Dietary Guidelines for Americans Diet&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Terry L. Wahls&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04722666</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05007483?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2021-08-16T16:00:00.000Z</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Novartis</t>
+          <t>ClinicalTrials.gov</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -1819,22 +1779,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-08-05T22:46:35</t>
+          <t>2021-08-13T16:19:09</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A Subject and Investigator Blinded, Randomized, Placebo-controlled, Repeat-dose, Multicenter Study to Investigate Efficacy, Safety, and Tolerability of CMK389 in Patients With Chronic Pulmonary Sarcoidosis</t>
+          <t>Open-Label Rater-Blind Randomized Multi-Center Parallel-Arm Active- Comparator Study to Assess the Efficacy and Tolerability of Ofatumumab 20mg SC Monthly vs. First Line DMT - Physician&amp;#39;s Choice in the Treatment of Newly Diagnosed RMS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04064242</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04788615</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1854,28 +1814,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-08-05T22:46:35</t>
+          <t>2021-08-13T13:25:47</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A Randomized, Subject and Investigator Blinded, Placebo Controlled, Multi-center Study in Parallel Groups to Assess the Efficacy and Safety of LYS006 in Patients With Moderate to Severe Inflammatory Acne</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>A Teleheath tDCS Approach to Decrease Cannabis Use</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Cannabis Use Disorder;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Transcranial Direct Current Stimulation (tDCS);   Other: Sham - Transcranial Direct Current Stimulation (tDCS);   Other: Mindfulness&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct03497897</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05005013?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2021-08-13T16:00:00.000Z</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Novartis</t>
+          <t>ClinicalTrials.gov</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -1889,22 +1857,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-08-05T22:46:35</t>
+          <t>2021-08-12T20:19:09</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A Phase II Trial of Tisagenlecleucel in First-line High-risk (HR) Pediatric and Young Adult Patients With B-cell Acute Lymphoblastic Leukemia (B-ALL) Who Are Minimal Residual Disease (MRD) Positive at the End of Consolidation (EOC) Therapy</t>
+          <t>A Phase III Multi-center, Randomized, Open-label Trial to Evaluate Efficacy and Safety of Ribociclib With Endocrine Therapy as an Adjuvant Treatment in Patients With Hormone Receptor-positive, HER2-negative Early Breast Cancer (New Adjuvant TriAl Wit ...</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct03876769</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03701334</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1924,28 +1892,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2021-08-05T15:59:12</t>
+          <t>2021-08-12T20:19:09</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pronesimod no tratamento de Esclerose Múltipla Recidivante</t>
+          <t>An Open-label, Single Arm, Multi-center Extension Study Evaluating Long-term Safety, Tolerability and Effectiveness of Ofatumumab in Subjects With Relapsing Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.cuf.pt/cuf-academic-center/ensaios-clinicos/pronesimod-no-tratamento-de-esclerose-multipla-recidivante</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03650114</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>CUF</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -1959,22 +1927,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-08-05T15:53:54</t>
+          <t>2021-08-12T15:19:08</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PSMAfore: A Phase III, Open-label, Multi-Center, Randomized Study Comparing 177Lu-PSMA-617 vs. a Change of Androgen Receptor-directed Therapy in the Treatment of Taxane Naïve Men With Progressive Metastatic Castrate Resistant Prostate Cancer</t>
+          <t>A Phase II Randomized Double-blind, Placebo-controlled Study of Alpelisib in Combination With Fulvestrant for Chinese Men and Postmenopausal Women With Hormone Receptor Positive, HER2-negative, PIK3CA Mutant Advanced Breast Cancer Which Progressed on ...</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/clinicaltrials/study/nct04689828</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04544189</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1994,22 +1962,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:19:08</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A Multi-center, Randomized, Double-blind, Placebo-controlled, Parallel Group, Phase III Study to Evaluate the Efficacy and Safety of LNP023 in Primary IgA Nephropathy Patients</t>
+          <t>A Phase II, Open Label, Multi-center Trial to Determine the Efficacy and Safety of Tisagenlecleucel Re-infusion in Pediatric and Adolescent Young Adult (AYA) Patients With Acute Lymphoblastic Leukemia Experiencing Loss of B Cell Aplasia</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.novartis.com//clinicaltrials/study/nct04578834</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04225676</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2029,22 +1997,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:19:08</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>An Open-label, Non-randomized Extension Study to Evaluate the Long Term Safety, Tolerability, Efficacy and Pharmacokinetics of CDZ173 in Patients With APDS&amp;#x2F;PASLI (Activated Phosphoinositide 3-kinase Delta Syndrome&amp;#x2F;p110δ-activating Mutation Causing Se ...</t>
+          <t>A 2 Year, Double-blind, Randomized, Multicenter, Active-controlled Core Phase to Evaluate Safety &amp;amp; Efficacy of Daily Fingolimod vs Weekly Interferon β-1a im in Pediatric Patients With Multiple Sclerosis and 5 Year Fingolimod Extension Phase</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.novartis.com//clinicaltrials/study/nct02859727</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct01892722</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2064,22 +2032,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:19:08</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>An Open-label, Single Arm Phase II Study of DFV890 to Assess the Safety, Tolerability and Efficacy in Participants With Familial Cold Auto-inflammatory Syndrome (FCAS)</t>
+          <t>A Single-arm, Prospective, Multicentre, Open-label Study to Evaluate Ofatumumab Treatment Effectiveness and Patient Reported Outcomes in Patients With Relapsing Multiple Sclerosis Transitioning From Dimethyl Fumarate or Fingolimod Therapy</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.novartis.com//clinicaltrials/study/nct04868968</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04353492</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2099,22 +2067,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A 24-week Multi-center, Double-blind, Placebo Controlled Dose-range Finding Study to Investigate the Efficacy and Safety of Oral QBW251 in COPD Patients on Triple Inhaled Therapy (LABA &amp;#x2F; LAMA &amp;#x2F; ICS)</t>
+          <t>Exploring the Safety and Tolerability of Conversion From Oral, Injectable, or Infusion Disease Modifying Therapies to Dose-titrated Oral Siponimod (Mayzent) in Patients With Advancing Forms of Relapsing Multiple Sclerosis: A 6-month Open Label, Multi ...</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.novartis.com//clinicaltrials/study/nct04072887</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03623243</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2134,22 +2102,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A Randomized Double-blind, Placebo-controlled, Multicenter Trial Assessing the Impact of Lipoprotein (a) Lowering With TQJ230 on Major Cardiovascular Events in Patients With Established Cardiovascular Disease</t>
+          <t>A 24-month, Open-label, Prospective, Multicenter Interventional, Single-arm Study Assessing the Efficacy and Safety of Fingolimod (Gilenya) 0.5 mg in Relapsing Multiple Sclerosis (RMS) Patients in China</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.novartis.com//clinicaltrials/study/nct04023552</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04667949</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2169,22 +2137,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A Randomized, Placebo-controlled, Investigator- and Participant-blinded Study to Evaluate the Efficacy, Safety, Tolerability, and Pharmacokinetics of HSY244 in Participants With Atrial Fibrillation</t>
+          <t>A Phase Ib&amp;#x2F;II, Open Label Study of Sabatolimab as a Treatment for Patients With Acute Myeloid Leukemia and Presence of Measurable Residual Disease After Allogeneic Stem Cell Transplantation</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.novartis.com//clinicaltrials/study/nct04582409</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04623216</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2204,22 +2172,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>A Randomized, Controlled, Multicenter, Open-label Trial Comparing a Hospital Post-discharge Care Pathway Involving Aggressive LDL-C Management That Includes Inclisiran With Usual Care Versus Usual Care Alone in Patients With a Recent Acute Coronary S ...</t>
+          <t>A Randomized, Multicenter, Open-label Trial Comparing the Effectiveness of an &amp;quot;Inclisiran First&amp;quot; Implementation Strategy to Usual Care on LDL Cholesterol (LDL-C) in Patients With Atherosclerotic Cardiovascular Disease and Elevated LDL-C (≥70 mg&amp;#x2F;dL) D ...</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.novartis.com//clinicaltrials/study/nct04873934</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04929249</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2239,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A Randomized, Multicenter, Active-comparator Controlled, Open-label Trial to Evaluate Efficacy and Safety of Oral, Twice Daily LNP023 in Adult Patients With PNH and Residual Anemia, Despite Treatment With an Intravenous Anti-C5 Antibody.</t>
+          <t>A Single-arm, Prospective, Multi-center Study to Explore Maintained Efficacy With Ofatumumab Therapy in Patients With Relapsing Multiple Sclerosis Who Discontinue Intravenously Delivered Anti-CD20 Monoclonal Antibody (aCD20 mAb) Therapy (OLIKOS)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.novartis.com//clinicaltrials/study/nct04558918</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04486716</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2274,22 +2242,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Multi-center Cross-sectional Epidemiological Study to Characterize the Prevalence and Distribution of Lipoprotein(a) Levels Among Patients With Established Cardiovascular Disease</t>
+          <t>An Open Label, Multi-center Phase IIIb Study of Asciminib (ABL001) Monotherapy in Previously Treated Patients With Chronic Myeloid Leukemia in Chronic Phase (CML-CP) With and Without T315I Mutation</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.novartis.com//clinicaltrials/study/nct03887520</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04666259</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2309,22 +2277,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Two Part (Double-blind Inclisiran Versus Placebo [Year 1] Followed by Open-label Inclisiran [Year 2]) Randomized Multicenter Study to Evaluate Safety, Tolerability, and Efficacy of Inclisiran in Adolescents (12 to Less Than 18 Years) With Heterozygou ...</t>
+          <t>A 12-week Phase 3, Randomized, Double-blind, Placebo Controlled Study to Evaluate the Efficacy and Safety of Once Monthly Subcutaneous Erenumab 70 mg in Adult Chronic Migraine Patients</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.novartis.com//clinicaltrials/study/nct04652726</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03867201</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2344,18 +2312,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>2021-08-12T15:09:11</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>A Randomized, Double-blind, Placebo-controlled Phase III Multi-center Study of Azacitidine With or Without MBG453 for the Treatment of Patients With Intermediate, High or Very High Risk Myelodysplastic Syndrome (MDS) as Per IPSS-R, or Chronic Myelomo ...</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04266301</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2375,22 +2347,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021-08-05T15:39:00</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>More locations</t>
+          <t>A Randomized, Participant, Investigator and Sponsor Blinded, Placebo-Controlled Study to Evaluate the Safety, Tolerability and Pharmacokinetics of Multiple Ascending Doses of Intrathecally Administered NIO752 in Participants With Progressive Supranuc ...</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.novartis.com/</t>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04539041</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2410,36 +2382,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2021-08-04T13:22:57</t>
+          <t>2021-08-12T15:09:11</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Territorial Implementation and Evaluation of a Multiple Sclerosis Expert Patient Program</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Quality of Life;   Patient Empowerment;   Patient Activation;   Fatigue;   Peer Group&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Multiple Sclerosis Expert Patient Program of Catalonia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hospital Universitari Vall d'Hebron Research Institute;   Strategic Plan for Research and Innovation in Health (ref. BDNS 542793)&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label Multicenter Study to Assess Response to COVID-19 Vaccine in Participants With Multiple Sclerosis Treated With Ofatumumab 20 mg Subcutaneously</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04988880?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2021-08-04T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04878211</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -2453,31 +2417,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2021-08-04T13:22:57</t>
+          <t>2021-08-12T13:29:25</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>A Study of Lu AG06466 for the Treatment of Spasticity in Participants With Multiple Sclerosis</t>
+          <t>Physiological Responses in Experimentally Induced Cognitive Fatigue in People With Multiple Sclerosis (MS)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Lu AG06466;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    H. Lundbeck A/S&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Fatigue;   Stress&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: High-challenging cognitive protocol to provoke stress and (cognitive) fatigue&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    KU Leuven;   National MS Center Melsbroek&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04990219?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05003375?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2021-08-04T16:00:00.000Z</t>
+          <t>2021-08-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2496,31 +2460,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2021-07-30T17:01:11</t>
+          <t>2021-08-12T13:29:25</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Evaluation of the Effect of Nabiximols Oromucosal Spray on Clinical Measures of Spasticity in Participants With Multiple Sclerosis</t>
+          <t>Efficacy of Cognitive Behavioral Therapy on Fatigue, Cognition and Inflammatory Biomarkers in MS Patients</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Spasticity With Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Nabiximols;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    GW Pharmaceuticals Ltd.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: "RehaCom" computer-based cognitive training in addition to Conventional physical therapy program;   Other: Conventional physical therapy program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cairo University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04984278?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05002062?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2021-07-30T16:00:00.000Z</t>
+          <t>2021-08-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2539,31 +2503,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2021-07-29T14:28:11</t>
+          <t>2021-08-12T13:29:25</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Single Ascending Dose Study of SAR443820 in Healthy Adult Chinese and Japanese Female and Male Participants</t>
+          <t>Safety of Cultured Allogeneic Adult Umbilical Cord Derived Mesenchymal Stem Cell Intravenous Infusion for MS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Healthy Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: RIPK1 inhibitor&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: AlloRx&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Foundation for Orthopaedics and Regenerative Medicine&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04982991?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05003388?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2021-07-29T16:00:00.000Z</t>
+          <t>2021-08-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2582,31 +2546,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2021-07-28T18:48:11</t>
+          <t>2021-08-12T13:29:25</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Telerehabilitation in Multiple Sclerosis</t>
+          <t>Thalamic Nuclei Volumes in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Telerehabilitation;   Other: Video exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Marmara University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   Institut National de la Santé Et de la Recherche Médicale, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04979845?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05002764?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2021-07-28T16:00:00.000Z</t>
+          <t>2021-08-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2625,31 +2589,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2021-07-28T18:48:11</t>
+          <t>2021-08-11T15:21:39</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Corticosteroid Effects on Asymptomatic Gadolinium-enhancing Lesions in Multiple Sclerosis</t>
+          <t>COVID-19 Booster Vaccine in Autoimmune Disease Non-Responders</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Magnetic Resonance Imaging;   Methylprednisolone&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Methylprednisolone succinate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Mazandaran University of Medical Sciences&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Rheumatoid Arthritis;   Systemic Lupus Erythematosus (SLE);   Pemphigus Vulgaris;   Multiple Sclerosis;   Systemic Sclerosis (SSc)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna mRNA-1273;   Biological: BNT162b2;   Biological: Ad26.COV2.S;   Drug: IS (MMF or MPA);   Drug: IS (MTX);   Biological: IS (B cell depletion therapy)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Autoimmunity Centers of Excellence;   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04979650?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT05000216?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2021-07-28T16:00:00.000Z</t>
+          <t>2021-08-11T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2668,31 +2632,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2021-07-28T18:48:11</t>
+          <t>2021-08-10T14:01:41</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Using Patient-Reported Outcomes To Improve the Care of People With Multiple Sclerosis</t>
+          <t>A Study Evaluating B Cell Levels In Infants Potentially Exposed To Ocrelizumab During Pregnancy</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Anxiety;   Depression;   Patient Satisfaction&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Intensive Use of Patient Reported Outcome Measures and Open PROM Availability to Treating Neurologist;   Other: Conservative Use of Patient Reported Outcome Measures and Blinded PROM Availability to Treating Neurologist&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alberta;   University Hospital Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hoffmann-La Roche;   PPD;   LabCorp;   Illingworth&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04979546?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04998812?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2021-07-28T16:00:00.000Z</t>
+          <t>2021-08-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2711,31 +2675,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2021-07-28T18:48:11</t>
+          <t>2021-08-10T14:01:41</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>The Validity and Reliability of the Upper Extremity Exercise Testing (UULEX) in Patients With Multiple Sclerosis</t>
+          <t>A Study Evaluating B Cell Levels In Infants Of Lactating Women With CIS Or MS Receiving Ocrelizumab</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Upper extremity endurance test (UULEX)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Marmara University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hoffmann-La Roche;   PPD;   LabCorp;   Illingworth&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04979819?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04998851?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2021-07-28T16:00:00.000Z</t>
+          <t>2021-08-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2754,31 +2718,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2021-07-27T15:16:12</t>
+          <t>2021-08-09T12:36:29</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Gray Matter Demyelination in Primary Progressive MS at 7T</t>
+          <t>Symptoms and Treatment Assessment of Ano-Rectal Disorders in Multiple Sclerosis Patients : STAR-Q</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Primary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Danish Research Centre for Magnetic Resonance;   Scleroseforeningen;   Danish Multiple Sclerosis Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Constipation;   Fecal Incontinence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Clinical interviews&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pierre and Marie Curie University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04977622?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04996186?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2021-07-27T16:00:00.000Z</t>
+          <t>2021-08-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2797,31 +2761,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2021-07-23T12:56:11</t>
+          <t>2021-08-09T12:36:29</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Strengthening Mental Abilities With Relational Training (SMART) in Multiple Sclerosis (MS): A Feasibility Trial</t>
+          <t>Neurophysiological Assessment in Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: SMART;   Behavioral: Sham brain training (Sudoku)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Lincoln;   University of Exeter;   Nottinghamshire Healthcare NHS Trust;   National University of Ireland, Maynooth;   University of Nottingham&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Disease;   Inflammatory Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Neurophysiological assessment;   Other: clinical assessment&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Roma La Sapienza&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04975685?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04997343?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2021-07-23T16:00:00.000Z</t>
+          <t>2021-08-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2840,31 +2804,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2021-07-22T17:03:44</t>
+          <t>2021-08-09T12:36:29</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Effects of Chiropractic Care on Cytokine Levels in Multiple Sclerosis</t>
+          <t>Effectiveness of Cladribine Tablets in Participants With Highly-active Relapsing Multiple Sclerosis (CAMELOT-MS)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Spinal Manipulation;   Other: Sham Spinal Manipulation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Alabama at Birmingham&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing-Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany;   Merck Serono Limited, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04972929?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04997148?cond=Multiple+Sclerosis&amp;sfpd_d=14&amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2021-07-22T16:00:00.000Z</t>
+          <t>2021-08-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2883,36 +2847,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2021-07-22T17:03:44</t>
+          <t>2021-08-07T00:23:03</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Functional Disorders of the Musculoskeletal System in People With Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Rehabilitation;   Musculoskeletal Complication&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Manual physiotherapeutic correction (MFK) Method;   Behavioral: Dynamic Neuromuscular Stabilization (DNS) Method&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase 1, Open-label, Single-dose, Parallel-group Study to Evaluate the Systemic Pharmacokinetics of Icenticaftor in Participants With Mild, Moderate, or Severe Hepatic Impairment Compared to Matched Healthy Control Participants</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04973501?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2021-07-22T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04587622</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -2926,36 +2882,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2021-07-21T12:32:44</t>
+          <t>2021-08-07T00:23:03</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ocrelizumab or Alemtuzumab Compared With Autologous Hematopoietic Stem Cell Transplantation in Multiple Sclerosis - a Phase-2 Randomised Controlled Trial</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing-Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Autologous Hematopoietic Stem Cell Transplantation;   Drug: Ocrelizumab;   Drug: Alemtuzumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Universitätsklinikum Hamburg-Eppendorf;   Neovii Biotech;   Clinical Trial Center North (CTC North GmbH &amp; Co. KG)&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A First-in-patient Phase I&amp;#x2F;II Clinical Study to Investigate the Safety, Tolerability and Efficacy of Genome-edited Hematopoietic Stem and Progenitor Cells in Subjects With Severe Complications of Sickle Cell Disease</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04971005?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>2021-07-21T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04443907</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -2969,31 +2917,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2021-07-21T12:32:44</t>
+          <t>2021-08-06T12:10:36</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Quantifying Gait Alteration in Multiple Sclerosis Using a Wearable Device</t>
+          <t>Sensitivity of Motor Assessment in MS - a Prospective Cohort Study</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Wearable sensor&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Multiple Sclerosis, Secondary Progressive;   Multiple Sclerosis, Chronic Progressive&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: PASS-MS&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Friedemann Paul;   Roche Pharma AG&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04969848?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04993274?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2021-07-21T16:00:00.000Z</t>
+          <t>2021-08-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3012,31 +2960,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2021-07-20T13:49:06</t>
+          <t>2021-08-06T12:10:36</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>The Effect of Emotional Freedom Technique on Depression, Anxiety and Distress of Individuals With Multiple Sclerosis</t>
+          <t>Quantitative T1rho Magnetic Resonance Imaging in Multiple Sclerosis (MS)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Anxiety;   Depressive Symptoms;   Distress;   Psychiatric Nursing&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Emotional Freedom Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dokuz Eylul University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: T1rho imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Chinese University of Hong Kong&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04969562?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04993196?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2021-07-20T16:00:00.000Z</t>
+          <t>2021-08-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3055,36 +3003,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2021-07-19T12:15:08</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Efficacy and Safety of Xacrel® (Ocrelizumab) in Participants With Relapsing Remitting Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Ocrelizumab (CinnaGen, Iran);   Biological: Ocrelizumab (Roche, Switzerland)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cinnagen&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label, Adaptive Design Study in Patients With Amyotrophic Lateral Sclerosis (ALS) to Characterize Safety, Tolerability and Brain Microglia Response, as Measured by TSPO Binding, Following Multiple Doses of BLZ945 Using Positron Emission Tomog ...</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04966338?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2021-07-19T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04066244</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -3098,36 +3038,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2021-07-16T13:27:06</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>An Observational Study to Investigate the Role of B Cells in Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of B cells&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Oslo&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label, Two-period, Single-sequence, Crossover Study to Compare the Systemic Exposure of a Single Inhaled Dose of Mometasone Furoate (MF) When Administered Alone Via the MF Twisthaler® (TH) to a Single Inhaled Dose of QMF149 Indacaterol Acetat ...</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04964336?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2021-07-16T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04589663</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -3141,36 +3073,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2021-07-16T13:27:06</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Analysis of MS Patients Who Have Had Greater Than 60 Infusions of Natalizumab</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Multiple Sclerosis Center of Northeastern New York&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Double-blind, Placebo-controlled, Randomized Dose-ranging Trial to Investigate Efficacy and Safety of Intravenous MIJ821 Infusion in Addition to Comprehensive Standard of Care on the Rapid Reduction of Symptoms of Major Depressive Disorder in Subje ...</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04964700?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2021-07-16T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04722666</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3184,36 +3108,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2021-07-16T13:27:06</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RMS Study of BTK Inhibitor SAR442168</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SAR442168&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Peking University Third Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Subject and Investigator Blinded, Randomized, Placebo-controlled, Repeat-dose, Multicenter Study to Investigate Efficacy, Safety, and Tolerability of CMK389 in Patients With Chronic Pulmonary Sarcoidosis</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04964791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2021-07-16T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04064242</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -3227,36 +3143,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2021-07-15T12:52:04</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Effects of a User-centered Exergame Training on Motor and Cognitive Functions in PwMS</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Exergame Training&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Eling DeBruin&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Subject and Investigator Blinded, Placebo Controlled, Multi-center Study in Parallel Groups to Assess the Efficacy and Safety of LYS006 in Patients With Moderate to Severe Inflammatory Acne</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04963335?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>2021-07-15T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03497897</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -3270,36 +3178,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2021-07-09T11:20:04</t>
+          <t>2021-08-05T22:46:35</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A Study to Evaluate the Safety, Tolerability, and Exploratory Efficacy of IMS001 in Subjects With Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: IMS001&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ImStem Biotechnology;   Rho, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Phase II Trial of Tisagenlecleucel in First-line High-risk (HR) Pediatric and Young Adult Patients With B-cell Acute Lymphoblastic Leukemia (B-ALL) Who Are Minimal Residual Disease (MRD) Positive at the End of Consolidation (EOC) Therapy</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04956744?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2021-07-09T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct03876769</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -3313,36 +3213,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2021-07-08T14:32:36</t>
+          <t>2021-08-05T15:59:12</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Technology-assisted Conscientiousness Therapy for People With Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Conscientiousness Coach&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    State University of New York at Buffalo&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>Pronesimod no tratamento de Esclerose Múltipla Recidivante</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04953689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>2021-07-08T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.cuf.pt/cuf-academic-center/ensaios-clinicos/pronesimod-no-tratamento-de-esclerose-multipla-recidivante</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>CUF</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -3356,36 +3248,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2021-07-07T11:59:36</t>
+          <t>2021-08-05T15:53:54</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Clinical Isolation Syndrome of Spinal Cord and Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Clinical Isolation Syndrome of Spinal Cord;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Peking University Third Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>PSMAfore: A Phase III, Open-label, Multi-Center, Randomized Study Comparing 177Lu-PSMA-617 vs. a Change of Androgen Receptor-directed Therapy in the Treatment of Taxane Naïve Men With Progressive Metastatic Castrate Resistant Prostate Cancer</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04952246?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2021-07-07T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/clinicaltrials/study/nct04689828</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -3399,36 +3283,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2021-07-07T11:59:36</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Study Evaluating SARS-CoV-2 (COVID-19) Humoral Response After BNT162b2 Vaccine in Immunocompromised Adults Compared to Healthy Adults</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Kidney Transplant;   Extracorporeal Dialysis;   Myeloma;   Cancer;   Hematologic Malignancy;   Multiple Sclerosis;   Hypergammaglobulinemia;   Malignant Tumor;   Hiv;   Diabetes Type 2&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Biological samples&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Régional d'Orléans&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Multi-center, Randomized, Double-blind, Placebo-controlled, Parallel Group, Phase III Study to Evaluate the Efficacy and Safety of LNP023 in Primary IgA Nephropathy Patients</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04952766?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2021-07-07T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04578834</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -3442,36 +3318,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2021-06-29T16:46:42</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CONNECT Trial of eSupport Online Health-coach Moderated Support Groups for PwMS</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: eSupport Health Weekly Group Sessions for PwMS&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    eSupport Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label, Non-randomized Extension Study to Evaluate the Long Term Safety, Tolerability, Efficacy and Pharmacokinetics of CDZ173 in Patients With APDS&amp;#x2F;PASLI (Activated Phosphoinositide 3-kinase Delta Syndrome&amp;#x2F;p110δ-activating Mutation Causing Se ...</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04943887?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2021-06-29T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct02859727</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -3485,36 +3353,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2021-06-29T16:46:42</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Impact of Direct Current Electrical Stimulation on Spasticity Levels and Functional Muscle Use in MS</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: NeuBie&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centura Health;   NeuFit - Neurological Fitness and Education&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>An Open-label, Single Arm Phase II Study of DFV890 to Assess the Safety, Tolerability and Efficacy in Participants With Familial Cold Auto-inflammatory Syndrome (FCAS)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04942938?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2021-06-29T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04868968</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -3528,36 +3388,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2021-06-29T16:46:42</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Intrathecal Administration of DUOC-01 in Adults With Primary Progressive Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Primary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: DUOC-01&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Joanne Kurtzberg, MD&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A 24-week Multi-center, Double-blind, Placebo Controlled Dose-range Finding Study to Investigate the Efficacy and Safety of Oral QBW251 in COPD Patients on Triple Inhaled Therapy (LABA &amp;#x2F; LAMA &amp;#x2F; ICS)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04943289?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2021-06-29T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04072887</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -3571,36 +3423,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2021-06-29T16:46:42</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Regular Exercise Improves Physical Capacity and Promotes Neurotrophins in Patients With Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise Intervention;   Neuro-Degenerative Disease&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Regular Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Ege University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized Double-blind, Placebo-controlled, Multicenter Trial Assessing the Impact of Lipoprotein (a) Lowering With TQJ230 on Major Cardiovascular Events in Patients With Established Cardiovascular Disease</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04944251?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2021-06-29T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04023552</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -3614,36 +3458,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2021-06-28T16:23:24</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PET Study to Determine the Relationship Between Plasma Concentrations and Muscarinic Type 1 Receptor (M1AChR) Occupancy of PIPE-307 in Healthy Volunteers</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: PIPE-307&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pipeline Therapeutics, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Placebo-controlled, Investigator- and Participant-blinded Study to Evaluate the Efficacy, Safety, Tolerability, and Pharmacokinetics of HSY244 in Participants With Atrial Fibrillation</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04941781?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2021-06-28T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04582409</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -3657,36 +3493,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2021-06-25T20:40:29</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Special Drug-use Surveillance for Kesimpta for s.c. Injection 20 mg Pen</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Relapsing-remitting Multiple Sclerosis;   Active Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Kesimpta&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Controlled, Multicenter, Open-label Trial Comparing a Hospital Post-discharge Care Pathway Involving Aggressive LDL-C Management That Includes Inclisiran With Usual Care Versus Usual Care Alone in Patients With a Recent Acute Coronary S ...</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04940065?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2021-06-25T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04873934</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -3700,36 +3528,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2021-06-24T16:09:29</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Reading Problems Associated With Central Nervous System (CNS) Pathologies.</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Injury Brain;   Eye Abnormalities;   Multiple Sclerosis;   Parkinson Disease;   Ataxia, Cerebellar&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: eye tracking&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Instituto Universitario de Oftalmobiología Aplicada (Institute of Applied Ophthalmobiology) - IOBA;   Hospital Clínico Universitario de Valladolid;   Hospital del Río Hortega&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>A Randomized, Multicenter, Active-comparator Controlled, Open-label Trial to Evaluate Efficacy and Safety of Oral, Twice Daily LNP023 in Adult Patients With PNH and Residual Anemia, Despite Treatment With an Intravenous Anti-C5 Antibody.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04937725?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2021-06-24T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04558918</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -3743,36 +3563,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2021-06-23T16:33:29</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>The Effect of Self-Acupressure Application on Functional Composite and Quality of Life in Multiple Sclerosis Patients</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Self-Acupressure&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istanbul Sabahattin Zaim University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>Multi-center Cross-sectional Epidemiological Study to Characterize the Prevalence and Distribution of Lipoprotein(a) Levels Among Patients With Established Cardiovascular Disease</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04936555?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2021-06-23T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct03887520</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -3786,36 +3598,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2021-06-22T14:45:49</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Prospective Effectiveness and Safety Study of Cladribine in Participants Who Change First-line DMD Treatments for Multiple Sclerosis (CLAD CROSS)</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Cladribine&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany;   Merck Hellas sa., Greece&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>Two Part (Double-blind Inclisiran Versus Placebo [Year 1] Followed by Open-label Inclisiran [Year 2]) Randomized Multicenter Study to Evaluate Safety, Tolerability, and Efficacy of Inclisiran in Adolescents (12 to Less Than 18 Years) With Heterozygou ...</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04934800?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2021-06-22T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com//clinicaltrials/study/nct04652726</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -3829,36 +3633,24 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2021-06-21T20:04:49</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Investigation of Hand Functions and Related Parameters in People With Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Uğur OVACIK;   Istanbul University-Cerrahpasa&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>2021-08-05T15:39:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04933110?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2021-06-21T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -3872,36 +3664,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2021-06-21T20:04:49</t>
+          <t>2021-08-05T15:39:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tele-Assessment and Face-to-Face Evaluation of Functional Gait Assessment in Multiple Sclerosis</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istanbul University-Cerrahpasa&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
-        </is>
-      </c>
+          <t>More locations</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04932616?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2021-06-21T16:00:00.000Z</t>
-        </is>
-      </c>
+          <t>https://www.novartis.com/</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>ClinicalTrials.gov</t>
+          <t>Novartis</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -3915,31 +3699,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2021-06-21T20:04:49</t>
+          <t>2021-08-04T13:22:57</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Post-Authorization Safety Study for Assessment of Pregnancy Outcomes in Patients Treated With Mayzent</t>
+          <t>Territorial Implementation and Evaluation of a Multiple Sclerosis Expert Patient Program</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Quality of Life;   Patient Empowerment;   Patient Activation;   Fatigue;   Peer Group&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Multiple Sclerosis Expert Patient Program of Catalonia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hospital Universitari Vall d'Hebron Research Institute;   Strategic Plan for Research and Innovation in Health (ref. BDNS 542793)&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04933552?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04988880?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2021-06-21T16:00:00.000Z</t>
+          <t>2021-08-04T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3958,31 +3742,31 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2021-06-18T22:15:49</t>
+          <t>2021-08-04T13:22:57</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Feasibility of Neuromodulation With Connectivity-Guided iTBS for Cognitive Impairment in MS</t>
+          <t>A Study of Lu AG06466 for the Treatment of Spasticity in Participants With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Intermittent theta burst stimulation (iTBS);   Other: Sham Intermittent theta burst stimulation (iTBS)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Nottingham&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Lu AG06466;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    H. Lundbeck A/S&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04931953?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04990219?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2021-06-18T16:00:00.000Z</t>
+          <t>2021-08-04T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4001,31 +3785,31 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2021-06-18T22:15:49</t>
+          <t>2021-07-30T17:01:11</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Description of Adherence to the Main Preventive Health Campaigns of Persons With Multiple Sclerosis</t>
+          <t>Evaluation of the Effect of Nabiximols Oromucosal Spray on Clinical Measures of Spasticity in Participants With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: phone interview&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Siena&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Spasticity With Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Nabiximols;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    GW Pharmaceuticals Ltd.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04930380?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04984278?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2021-06-18T16:00:00.000Z</t>
+          <t>2021-07-30T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4044,31 +3828,31 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2021-06-18T22:15:49</t>
+          <t>2021-07-29T14:28:11</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>The Gut Microbiome in Adult Multiple Sclerosis</t>
+          <t>Single Ascending Dose Study of SAR443820 in Healthy Adult Chinese and Japanese Female and Male Participants</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    National MS Center Melsbroek&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Healthy Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: RIPK1 inhibitor&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04929145?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04982991?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2021-06-17T16:00:00.000Z</t>
+          <t>2021-07-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4087,31 +3871,31 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2021-06-16T18:08:49</t>
+          <t>2021-07-28T18:48:11</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Multiple Sclerosis and Voiding Symptoms: How to Assess?</t>
+          <t>Telerehabilitation in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Lower Urinary Tract Symptoms;   Voiding Disorders&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: voiding phase evaluation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pierre and Marie Curie University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Telerehabilitation;   Other: Video exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Marmara University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04928716?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04979845?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2021-06-16T16:00:00.000Z</t>
+          <t>2021-07-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4130,31 +3914,31 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2021-06-16T18:08:49</t>
+          <t>2021-07-28T18:48:11</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Safety and Effectiveness of Cinnomer® (Glatiramer Acetate) in Multiple Sclerosis (MS) Treatment in Iran</t>
+          <t>Corticosteroid Effects on Asymptomatic Gadolinium-enhancing Lesions in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Glatiramer Acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cinnagen&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Magnetic Resonance Imaging;   Methylprednisolone&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Methylprednisolone succinate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Mazandaran University of Medical Sciences&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04928313?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04979650?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2021-06-16T16:00:00.000Z</t>
+          <t>2021-07-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4173,31 +3957,31 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2021-06-15T16:34:48</t>
+          <t>2021-07-28T18:48:11</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Efficacy and Safety of Ofatumumab and Siponimod Compared to Fingolimod in Pediatric Patients With Multiple Sclerosis</t>
+          <t>Using Patient-Reported Outcomes To Improve the Care of People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Fingolimod;   Drug: Ofatumumab;   Drug: Siponimod;   Other: Fingolimod placebo;   Other: Siponimod placebo;   Other: Ofatumumab placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Anxiety;   Depression;   Patient Satisfaction&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Intensive Use of Patient Reported Outcome Measures and Open PROM Availability to Treating Neurologist;   Other: Conservative Use of Patient Reported Outcome Measures and Blinded PROM Availability to Treating Neurologist&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alberta;   University Hospital Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04926818?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04979546?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2021-06-15T16:00:00.000Z</t>
+          <t>2021-07-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4216,31 +4000,31 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2021-06-14T17:57:48</t>
+          <t>2021-07-28T18:48:11</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Study to Assess the Efficacy of Mayzent on Microglia in Secondary Progressive Multiple Sclerosis</t>
+          <t>The Validity and Reliability of the Upper Extremity Exercise Testing (UULEX) in Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary-progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Mayzent;   Drug: Ocrevus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Robert Zivadinov, MD, PhD&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Upper extremity endurance test (UULEX)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Marmara University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04925557?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04979819?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2021-06-14T16:00:00.000Z</t>
+          <t>2021-07-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4259,31 +4043,31 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2021-06-14T17:57:48</t>
+          <t>2021-07-27T15:16:12</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Observational Study in Patients With Relapsing-Remitting Multiple Sclerosis Switched to Bafiertam® From Dimethyl Fumarate</t>
+          <t>Gray Matter Demyelination in Primary Progressive MS at 7T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: monomethyl fumarate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Banner Life Sciences LLC&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Primary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Danish Research Centre for Magnetic Resonance;   Scleroseforeningen;   Danish Multiple Sclerosis Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04925778?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04977622?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2021-06-14T16:00:00.000Z</t>
+          <t>2021-07-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4302,31 +4086,31 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2021-06-08T15:45:00</t>
+          <t>2021-07-23T12:56:11</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>EEG and TMS-based Biomarkers of ALS, MS and FTD</t>
+          <t>Strengthening Mental Abilities With Relational Training (SMART) in Multiple Sclerosis (MS): A Feasibility Trial</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Amyotrophic Lateral Sclerosis;   Frontotemporal Dementia;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: 128 electrode electroencephalography (EEG);   Procedure: Transcranial magnetic stimulation (TMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Dublin, Trinity College;   Motor Neurone Disease Association, UK;   Irish Research Council, IE;   Health Research Board, IE;   Research Motor Neurone, IE;   Thierry Latran Foundation, FR;   ALS Association, USA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: SMART;   Behavioral: Sham brain training (Sudoku)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Lincoln;   University of Exeter;   Nottinghamshire Healthcare NHS Trust;   National University of Ireland, Maynooth;   University of Nottingham&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04918251?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04975685?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2021-06-08T16:00:00.000Z</t>
+          <t>2021-07-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4345,31 +4129,31 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2021-06-08T15:45:00</t>
+          <t>2021-07-22T17:03:44</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Motor Asymmetry in Progressive Multiple Sclerosis Patients</t>
+          <t>Effects of Chiropractic Care on Cytokine Levels in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Primary Progressive;   Multiple Sclerosis, Secondary Progressive&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Radiation: Magnetic Resonance Imaging;   Diagnostic Test: Neurological examination;   Diagnostic Test: Multiple Sclerosis Functional Composite;   Diagnostic Test: Physiotherapist examination&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Spinal Manipulation;   Other: Sham Spinal Manipulation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Alabama at Birmingham&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04918225?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04972929?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2021-06-08T16:00:00.000Z</t>
+          <t>2021-07-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4388,31 +4172,31 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2021-06-03T15:01:28</t>
+          <t>2021-07-22T17:03:44</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Exercise Booster Sessions in People With Multiple Sclerosis</t>
+          <t>Functional Disorders of the Musculoskeletal System in People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Combination Product: Systematic aerobic training;   Combination Product: Systematic resistance training;   Combination Product: Aerobic training booster sessions;   Combination Product: Resistance training booster sessions&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Aarhus;   Oxford Brookes University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Rehabilitation;   Musculoskeletal Complication&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Manual physiotherapeutic correction (MFK) Method;   Behavioral: Dynamic Neuromuscular Stabilization (DNS) Method&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04913012?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04973501?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2021-06-03T16:00:00.000Z</t>
+          <t>2021-07-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4431,31 +4215,31 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2021-06-01T17:47:28</t>
+          <t>2021-07-21T12:32:44</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>A Comprehensive Assessment of Trunk, Scapula and Upper Limb in Neurological Patients. Reliability, Validity and Interrelatedness</t>
+          <t>Ocrelizumab or Alemtuzumab Compared With Autologous Hematopoietic Stem Cell Transplantation in Multiple Sclerosis - a Phase-2 Randomised Controlled Trial</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Stroke&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Clinical Scapular protocol (ClinScaP);   Other: the prevalence of trunk, scapula and upper limb impairments.;   Other: the interaction between trunk, scapula and upper limb impairments.&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Revalidatie &amp; MS Centrum Overpelt;   Ziekenhuis Oost-Limburg;   National MS Center Melsbroek;   Jessa Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing-Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Autologous Hematopoietic Stem Cell Transplantation;   Drug: Ocrelizumab;   Drug: Alemtuzumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Universitätsklinikum Hamburg-Eppendorf;   Neovii Biotech;   Clinical Trial Center North (CTC North GmbH &amp; Co. KG)&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04908891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04971005?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2021-05-31T16:00:00.000Z</t>
+          <t>2021-07-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4474,31 +4258,31 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2021-06-01T17:47:28</t>
+          <t>2021-07-21T12:32:44</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Evaluation of Safety, Tolerability and Preliminary Efficacy of EHP-101 in Relapsing Forms of Multiple Sclerosis</t>
+          <t>Quantifying Gait Alteration in Multiple Sclerosis Using a Wearable Device</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Forms of Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: EHP-101 25 mg OD;   Drug: EHP-101 25 mg BID;   Drug: EHP-101 50 mg OD;   Drug: EHP-101 50 mg BID&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Emerald Health Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Wearable sensor&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04909502?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04969848?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2021-05-31T16:00:00.000Z</t>
+          <t>2021-07-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4517,31 +4301,31 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2021-06-01T17:47:28</t>
+          <t>2021-07-20T13:49:06</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Creating Satisfying Engagement in Daily Life Through Coaching for People With Multiple Sclerosis</t>
+          <t>The Effect of Emotional Freedom Technique on Depression, Anxiety and Distress of Individuals With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Quality of Life&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Occupational Performance Coaching&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Queen's University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Anxiety;   Depressive Symptoms;   Distress;   Psychiatric Nursing&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Emotional Freedom Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dokuz Eylul University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04908085?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04969562?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2021-05-31T16:00:00.000Z</t>
+          <t>2021-07-20T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4560,31 +4344,31 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2021-05-28T12:44:08</t>
+          <t>2021-07-19T12:15:08</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Evaluation of New MRI Sequences Including 3D-FGAPSIR for the Optimization of Inflammatory Spinal Cord Lesions Research</t>
+          <t>Efficacy and Safety of Xacrel® (Ocrelizumab) in Participants With Relapsing Remitting Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Estimate the Number of Spinal Cord Lesions Detected With the 3D FGAPSIR Sequence That Were Not Detected With the 3D PSIR Sequence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Ocrelizumab (CinnaGen, Iran);   Biological: Ocrelizumab (Roche, Switzerland)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cinnagen&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04906928?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04966338?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2021-05-28T16:00:00.000Z</t>
+          <t>2021-07-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4603,31 +4387,31 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2021-05-28T12:44:08</t>
+          <t>2021-07-16T13:27:06</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Next-Gen MS: Feed-forward PRO Data for MS Research</t>
+          <t>An Observational Study to Investigate the Role of B Cells in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    EMD Serono Research &amp; Development Institute, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of B cells&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Oslo&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04907305?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04964336?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2021-05-28T16:00:00.000Z</t>
+          <t>2021-07-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4646,31 +4430,31 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2021-05-28T12:44:08</t>
+          <t>2021-07-16T13:27:06</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>The Therapeutic Effects of Forced Aerobic Exercise in Multiple Sclerosis</t>
+          <t>Analysis of MS Patients Who Have Had Greater Than 60 Infusions of Natalizumab</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Forced Aerobic Exercise (FE);   Behavioral: Voluntary Aerobic Exercise (VE)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Cleveland Clinic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Multiple Sclerosis Center of Northeastern New York&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04906057?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04964700?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2021-05-28T16:00:00.000Z</t>
+          <t>2021-07-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4689,31 +4473,31 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2021-05-27T12:09:08</t>
+          <t>2021-07-16T13:27:06</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Pilot Investigation to Evaluate FlowOx2.0™ for Experimental Treatment of Spasticity</t>
+          <t>RMS Study of BTK Inhibitor SAR442168</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Spasticity, Muscle;   Pain&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: FlowOx™&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Otivio AS;   Haukeland University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SAR442168&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Peking University Third Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04904016?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04964791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2021-05-27T16:00:00.000Z</t>
+          <t>2021-07-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4732,31 +4516,31 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2021-05-26T15:30:08</t>
+          <t>2021-07-15T12:52:04</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>The Possible Neuroprotective Effect of Ocrelizumab Via VEGF Protein Expression in Relapsing Multiple Sclerosis Patients</t>
+          <t>Effects of a User-centered Exergame Training on Motor and Cognitive Functions in PwMS</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Relapse&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    IRCCS National Neurological Institute "C. Mondino" Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Exergame Training&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Eling DeBruin&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04902690?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04963335?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2021-05-26T16:00:00.000Z</t>
+          <t>2021-07-15T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4775,31 +4559,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2021-05-20T11:40:26</t>
+          <t>2021-07-09T11:20:04</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Swiss Study of the Impact of Mayzent on SPMS Patients in a Long-term Non-interventional Study</t>
+          <t>A Study to Evaluate the Safety, Tolerability, and Exploratory Efficacy of IMS001 in Subjects With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis With Inflammatory Disease Activity&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: IMS001&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ImStem Biotechnology;   Rho, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04895202?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04956744?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2021-05-20T16:00:00.000Z</t>
+          <t>2021-07-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4818,31 +4602,31 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2021-05-19T11:05:28</t>
+          <t>2021-07-08T14:32:36</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Adapting mHealth Technology to Improve Patient Activation</t>
+          <t>Technology-assisted Conscientiousness Therapy for People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Fatigue self-management SMS intervention&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Washington University School of Medicine;   The Foundation for Barnes-Jewish Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Conscientiousness Coach&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    State University of New York at Buffalo&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04893590?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04953689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2021-05-19T16:00:00.000Z</t>
+          <t>2021-07-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4861,31 +4645,31 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2021-05-19T11:05:27</t>
+          <t>2021-07-07T11:59:36</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Evaluation of Clinical, Morphologic and Biochemical Markers in Multiple Sclerosis</t>
+          <t>Clinical Isolation Syndrome of Spinal Cord and Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: blood sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Graz&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Clinical Isolation Syndrome of Spinal Cord;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Peking University Third Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04892134?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04952246?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2021-05-19T16:00:00.000Z</t>
+          <t>2021-07-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4904,31 +4688,31 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2021-05-18T10:30:26</t>
+          <t>2021-07-07T11:59:36</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Investigation of the Effects of Technology Supported Different Physiotherapy Approaches on Patients With Multiple Sclerosis</t>
+          <t>Study Evaluating SARS-CoV-2 (COVID-19) Humoral Response After BNT162b2 Vaccine in Immunocompromised Adults Compared to Healthy Adults</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Technology Supported Task-Oriented Circuit Training;   Other: Home-based Telerehabilitation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Kidney Transplant;   Extracorporeal Dialysis;   Myeloma;   Cancer;   Hematologic Malignancy;   Multiple Sclerosis;   Hypergammaglobulinemia;   Malignant Tumor;   Hiv;   Diabetes Type 2&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Biological samples&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Régional d'Orléans&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04891341?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04952766?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2021-05-18T16:00:00.000Z</t>
+          <t>2021-07-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4947,31 +4731,31 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2021-05-17T17:47:26</t>
+          <t>2021-06-29T16:46:42</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Holter of Movement in Patients With Multiple Sclerosis in Controlled Environment.</t>
+          <t>CONNECT Trial of eSupport Online Health-coach Moderated Support Groups for PwMS</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Actimyo°;   Device: IMU&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: eSupport Health Weekly Group Sessions for PwMS&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    eSupport Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04888689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04943887?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2021-05-17T16:00:00.000Z</t>
+          <t>2021-06-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4990,31 +4774,31 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2021-05-14T12:06:26</t>
+          <t>2021-06-29T16:46:42</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>The Effects of Respiratory-based Telerehabilitaion in Patients With MS</t>
+          <t>Impact of Direct Current Electrical Stimulation on Spasticity Levels and Functional Muscle Use in MS</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Telerehabilitation;   Compliance, Patient&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: pulmonory based home exercises&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Anıl Tosun;   Trakya University&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: NeuBie&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centura Health;   NeuFit - Neurological Fitness and Education&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04887051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04942938?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2021-05-14T16:00:00.000Z</t>
+          <t>2021-06-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5033,31 +4817,31 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2021-05-13T16:26:30</t>
+          <t>2021-06-29T16:46:42</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2 COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
+          <t>Intrathecal Administration of DUOC-01 in Adults With Primary Progressive Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Primary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: DUOC-01&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Joanne Kurtzberg, MD&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04943289?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2021-05-03T16:00:00.000Z</t>
+          <t>2021-06-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5076,31 +4860,31 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2021-05-13T10:18:31</t>
+          <t>2021-06-29T16:46:42</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>An Examination of Cognitive Fatigue Using Functional Neuroimaging</t>
+          <t>Regular Exercise Improves Physical Capacity and Promotes Neurotrophins in Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Zeposia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Celgene;   Hackensack Meridian Health;   St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise Intervention;   Neuro-Degenerative Disease&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Regular Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Ege University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04885894?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04944251?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2021-05-13T16:00:00.000Z</t>
+          <t>2021-06-29T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5119,31 +4903,31 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2021-05-12T10:42:31</t>
+          <t>2021-06-28T16:23:24</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Holter of Movement in Patients With Multiple Sclerosis in Uncontrolled Environment.</t>
+          <t>PET Study to Determine the Relationship Between Plasma Concentrations and Muscarinic Type 1 Receptor (M1AChR) Occupancy of PIPE-307 in Healthy Volunteers</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Actimyo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: PIPE-307&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pipeline Therapeutics, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04882891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04941781?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2021-05-12T16:00:00.000Z</t>
+          <t>2021-06-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5162,31 +4946,31 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2021-05-11T11:06:31</t>
+          <t>2021-06-25T20:40:29</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Sport, Rehabilitation and Nutrition in Multiple Sclerosis: The LINUS Project</t>
+          <t>Special Drug-use Surveillance for Kesimpta for s.c. Injection 20 mg Pen</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: B-HIPE (Brief High Impact Preparatory Experience)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Relapsing-remitting Multiple Sclerosis;   Active Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Kesimpta&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04881422?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04940065?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2021-05-11T16:00:00.000Z</t>
+          <t>2021-06-25T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5205,31 +4989,31 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2021-05-10T12:29:31</t>
+          <t>2021-06-24T16:09:29</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Tenofovir Alafenamide for Treatment of Symptoms and Neuroprotection in Relapsing Remitting Multiple Sclerosis</t>
+          <t>Reading Problems Associated With Central Nervous System (CNS) Pathologies.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Fatigue&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: TENOFOVIR ALAFENAMIDE FUMARATE 25 Mg ORAL TABLET [VEMLIDY];   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Harvard Medical School;   Gilead Sciences&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Injury Brain;   Eye Abnormalities;   Multiple Sclerosis;   Parkinson Disease;   Ataxia, Cerebellar&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: eye tracking&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Instituto Universitario de Oftalmobiología Aplicada (Institute of Applied Ophthalmobiology) - IOBA;   Hospital Clínico Universitario de Valladolid;   Hospital del Río Hortega&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04880577?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04937725?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2021-05-10T16:00:00.000Z</t>
+          <t>2021-06-24T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5248,31 +5032,31 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2021-05-10T12:29:31</t>
+          <t>2021-06-23T16:33:29</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Proof-of-concept Study for SAR441344 in Relapsing Multiple Sclerosis</t>
+          <t>The Effect of Self-Acupressure Application on Functional Composite and Quality of Life in Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: SAR441344 IV;   Drug: placebo IV;   Drug: SAR441344 SC;   Drug: placebo SC;   Drug: MRI contrast-enhancing preparations&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Self-Acupressure&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istanbul Sabahattin Zaim University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04879628?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04936555?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2021-05-10T16:00:00.000Z</t>
+          <t>2021-06-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5291,31 +5075,31 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2021-05-07T11:43:30</t>
+          <t>2021-06-22T14:45:49</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Prevention of Clinical Multiple Sclerosis in Individuals With Radiologically Isolated Disease.</t>
+          <t>Prospective Effectiveness and Safety Study of Cladribine in Participants Who Change First-line DMD Treatments for Multiple Sclerosis (CLAD CROSS)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Radiologically Isolated Syndrome;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ocrelizumab;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Yale University;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Cladribine&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany;   Merck Hellas sa., Greece&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04877457?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04934800?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2021-05-07T16:00:00.000Z</t>
+          <t>2021-06-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5334,31 +5118,31 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2021-05-07T11:43:30</t>
+          <t>2021-06-21T20:04:49</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>A Open-label Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
+          <t>Investigation of Hand Functions and Related Parameters in People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis (RMS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Biological: mRNA COVID-19 vaccine;   Drug: interferon or glatiramer acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Uğur OVACIK;   Istanbul University-Cerrahpasa&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04878211?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04933110?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2021-05-07T16:00:00.000Z</t>
+          <t>2021-06-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5377,31 +5161,31 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2021-05-06T11:08:31</t>
+          <t>2021-06-21T20:04:49</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Sonification Techniques for Gait Training</t>
+          <t>Tele-Assessment and Face-to-Face Evaluation of Functional Gait Assessment in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Parkinson Disease;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Gait rehabilitation with "sonification";   Other: Standard gait rehabilitation (without sonification)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istituti Clinici Scientifici Maugeri SpA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istanbul University-Cerrahpasa&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04876339?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04932616?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2021-05-06T16:00:00.000Z</t>
+          <t>2021-06-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5420,31 +5204,31 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2021-05-06T11:08:31</t>
+          <t>2021-06-21T20:04:49</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>EMDR for Depressed People With Multiple Sclerosis</t>
+          <t>Post-Authorization Safety Study for Assessment of Pregnancy Outcomes in Patients Treated With Mayzent</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Depression&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Eye Movement Desensitization and Reprocessing - EMDR&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus;   EMDR Europe;   Catholic University of the Sacred Heart&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04875832?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04933552?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2021-05-06T16:00:00.000Z</t>
+          <t>2021-06-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5463,31 +5247,31 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2021-05-05T10:42:09</t>
+          <t>2021-06-18T22:15:49</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Sensor-based Assessment and Rehabilitation of Balance in Neurological Diseases</t>
+          <t>Feasibility of Neuromodulation With Connectivity-Guided iTBS for Cognitive Impairment in MS</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Stroke;   Multiple Sclerosis;   Parkinson Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Experimental Group;   Other: Control Group&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    IRCCS San Camillo, Venezia, Italy;   IRCCS San Raffaele;   Istituti Clinici Scientifici Maugeri SpA;   IRCCS National Neurological Institute "C. Mondino" Foundation;   I.R.C.C.S. Fondazione Santa Lucia&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Intermittent theta burst stimulation (iTBS);   Other: Sham Intermittent theta burst stimulation (iTBS)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Nottingham&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04874051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04931953?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2021-05-05T16:00:00.000Z</t>
+          <t>2021-06-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5506,31 +5290,31 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2021-05-05T10:42:09</t>
+          <t>2021-06-18T22:15:49</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Investigation of the Effect of Ocrelizumab on Peripheral Lymphocyte Immunophenotypes With Suppressive Capacity in MS</t>
+          <t>Description of Adherence to the Main Preventive Health Campaigns of Persons With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr Recai Turkoglu;   Health Sciences University Istanbul Haydarpaşa Numune Training and Research Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: phone interview&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Siena&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04874597?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04930380?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2021-05-05T16:00:00.000Z</t>
+          <t>2021-06-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5549,31 +5333,31 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2021-05-05T10:42:09</t>
+          <t>2021-06-18T22:15:49</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>From Genetics to Transcriptomics to Unravel the Mechanisms Behind a Poor Outcome in Multiple Sclerosis</t>
+          <t>The Gut Microbiome in Adult Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Biological sample collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    National MS Center Melsbroek&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04873492?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04929145?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2021-05-05T16:00:00.000Z</t>
+          <t>2021-06-17T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5592,31 +5376,31 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2021-05-03T11:30:09</t>
+          <t>2021-06-16T18:08:49</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2&amp;#x2F;COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
+          <t>Multiple Sclerosis and Voiding Symptoms: How to Assess?</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Lower Urinary Tract Symptoms;   Voiding Disorders&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: voiding phase evaluation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Pierre and Marie Curie University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04928716?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2021-05-03T16:00:00.000Z</t>
+          <t>2021-06-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5635,31 +5419,31 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2021-04-30T10:48:20</t>
+          <t>2021-06-16T18:08:49</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Validation of a Novel Instrument Task for Assessing Upper Limb</t>
+          <t>Safety and Effectiveness of Cinnomer® (Glatiramer Acetate) in Multiple Sclerosis (MS) Treatment in Iran</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Assessment of Arm and Hand Sensorimotor Functions in Multiple Sclerosis Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Assessment of the upper limb (VPIT + PPIT)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Swiss Federal Institute of Technology;   Kliniken Valens&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Glatiramer Acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Cinnagen&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04868370?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04928313?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2021-04-30T16:00:00.000Z</t>
+          <t>2021-06-16T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5678,31 +5462,31 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2021-04-29T20:44:18</t>
+          <t>2021-06-15T16:34:48</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis</t>
+          <t>Efficacy and Safety of Ofatumumab and Siponimod Compared to Fingolimod in Pediatric Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Fingolimod;   Drug: Ofatumumab;   Drug: Siponimod;   Other: Fingolimod placebo;   Other: Siponimod placebo;   Other: Ofatumumab placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04926818?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2021-04-22T16:00:00.000Z</t>
+          <t>2021-06-15T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5721,31 +5505,31 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2021-04-28T12:01:02</t>
+          <t>2021-06-14T17:57:48</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>COVID-19 and Multiple Sclerosis Disease Modifying Therapies</t>
+          <t>Study to Assess the Efficacy of Mayzent on Microglia in Secondary Progressive Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Covid19;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary-progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Mayzent;   Drug: Ocrevus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Robert Zivadinov, MD, PhD&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04863586?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04925557?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2021-04-28T16:00:00.000Z</t>
+          <t>2021-06-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5764,31 +5548,31 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2021-04-27T12:25:02</t>
+          <t>2021-06-14T17:57:48</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Validation of the French Adaptation of the MSWDQ-23 Questionnaire</t>
+          <t>Observational Study in Patients With Relapsing-Remitting Multiple Sclerosis Switched to Bafiertam® From Dimethyl Fumarate</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: questionnaires&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Nice&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: monomethyl fumarate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Banner Life Sciences LLC&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04860791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04925778?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2021-04-27T16:00:00.000Z</t>
+          <t>2021-06-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5807,31 +5591,31 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2021-04-27T12:25:02</t>
+          <t>2021-06-08T15:45:00</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Assessment of sNfL Levels, Atrophy of the Macula GCC by OCT and Whole Brain Atrophy by MRI to Predict Evolution of Neurological Disability in MS Patients</t>
+          <t>EEG and TMS-based Biomarkers of ALS, MS and FTD</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Diagnostic Test: Brain MRI;   Diagnostic Test: Spinal Cord MRI;   Diagnostic Test: Retinal imaging&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centre Hospitalier Universitaire de Nīmes;   Institut de Recherches en Biothérapie&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Amyotrophic Lateral Sclerosis;   Frontotemporal Dementia;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: 128 electrode electroencephalography (EEG);   Procedure: Transcranial magnetic stimulation (TMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Dublin, Trinity College;   Motor Neurone Disease Association, UK;   Irish Research Council, IE;   Health Research Board, IE;   Research Motor Neurone, IE;   Thierry Latran Foundation, FR;   ALS Association, USA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04860947?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04918251?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2021-04-27T16:00:00.000Z</t>
+          <t>2021-06-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5850,31 +5634,31 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2021-04-26T12:49:02</t>
+          <t>2021-06-08T15:45:00</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>MS Relapses During COVID-19 Pandemic</t>
+          <t>Motor Asymmetry in Progressive Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19;   Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: No Intervention&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Primary Progressive;   Multiple Sclerosis, Secondary Progressive&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Radiation: Magnetic Resonance Imaging;   Diagnostic Test: Neurological examination;   Diagnostic Test: Multiple Sclerosis Functional Composite;   Diagnostic Test: Physiotherapist examination&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04858763?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04918225?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2021-04-26T16:00:00.000Z</t>
+          <t>2021-06-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -5893,31 +5677,31 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2021-04-23T20:54:01</t>
+          <t>2021-06-03T15:01:28</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Effect of Variance on Error Correction During Coupling</t>
+          <t>Exercise Booster Sessions in People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: synchronisation abilities&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   National MS Center Melsbroek;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Combination Product: Systematic aerobic training;   Combination Product: Systematic resistance training;   Combination Product: Aerobic training booster sessions;   Combination Product: Resistance training booster sessions&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Aarhus;   Oxford Brookes University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04856384?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04913012?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2021-04-23T16:00:00.000Z</t>
+          <t>2021-06-03T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5936,31 +5720,31 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2021-04-23T20:54:01</t>
+          <t>2021-06-01T17:47:28</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Running Title: Walking to Music and in Silence on a Treadmill</t>
+          <t>A Comprehensive Assessment of Trunk, Scapula and Upper Limb in Neurological Patients. Reliability, Validity and Interrelatedness</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Walking with music with synchronisation;   Other: Walking with music without synchronisation;   Other: walking without music&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Stroke&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Clinical Scapular protocol (ClinScaP);   Other: the prevalence of trunk, scapula and upper limb impairments.;   Other: the interaction between trunk, scapula and upper limb impairments.&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Revalidatie &amp; MS Centrum Overpelt;   Ziekenhuis Oost-Limburg;   National MS Center Melsbroek;   Jessa Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04856345?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04908891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2021-04-23T16:00:00.000Z</t>
+          <t>2021-05-31T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5979,31 +5763,31 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2021-04-23T20:54:01</t>
+          <t>2021-06-01T17:47:28</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Deficient T Regulatory Cell (Treg) Function in Patients With Relapsing Remitting Multiple Sclerosis</t>
+          <t>Evaluation of Safety, Tolerability and Preliminary Efficacy of EHP-101 in Relapsing Forms of Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapse Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Thomas Jefferson University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Forms of Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: EHP-101 25 mg OD;   Drug: EHP-101 25 mg BID;   Drug: EHP-101 50 mg OD;   Drug: EHP-101 50 mg BID&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Emerald Health Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04857489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04909502?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2021-04-23T16:00:00.000Z</t>
+          <t>2021-05-31T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6022,31 +5806,31 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2021-04-22T20:19:01</t>
+          <t>2021-06-01T17:47:28</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Investigating the Effects of Wearable Robotic Exoskeleton for Improving Mobility and Cognition in Persons With MS</t>
+          <t>Creating Satisfying Engagement in Daily Life Through Coaching for People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Gait Disorders, Neurologic;   Motility Disorder;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Robotic Exoskeleton Rehabilitation;   Other: Conventional Gait Therapy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Kessler Institute for Rehabilitation&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Quality of Life&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Occupational Performance Coaching&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Queen's University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04855825?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04908085?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2021-04-22T16:00:00.000Z</t>
+          <t>2021-05-31T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6065,31 +5849,31 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2021-04-22T20:19:01</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis. A Two-center, Prospective Observational Study</t>
+          <t>Evaluation of New MRI Sequences Including 3D-FGAPSIR for the Optimization of Inflammatory Spinal Cord Lesions Research</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Estimate the Number of Spinal Cord Lesions Detected With the 3D FGAPSIR Sequence That Were Not Detected With the 3D PSIR Sequence&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04906928?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2021-04-22T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6108,31 +5892,31 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2021-04-21T10:57:40</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Investigation of the Effects of Selective Exercise Training in Multiple Sclerosis</t>
+          <t>Next-Gen MS: Feed-forward PRO Data for MS Research</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanko University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    EMD Serono Research &amp; Development Institute, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04853654?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04907305?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2021-04-21T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6151,31 +5935,31 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2021-04-19T11:50:37</t>
+          <t>2021-05-28T12:44:08</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>GentleCath Air (Urinary Self-catheterization) - Pain in Female Patients With Neurological Vesico-sphincter Disorders</t>
+          <t>The Therapeutic Effects of Forced Aerobic Exercise in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Multiple Sclerosis;   Parkinsonian Disorders;   Allodynia&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: GentleCath™ Air catheter&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ConvaTec Inc.;   ClinSearch&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Forced Aerobic Exercise (FE);   Behavioral: Voluntary Aerobic Exercise (VE)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    The Cleveland Clinic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04847609?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04906057?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2021-04-19T16:00:00.000Z</t>
+          <t>2021-05-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6194,31 +5978,31 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2021-04-19T11:50:37</t>
+          <t>2021-05-27T12:09:08</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>A Multicenter Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
+          <t>Pilot Investigation to Evaluate FlowOx2.0™ for Experimental Treatment of Spasticity</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Ofatumumab;   Other: Covid-19 vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Spasticity, Muscle;   Pain&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: FlowOx™&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Otivio AS;   Haukeland University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04847596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04904016?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2021-04-19T16:00:00.000Z</t>
+          <t>2021-05-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6237,31 +6021,31 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2021-04-14T10:53:38</t>
+          <t>2021-05-26T15:30:08</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Study of the Humoral Response to SARS-CoV-2 Variants and of the Cellular Response After Vaccination Against COVID-19 in Immunocompromised People</t>
+          <t>The Possible Neuroprotective Effect of Ocrelizumab Via VEGF Protein Expression in Relapsing Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Autoimmune or Autoinflammatory Diseases;   HIV;   Multiple Sclerosis;   Solid Tumors or Cancers;   Solid Organ Transplant&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood samples for the study of the humoral response to SARS-CoV-2 variants and of the cellular response after vaccination against COVID-19&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Assistance Publique - Hôpitaux de Paris&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis Relapse&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    IRCCS National Neurological Institute "C. Mondino" Foundation&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04844489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04902690?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2021-04-14T16:00:00.000Z</t>
+          <t>2021-05-26T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6280,31 +6064,31 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2021-04-14T10:53:38</t>
+          <t>2021-05-20T11:40:26</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Effects of Lutein Supplementation on Cognition and MPOD in Multiple Sclerosis Patients-</t>
+          <t>Swiss Study of the Impact of Mayzent on SPMS Patients in a Long-term Non-interventional Study</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Dietary Supplement: Lutein;   Dietary Supplement: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Illinois at Urbana-Champaign;   Division of Nutritional Sciences, University of Illinois at Urbana-Champaign&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis With Inflammatory Disease Activity&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Siponimod&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04843813?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04895202?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2021-04-14T16:00:00.000Z</t>
+          <t>2021-05-20T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6323,31 +6107,31 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2021-04-14T10:53:38</t>
+          <t>2021-05-19T11:05:28</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Covid19 Multiple Sclerosis Vaccine Biospecimen Study</t>
+          <t>Adapting mHealth Technology to Improve Patient Activation</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SARS-COV-2 mRNA Vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Fatigue self-management SMS intervention&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Washington University School of Medicine;   The Foundation for Barnes-Jewish Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04843774?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04893590?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2021-04-14T16:00:00.000Z</t>
+          <t>2021-05-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6366,31 +6150,31 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2021-04-09T13:11:11</t>
+          <t>2021-05-19T11:05:27</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>The Effect of Telerehabilitation Based Pilates Training in Multiple Sclerosis Patients</t>
+          <t>Evaluation of Clinical, Morphologic and Biochemical Markers in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Telerehabilitation-based Pilates Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Gazi University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: blood sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Graz&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04838886?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04892134?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2021-04-09T16:00:00.000Z</t>
+          <t>2021-05-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6409,31 +6193,31 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2021-04-09T13:11:11</t>
+          <t>2021-05-18T10:30:26</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>TELEMS: Feasibility of Remote Patient Visits in MS</t>
+          <t>Investigation of the Effects of Technology Supported Different Physiotherapy Approaches on Patients With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: EDSS;   Other: Discussion of symptoms&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Vienna&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Technology Supported Task-Oriented Circuit Training;   Other: Home-based Telerehabilitation&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04838990?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04891341?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2021-04-09T16:00:00.000Z</t>
+          <t>2021-05-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6452,31 +6236,31 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-05-17T17:47:26</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Comparing the Antibody Response to COVID-19 Vaccination in Multiple Sclerosis Patients Treated With Ocrelizumab or Natalizumab</t>
+          <t>Holter of Movement in Patients With Multiple Sclerosis in Controlled Environment.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases of the Nervous System;   Nervous System Diseases;   Demyelinating Diseases;   Autoimmune Diseases;   Immune System Diseases;   Pathologic Processes&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Elecsys semi-quantitative Anti-SARS-CoV-2 antibody test&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dragonfly Research, LLC&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Actimyo°;   Device: IMU&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04837651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04888689?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-05-17T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6495,31 +6279,31 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-05-14T12:06:26</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Retrospective Study on Registry Data to Evaluate the Impact of Ocrelizumab Used in Routine Care in Patients With RRMS</t>
+          <t>The Effects of Respiratory-based Telerehabilitaion in Patients With MS</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Strasbourg, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Telerehabilitation;   Compliance, Patient&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: pulmonory based home exercises&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Anıl Tosun;   Trakya University&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04838015?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04887051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-05-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6538,31 +6322,31 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-05-13T16:26:30</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Effect of Disease Modifying Therapy on Antibody Response to COVID19 Vaccination in Multiple Sclerosis</t>
+          <t>Exploring the Immune Response to SARS-CoV-2 COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04834401?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2021-04-07T16:00:00.000Z</t>
+          <t>2021-05-03T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6581,31 +6365,31 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-05-13T10:18:31</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Impact of Neuropsychological Disorders in Multiple Sclerosis</t>
+          <t>An Examination of Cognitive Fatigue Using Functional Neuroimaging</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Three dimensional gait analysis with eyetracking&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Zeposia&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Celgene;   Hackensack Meridian Health;   St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04837365?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04885894?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-05-13T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6624,31 +6408,31 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2021-04-08T11:57:29</t>
+          <t>2021-05-12T10:42:31</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Therapeutic Adherence of Multiple Sclerosis Patients</t>
+          <t>Holter of Movement in Patients With Multiple Sclerosis in Uncontrolled Environment.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Study of the role of sociocognitive factors&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Actimyo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr. Stéphanie Delstanche;   SYSNAV;   Centre Hospitalier Universitaire de Liège&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04837352?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04882891?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2021-04-08T16:00:00.000Z</t>
+          <t>2021-05-12T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6667,31 +6451,31 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2021-04-06T11:14:24</t>
+          <t>2021-05-11T11:06:31</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>The Effects of Relaxation Techniques on Pain, Fatigue and Kinesiophobia in Multiple Sclerosis Patients: A Three Arms Randomized Trial</t>
+          <t>Sport, Rehabilitation and Nutrition in Multiple Sclerosis: The LINUS Project</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Pain, Chronic;   Fatigue Syndrome, Chronic;   Kinesiophobia&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: PMR: Progressive Muscle Relaxation;   Behavioral: BRT:Benson Relaxation Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: B-HIPE (Brief High Impact Preparatory Experience)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04833673?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04881422?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2021-04-06T16:00:00.000Z</t>
+          <t>2021-05-11T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6710,31 +6494,31 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2021-04-05T11:38:24</t>
+          <t>2021-05-10T12:29:31</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Study of Tysabri in Early Relapsing Remitting Multiple Sclerosis Participants</t>
+          <t>Tenofovir Alafenamide for Treatment of Symptoms and Neuroprotection in Relapsing Remitting Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Biogen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Fatigue&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: TENOFOVIR ALAFENAMIDE FUMARATE 25 Mg ORAL TABLET [VEMLIDY];   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Harvard Medical School;   Gilead Sciences&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04832399?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04880577?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2021-04-05T16:00:00.000Z</t>
+          <t>2021-05-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6753,31 +6537,31 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2021-04-05T11:38:24</t>
+          <t>2021-05-10T12:29:31</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Effects of a Multiple Sclerosis Relapse Therapy on Offspring Neurocognitive Development and Behaviour</t>
+          <t>Proof-of-concept Study for SAR441344 in Relapsing Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Exposure to methylprednisolone during pregnancy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jena University Hospital;   Ruhr University of Bochum;   Interdisciplinary Center of Clinical Research of the Medical Faculty Jena;   Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: SAR441344 IV;   Drug: placebo IV;   Drug: SAR441344 SC;   Drug: placebo SC;   Drug: MRI contrast-enhancing preparations&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanofi&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04832269?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04879628?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2021-04-05T16:00:00.000Z</t>
+          <t>2021-05-10T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6796,31 +6580,31 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2021-03-30T11:05:24</t>
+          <t>2021-05-07T11:43:30</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Imaging Evaluation of Central Nervous Autoimmune Diseases</t>
+          <t>Prevention of Clinical Multiple Sclerosis in Individuals With Radiologically Isolated Disease.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    MS (Multiple Sclerosis);   NMO Spectrum Disorder&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Qilu Hospital of Shandong University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Radiologically Isolated Syndrome;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ocrelizumab;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Yale University;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04822623?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04877457?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2021-03-30T16:00:00.000Z</t>
+          <t>2021-05-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6839,31 +6623,31 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2021-03-30T11:05:24</t>
+          <t>2021-05-07T11:43:30</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Effects of Repeated Mesenchymal Stem Cells (MSC) in Patients With Progressive Multiple Sclerosis</t>
+          <t>A Open-label Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Mesenchymal Stem Cells (MSC)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hadassah Medical Organization&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis (RMS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Biological: mRNA COVID-19 vaccine;   Drug: interferon or glatiramer acetate&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04823000?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04878211?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2021-03-30T16:00:00.000Z</t>
+          <t>2021-05-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -6882,31 +6666,31 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2021-03-29T11:19:37</t>
+          <t>2021-05-06T11:08:31</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Spinal Cord Lesion Detection in Multiple Sclerosis Using Novel MRI Sequences</t>
+          <t>Sonification Techniques for Gait Training</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: SC MRI;   Other: patient questionnaire&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Basel, Switzerland;   Freie Akademische Gesellschaft Basel&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Parkinson Disease;   Stroke;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Gait rehabilitation with "sonification";   Other: Standard gait rehabilitation (without sonification)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Istituti Clinici Scientifici Maugeri SpA&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04819737?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04876339?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2021-03-29T16:00:00.000Z</t>
+          <t>2021-05-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6925,31 +6709,31 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2021-03-29T11:19:36</t>
+          <t>2021-05-06T11:08:31</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Study of the Mechanisms of Action of Cladribine in Multiple Sclerosis</t>
+          <t>EMDR for Depressed People With Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: biological collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Rouen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Depression&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Eye Movement Desensitization and Reprocessing - EMDR&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Fondazione Don Carlo Gnocchi Onlus;   EMDR Europe;   Catholic University of the Sacred Heart&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04821596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04875832?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2021-03-29T16:00:00.000Z</t>
+          <t>2021-05-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6968,31 +6752,31 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2021-03-26T13:30:35</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Botulinum Toxin A vs Anticholinergic Treatment of Neurogenic Overactive Bladder in Patients With Multiple Sclerosis</t>
+          <t>Sensor-based Assessment and Rehabilitation of Balance in Neurological Diseases</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Urinary Bladder, Neurogenic;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: VESIcare 10Mg Tablet;   Drug: Botox 100 UNT Injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Brigitte Schürch;   Centre Hospitalier Universitaire Vaudois&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Stroke;   Multiple Sclerosis;   Parkinson Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Experimental Group;   Other: Control Group&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    IRCCS San Camillo, Venezia, Italy;   IRCCS San Raffaele;   Istituti Clinici Scientifici Maugeri SpA;   IRCCS National Neurological Institute "C. Mondino" Foundation;   I.R.C.C.S. Fondazione Santa Lucia&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04819360?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04874051?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2021-03-26T16:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7011,31 +6795,31 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2021-03-26T13:30:35</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>The Effect of the Arabic Otago Exercise Program on Falls in People With Multiple Sclerosis</t>
+          <t>Investigation of the Effect of Ocrelizumab on Peripheral Lymphocyte Immunophenotypes With Suppressive Capacity in MS</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Otago Exercise Program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Jordan&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Dr Recai Turkoglu;   Health Sciences University Istanbul Haydarpaşa Numune Training and Research Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04818008?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04874597?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2021-03-26T16:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7054,31 +6838,31 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2021-03-25T11:16:53</t>
+          <t>2021-05-05T10:42:09</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Efficacy and Safety Study of MYOBLOC® in the Treatment of Adult Upper Limb Spasticity</t>
+          <t>From Genetics to Transcriptomics to Unravel the Mechanisms Behind a Poor Outcome in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spasticity;   Cerebrovascular Accident;   Multiple Sclerosis;   Traumatic Brain Injury;   Cervical Spinal Cord Injury;   Cerebral Palsy&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: rimabotulinumtoxinB;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Supernus Pharmaceuticals, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Biological sample collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nantes University Hospital&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04815967?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04873492?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2021-03-25T16:00:00.000Z</t>
+          <t>2021-05-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7097,31 +6881,31 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-05-03T11:30:09</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Neuroplasticity of Cortical Areas Induced by Cognitive Training in Patients With Multiple Sclerosis MS-NEUROPLAST</t>
+          <t>Exploring the Immune Response to SARS-CoV-2&amp;#x2F;COVID-19 Vaccines in Patients With Relapsing Multiple Sclerosis (RMS) Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Decline&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Cognitive Training&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Aristotle University Of Thessaloniki;   King Fahad Medical City&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ofatumumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04806568?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04869358?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-05-03T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7140,31 +6924,31 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-04-30T10:48:20</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Virtual Reality in Physical Therapy in Multiple Sclerosis</t>
+          <t>Validation of a Novel Instrument Task for Assessing Upper Limb</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Neuroproprioceptive "facilitation and inhibition" in virtual reality;   Other: Neuroproprioceptive "facilitation and inhibition"&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Assessment of Arm and Hand Sensorimotor Functions in Multiple Sclerosis Subjects&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Assessment of the upper limb (VPIT + PPIT)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Swiss Federal Institute of Technology;   Kliniken Valens&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04807738?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04868370?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-04-30T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7183,31 +6967,31 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2021-03-19T11:55:20</t>
+          <t>2021-04-29T20:44:18</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Nature of the Link Between Executive Functions and Theory of Mind in Multiple Sclerosis</t>
+          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Theory of Mind&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04806217?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2021-03-19T16:00:00.000Z</t>
+          <t>2021-04-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7226,31 +7010,31 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2021-03-18T11:23:53</t>
+          <t>2021-04-28T12:01:02</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Emotions in Multiple Sclerosis</t>
+          <t>COVID-19 and Multiple Sclerosis Disease Modifying Therapies</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Carrying out a tests and questionnaires battery&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Covid19;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Enrolling by invitation&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04804787?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04863586?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2021-03-18T16:00:00.000Z</t>
+          <t>2021-04-28T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7269,31 +7053,31 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2021-03-15T14:45:21</t>
+          <t>2021-04-27T12:25:02</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Pathogenicity of B and CD4 T Cell Subsets in Multiple Sclerosis</t>
+          <t>Validation of the French Adaptation of the MSWDQ-23 Questionnaire</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: blood sample;   Biological: cerebro-spinal fluid&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   University of Bordeaux&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: questionnaires&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Nice&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04798651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04860791?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2021-03-15T16:00:00.000Z</t>
+          <t>2021-04-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7312,31 +7096,31 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2021-03-15T14:45:21</t>
+          <t>2021-04-27T12:25:02</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Efficacy of COVID-19 Vaccination in Patients With Multiple Sclerosis Treated With Immune Modulating Medication</t>
+          <t>Assessment of sNfL Levels, Atrophy of the Macula GCC by OCT and Whole Brain Atrophy by MRI to Predict Evolution of Neurological Disability in MS Patients</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of cell-mediated and antibody-mediated immunity to SARS-CoV-2 virus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Providence Health &amp; Services&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Diagnostic Test: Brain MRI;   Diagnostic Test: Spinal Cord MRI;   Diagnostic Test: Retinal imaging&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Centre Hospitalier Universitaire de Nīmes;   Institut de Recherches en Biothérapie&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04796584?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04860947?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2021-03-15T16:00:00.000Z</t>
+          <t>2021-04-27T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7355,31 +7139,31 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2021-03-12T14:58:20</t>
+          <t>2021-04-26T12:49:02</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Role of Individualized Versus Traditional Exercise in Combating Fatigue in Fatigued Multiple Sclerosis Patients</t>
+          <t>MS Relapses During COVID-19 Pandemic</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Adapted and individualized physical training program;   Other: traditional training program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Saint Etienne&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19;   Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: No Intervention&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Nottingham University Hospitals NHS Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04796272?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04858763?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2021-03-12T17:00:00.000Z</t>
+          <t>2021-04-26T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7398,31 +7182,31 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:31</t>
+          <t>2021-04-23T20:54:01</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Post-COntrast 3D SE T1 Versus Coronal SE T1-WI MRI in Detecting Optic Neuritis (COCON)</t>
+          <t>Effect of Variance on Error Correction During Coupling</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: synchronisation abilities&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   National MS Center Melsbroek;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04793087?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04856384?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-04-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7441,31 +7225,31 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:31</t>
+          <t>2021-04-23T20:54:01</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3D FLAIR Versus Coronal T2-WI MRI in Detecting Optic Neuritis (FLACON)</t>
+          <t>Running Title: Walking to Music and in Silence on a Treadmill</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis;   Encephalopathy&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Walking with music with synchronisation;   Other: Walking with music without synchronisation;   Other: walking without music&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Hasselt University;   Noorderhart Revalidatie &amp; MS&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04792866?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04856345?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-04-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7484,31 +7268,31 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2021-03-11T12:25:30</t>
+          <t>2021-04-23T20:54:01</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Exploring the Immune Response to SARS-CoV-2 modRNA Vaccines in Patients With Secondary Progressive Multiple Sclerosis (AMA-VACC)</t>
+          <t>Deficient T Regulatory Cell (Treg) Function in Patients With Relapsing Remitting Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: BAF312;   Drug: Baseline disease modifying therapies (DMTs)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapse Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Thomas Jefferson University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04792567?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04857489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2021-03-11T17:00:00.000Z</t>
+          <t>2021-04-23T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7527,31 +7311,31 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2021-03-09T14:59:53</t>
+          <t>2021-04-22T20:19:01</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Open Label Randomized Multicenter to Assess Efficacy &amp;amp; Tolerability of Ofatumumab 20mg vs. First Line DMT in RMS</t>
+          <t>Investigating the Effects of Wearable Robotic Exoskeleton for Improving Mobility and Cognition in Persons With MS</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Drug: First line DMT&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Gait Disorders, Neurologic;   Motility Disorder;   Cognitive Impairment&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Robotic Exoskeleton Rehabilitation;   Other: Conventional Gait Therapy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Kessler Foundation;   Kessler Institute for Rehabilitation&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04788615?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855825?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2021-03-09T17:00:00.000Z</t>
+          <t>2021-04-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7570,31 +7354,31 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2021-03-09T14:59:53</t>
+          <t>2021-04-22T20:19:01</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>T Cell Profiling in Patients With Multiple Sclerosis</t>
+          <t>Symptom Burden in Patients Treated With Ocrelizumab for Multiple Sclerosis. A Two-center, Prospective Observational Study</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood Sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Boston Children's Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    NYU Langone Health;   Genentech, Inc.&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04789551?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04855617?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2021-03-09T17:00:00.000Z</t>
+          <t>2021-04-22T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7613,31 +7397,31 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-04-21T10:57:40</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Behavioral Intervention for Physical Activity and Sexual Dysfunction in Multiple Sclerosis</t>
+          <t>Investigation of the Effects of Selective Exercise Training in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Sexual Dysfunction&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Behavioural intervention for physical activity for multiple sclerosis (BIPAMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alabama at Birmingham;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Exercise&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sanko University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04768777?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04853654?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2021-02-24T17:00:00.000Z</t>
+          <t>2021-04-21T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7656,31 +7440,31 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-04-19T11:50:37</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>miRNA Biomarkers in Multiple Sclerosis</t>
+          <t>GentleCath Air (Urinary Self-catheterization) - Pain in Female Patients With Neurological Vesico-sphincter Disorders</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   miRNA;   Epigenetic;   Biomarker&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Genetic: miRNA&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Gaziantep&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spinal Cord Injuries;   Multiple Sclerosis;   Parkinsonian Disorders;   Allodynia&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: GentleCath™ Air catheter&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    ConvaTec Inc.;   ClinSearch&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04772495?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04847609?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2021-02-26T17:00:00.000Z</t>
+          <t>2021-04-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7699,31 +7483,31 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-04-19T11:50:37</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Comparing the Safety and Benefit of Natalizumab (Tysabri®) At-home Infusion vs At-hospital Infusion in Multiple Sclerosis</t>
+          <t>A Multicenter Study to Assess Response to COVID-19 Vaccine in Multiple Sclerosis Participants Treated With Ofatumumab</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: At-home natalizumab treated MS patient&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Nantes University Hospital;   Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Ofatumumab;   Other: Covid-19 vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04777539?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04847596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2021-03-02T17:00:00.000Z</t>
+          <t>2021-04-19T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7742,31 +7526,31 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-04-14T10:53:38</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ATOMIC (Active Teens Multiple Sclerosis) Physical Activity Research Program</t>
+          <t>Study of the Humoral Response to SARS-CoV-2 Variants and of the Cellular Response After Vaccination Against COVID-19 in Immunocompromised People</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Pediatric Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Physical Activity (PA) Intervention;   Behavioral: Waitlist attention-control&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    The Hospital for Sick Children;   Children's Hospital of Philadelphia;   University of Alabama at Birmingham;   Queen's University;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Autoimmune or Autoinflammatory Diseases;   HIV;   Multiple Sclerosis;   Solid Tumors or Cancers;   Solid Organ Transplant&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood samples for the study of the humoral response to SARS-CoV-2 variants and of the cellular response after vaccination against COVID-19&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Assistance Publique - Hôpitaux de Paris&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04782466?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04844489?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2021-03-04T17:00:00.000Z</t>
+          <t>2021-04-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7785,31 +7569,31 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-04-14T10:53:38</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Digital Gait Analysis in the Home Environment of Patients With Multiple Sclerosis</t>
+          <t>Effects of Lutein Supplementation on Cognition and MPOD in Multiple Sclerosis Patients-</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Medical Valley Digital Health Application Center GmbH;   Celgene Corporation;   NeuroSys GmbH;   Fraunhofer Institute for Integrated Circuits IIS;   Portabiles HealthCare Technologies GmbH;   University of Regensburg&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Dietary Supplement: Lutein;   Dietary Supplement: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Illinois at Urbana-Champaign;   Division of Nutritional Sciences, University of Illinois at Urbana-Champaign&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04771858?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04843813?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2021-02-25T17:00:00.000Z</t>
+          <t>2021-04-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7828,31 +7612,31 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-04-14T10:53:38</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Acceptability of Exoskeleton Assisted Walking for Persons With Mobility Issues Due to Multiple Sclerosis</t>
+          <t>Covid19 Multiple Sclerosis Vaccine Biospecimen Study</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Pathologic Processes;   Sclerosis;   Autoimmune Diseases of the Nervous System;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Standard Exercise Training;   Device: Phoenix Exoskeleton suit&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sheffield Teaching Hospitals NHS Foundation Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: SARS-COV-2 mRNA Vaccine&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    NYU Langone Health&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04786821?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04843774?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2021-03-08T17:00:00.000Z</t>
+          <t>2021-04-14T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7871,31 +7655,31 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-04-09T13:11:11</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Addition of Belimumab to B-cell Depletion in Relapsing-remitting Multiple Sclerosis</t>
+          <t>The Effect of Telerehabilitation Based Pilates Training in Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Belimumab;   Drug: Short-course Ocrelizumab;   Drug: Continued Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Johns Hopkins University;   GlaxoSmithKline&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Telerehabilitation-based Pilates Exercise&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Gazi University&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04767698?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838886?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2021-02-23T17:00:00.000Z</t>
+          <t>2021-04-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7914,31 +7698,31 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2021-03-08T13:43:03</t>
+          <t>2021-04-09T13:11:11</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>The Effect of Extra Virgin Olive Oil in People With Multiple Sclerosis</t>
+          <t>TELEMS: Feasibility of Remote Patient Visits in MS</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Dietary Supplement: High Phenolic Extra Virgin Olive Oil&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Cyprus;   World Olive Center for Health;   Ellis-Farm, Eliama Daily Value&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: EDSS;   Other: Discussion of symptoms&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Medical University of Vienna&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04787497?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838990?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2021-03-08T17:00:00.000Z</t>
+          <t>2021-04-09T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7957,31 +7741,31 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2021-03-08T12:17:02</t>
+          <t>2021-04-08T11:57:29</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Extension to the MAGNIFY MS Trial on Mavenclad® (Magnify MS Extension)</t>
+          <t>Comparing the Antibody Response to COVID-19 Vaccination in Multiple Sclerosis Patients Treated With Ocrelizumab or Natalizumab</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases of the Nervous System;   Nervous System Diseases;   Demyelinating Diseases;   Autoimmune Diseases;   Immune System Diseases;   Pathologic Processes&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Device: Elecsys semi-quantitative Anti-SARS-CoV-2 antibody test&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Dragonfly Research, LLC&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04783935?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2021-03-05T17:00:00.000Z</t>
+          <t>2021-04-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -8000,31 +7784,31 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2021-03-08T12:17:02</t>
+          <t>2021-04-08T11:57:29</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Cognition and HRQoL in Adults With Highly-active RMS in Year 3 and 4 After Initial Mavenclad® Dose (CLARIFY MS Extension)</t>
+          <t>Retrospective Study on Registry Data to Evaluate the Impact of Ocrelizumab Used in Routine Care in Patients With RRMS</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Strasbourg, France&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04776213?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04838015?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2021-03-01T17:00:00.000Z</t>
+          <t>2021-04-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -8043,31 +7827,31 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2021-03-02T14:12:09</t>
+          <t>2021-04-08T11:57:29</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>COVID-19: SARS Vaccination</t>
+          <t>Effect of Disease Modifying Therapy on Antibody Response to COVID19 Vaccination in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Covid19&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    St. Barnabas Medical Center&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04834401?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2021-02-21T17:00:00.000Z</t>
+          <t>2021-04-07T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -8086,31 +7870,31 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-04-08T11:57:29</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Antibody Response to COVID-19 Vaccines in Liver Disease Patients</t>
+          <t>Impact of Neuropsychological Disorders in Multiple Sclerosis</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    Chronic Liver Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Biological: CoronaVac;   Biological: AZD1222&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Humanity &amp; Health Medical Group Limited&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Three dimensional gait analysis with eyetracking&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04775069?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837365?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2021-03-01T17:00:00.000Z</t>
+          <t>2021-04-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -8129,31 +7913,31 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-04-08T11:57:29</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Study to Evaluate the Safety, Tolerability, and Immunogenicity of SARS CoV-2 RNA Vaccine Candidate (BNT162b2) Against COVID-19 in Healthy Pregnant Women 18 Years of Age and Older</t>
+          <t>Therapeutic Adherence of Multiple Sclerosis Patients</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV-2 Infection;   COVID-19;   Maternal Immunization&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    BioNTech SE;   Pfizer&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Study of the role of sociocognitive factors&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04754594?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04837352?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2021-02-15T17:00:00.000Z</t>
+          <t>2021-04-08T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8172,31 +7956,31 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-04-06T11:14:24</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>National Cohort Study of Effectiveness and Safety of SARS-CoV-2&amp;#x2F;COVID-19 Vaccines (ENFORCE)</t>
+          <t>The Effects of Relaxation Techniques on Pain, Fatigue and Kinesiophobia in Multiple Sclerosis Patients: A Three Arms Randomized Trial</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Condition&lt;/b&gt;:    SARS-CoV Infection&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: COMIRNATY - BioNTech Manufacturing GmbH;   Biological: COVID-19 Vaccine Moderna dispersion for injection - MODERNA BIOTECH;   Biological: COVID-19 Vaccine AstraZeneca suspension for injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jens D Lundgren, MD;   Ministry of the Interior and Health, Denmark&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Pain, Chronic;   Fatigue Syndrome, Chronic;   Kinesiophobia&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: PMR: Progressive Muscle Relaxation;   Behavioral: BRT:Benson Relaxation Technique&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hacettepe University&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04760132?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04833673?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2021-02-18T17:00:00.000Z</t>
+          <t>2021-04-06T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8215,31 +7999,31 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2021-04-05T11:38:24</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>COVID-19: SARS Vaccination Reactions</t>
+          <t>Study of Tysabri in Early Relapsing Remitting Multiple Sclerosis Participants</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Relapsing Remitting Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Natalizumab&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Biogen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04832399?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2021-02-21T17:00:00.000Z</t>
+          <t>2021-04-05T16:00:00.000Z</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8253,7 +8037,1512 @@
         <v>1</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>35</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2021-04-05T11:38:24</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Effects of a Multiple Sclerosis Relapse Therapy on Offspring Neurocognitive Development and Behaviour</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Exposure to methylprednisolone during pregnancy&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jena University Hospital;   Ruhr University of Bochum;   Interdisciplinary Center of Clinical Research of the Medical Faculty Jena;   Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04832269?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2021-04-05T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>34</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2021-03-30T11:05:24</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Imaging Evaluation of Central Nervous Autoimmune Diseases</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    MS (Multiple Sclerosis);   NMO Spectrum Disorder&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: MRI&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Qilu Hospital of Shandong University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04822623?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>33</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2021-03-30T11:05:24</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Effects of Repeated Mesenchymal Stem Cells (MSC) in Patients With Progressive Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Biological: Mesenchymal Stem Cells (MSC)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Hadassah Medical Organization&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04823000?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2021-03-30T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>32</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2021-03-29T11:19:37</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Spinal Cord Lesion Detection in Multiple Sclerosis Using Novel MRI Sequences</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Procedure: SC MRI;   Other: patient questionnaire&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Basel, Switzerland;   Freie Akademische Gesellschaft Basel&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04819737?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2021-03-29T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>31</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2021-03-29T11:19:36</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Study of the Mechanisms of Action of Cladribine in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: biological collection&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University Hospital, Rouen&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04821596?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2021-03-29T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>30</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2021-03-26T13:30:35</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Botulinum Toxin A vs Anticholinergic Treatment of Neurogenic Overactive Bladder in Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Urinary Bladder, Neurogenic;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: VESIcare 10Mg Tablet;   Drug: Botox 100 UNT Injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Brigitte Schürch;   Centre Hospitalier Universitaire Vaudois&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04819360?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2021-03-26T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>29</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2021-03-26T13:30:35</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>The Effect of the Arabic Otago Exercise Program on Falls in People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Otago Exercise Program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Jordan&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04818008?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2021-03-26T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>28</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2021-03-25T11:16:53</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Efficacy and Safety Study of MYOBLOC® in the Treatment of Adult Upper Limb Spasticity</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Spasticity;   Cerebrovascular Accident;   Multiple Sclerosis;   Traumatic Brain Injury;   Cervical Spinal Cord Injury;   Cerebral Palsy&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: rimabotulinumtoxinB;   Drug: Placebo&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Supernus Pharmaceuticals, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04815967?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2021-03-25T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>27</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Neuroplasticity of Cortical Areas Induced by Cognitive Training in Patients With Multiple Sclerosis MS-NEUROPLAST</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Cognitive Decline&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Cognitive Training&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Aristotle University Of Thessaloniki;   King Fahad Medical City&lt;br/&gt;&lt;b&gt;Active, not recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04806568?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>26</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Virtual Reality in Physical Therapy in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Device: Neuroproprioceptive "facilitation and inhibition" in virtual reality;   Other: Neuroproprioceptive "facilitation and inhibition"&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Charles University, Czech Republic&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04807738?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>25</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2021-03-19T11:55:20</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Nature of the Link Between Executive Functions and Theory of Mind in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Theory of Mind&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04806217?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2021-03-19T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>24</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2021-03-18T11:23:53</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Emotions in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Carrying out a tests and questionnaires battery&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Lille Catholic University&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04804787?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2021-03-18T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>23</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2021-03-15T14:45:21</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Pathogenicity of B and CD4 T Cell Subsets in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Clinically Isolated Syndrome&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: blood sample;   Biological: cerebro-spinal fluid&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University Hospital, Bordeaux;   University of Bordeaux&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04798651?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2021-03-15T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>22</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2021-03-15T14:45:21</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Efficacy of COVID-19 Vaccination in Patients With Multiple Sclerosis Treated With Immune Modulating Medication</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Analysis of cell-mediated and antibody-mediated immunity to SARS-CoV-2 virus&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Providence Health &amp; Services&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04796584?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2021-03-15T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>21</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2021-03-12T14:58:20</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Role of Individualized Versus Traditional Exercise in Combating Fatigue in Fatigued Multiple Sclerosis Patients</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Other: Adapted and individualized physical training program;   Other: traditional training program&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Centre Hospitalier Universitaire de Saint Etienne&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04796272?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2021-03-12T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>20</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:31</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Post-COntrast 3D SE T1 Versus Coronal SE T1-WI MRI in Detecting Optic Neuritis (COCON)</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04793087?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>19</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:31</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>3D FLAIR Versus Coronal T2-WI MRI in Detecting Optic Neuritis (FLACON)</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Optic Neuritis;   Multiple Sclerosis;   Encephalopathy&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Diagnostic Test: Magnetic Resonance Imaging&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Fondation Ophtalmologique Adolphe de Rothschild&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04792866?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>18</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2021-03-11T12:25:30</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Exploring the Immune Response to SARS-CoV-2 modRNA Vaccines in Patients With Secondary Progressive Multiple Sclerosis (AMA-VACC)</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Secondary Progressive Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: BAF312;   Drug: Baseline disease modifying therapies (DMTs)&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04792567?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2021-03-11T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>17</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2021-03-09T14:59:53</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Open Label Randomized Multicenter to Assess Efficacy &amp;amp; Tolerability of Ofatumumab 20mg vs. First Line DMT in RMS</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Ofatumumab;   Drug: First line DMT&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Novartis Pharmaceuticals&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04788615?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2021-03-09T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>16</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2021-03-09T14:59:53</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>T Cell Profiling in Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: Blood Sample&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Boston Children's Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04789551?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2021-03-09T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>15</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Behavioral Intervention for Physical Activity and Sexual Dysfunction in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis, Relapsing-Remitting;   Sexual Dysfunction&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Behavioral: Behavioural intervention for physical activity for multiple sclerosis (BIPAMS)&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Alabama at Birmingham;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04768777?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2021-02-24T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>14</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>miRNA Biomarkers in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   miRNA;   Epigenetic;   Biomarker&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Genetic: miRNA&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    University of Gaziantep&lt;br/&gt;&lt;b&gt;Completed&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04772495?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2021-02-26T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>13</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Comparing the Safety and Benefit of Natalizumab (Tysabri®) At-home Infusion vs At-hospital Infusion in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis (MS)&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Other: At-home natalizumab treated MS patient&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Nantes University Hospital;   Rennes University Hospital&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04777539?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2021-03-02T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>12</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>ATOMIC (Active Teens Multiple Sclerosis) Physical Activity Research Program</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Pediatric Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Physical Activity (PA) Intervention;   Behavioral: Waitlist attention-control&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    The Hospital for Sick Children;   Children's Hospital of Philadelphia;   University of Alabama at Birmingham;   Queen's University;   National Multiple Sclerosis Society&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04782466?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2021-03-04T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>11</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Digital Gait Analysis in the Home Environment of Patients With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    &lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Medical Valley Digital Health Application Center GmbH;   Celgene Corporation;   NeuroSys GmbH;   Fraunhofer Institute for Integrated Circuits IIS;   Portabiles HealthCare Technologies GmbH;   University of Regensburg&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04771858?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2021-02-25T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>10</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Acceptability of Exoskeleton Assisted Walking for Persons With Mobility Issues Due to Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    Multiple Sclerosis;   Pathologic Processes;   Sclerosis;   Autoimmune Diseases of the Nervous System;   Demyelinating Autoimmune Diseases, CNS;   Autoimmune Diseases&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Behavioral: Standard Exercise Training;   Device: Phoenix Exoskeleton suit&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Sheffield Teaching Hospitals NHS Foundation Trust&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04786821?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>2021-03-08T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>9</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Addition of Belimumab to B-cell Depletion in Relapsing-remitting Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Drug: Belimumab;   Drug: Short-course Ocrelizumab;   Drug: Continued Ocrelizumab&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Johns Hopkins University;   GlaxoSmithKline&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04767698?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>2021-02-23T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>8</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2021-03-08T13:43:03</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>The Effect of Extra Virgin Olive Oil in People With Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Dietary Supplement: High Phenolic Extra Virgin Olive Oil&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    University of Cyprus;   World Olive Center for Health;   Ellis-Farm, Eliama Daily Value&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04787497?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2021-03-08T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>7</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2021-03-08T12:17:02</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Extension to the MAGNIFY MS Trial on Mavenclad® (Magnify MS Extension)</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04783935?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>2021-03-05T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>6</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2021-03-08T12:17:02</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Cognition and HRQoL in Adults With Highly-active RMS in Year 3 and 4 After Initial Mavenclad® Dose (CLARIFY MS Extension)</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Multiple Sclerosis&lt;br/&gt;&lt;b&gt;Intervention&lt;/b&gt;:    Drug: Mavenclad®&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Merck Healthcare KGaA, Darmstadt, Germany, an affiliate of Merck KGaA, Darmstadt, Germany&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04776213?cond=Multiple+Sclerosis&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2021-03-01T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2021-03-02T14:12:09</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>COVID-19: SARS Vaccination</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2021-02-21T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Antibody Response to COVID-19 Vaccines in Liver Disease Patients</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    Chronic Liver Disease&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Biological: CoronaVac;   Biological: AZD1222&lt;br/&gt;&lt;b&gt;Sponsor&lt;/b&gt;:    Humanity &amp; Health Medical Group Limited&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04775069?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>2021-03-01T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Study to Evaluate the Safety, Tolerability, and Immunogenicity of SARS CoV-2 RNA Vaccine Candidate (BNT162b2) Against COVID-19 in Healthy Pregnant Women 18 Years of Age and Older</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV-2 Infection;   COVID-19;   Maternal Immunization&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: BNT162b2;   Other: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    BioNTech SE;   Pfizer&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04754594?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2021-02-15T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>National Cohort Study of Effectiveness and Safety of SARS-CoV-2&amp;#x2F;COVID-19 Vaccines (ENFORCE)</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Condition&lt;/b&gt;:    SARS-CoV Infection&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: COMIRNATY - BioNTech Manufacturing GmbH;   Biological: COVID-19 Vaccine Moderna dispersion for injection - MODERNA BIOTECH;   Biological: COVID-19 Vaccine AstraZeneca suspension for injection&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    Jens D Lundgren, MD;   Ministry of the Interior and Health, Denmark&lt;br/&gt;&lt;b&gt;Recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04760132?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>2021-02-18T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2021-02-27</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>COVID-19: SARS Vaccination Reactions</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Conditions&lt;/b&gt;:    SARS-CoV Infection;   COVID-19;   Allergic Reaction;   Mast Cell Disorder;   Non-atopic&lt;br/&gt;&lt;b&gt;Interventions&lt;/b&gt;:    Biological: Moderna COVID-19 Vaccine;   Biological: Pfizer-BioNTech COVID-19 Vaccine;   Biological: Placebo&lt;br/&gt;&lt;b&gt;Sponsors&lt;/b&gt;:    National Institute of Allergy and Infectious Diseases (NIAID);   Immune Tolerance Network (ITN);   Rho Federal Systems Division, Inc.&lt;br/&gt;&lt;b&gt;Not yet recruiting&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>https://clinicaltrials.gov/ct2/show/NCT04761822?term=biontech&amp;amp;sfpd_d=14&amp;amp;sel_rss=new14</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>2021-02-21T17:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>ClinicalTrials.gov</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>